--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_675.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_675.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d84529-Reviews-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>204</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Rodeway-Inn-Culver-City.h6927.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_675.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_675.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="670">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1920 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r542429300-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>84529</t>
+  </si>
+  <si>
+    <t>542429300</t>
+  </si>
+  <si>
+    <t>11/21/2017</t>
+  </si>
+  <si>
+    <t>Very good</t>
+  </si>
+  <si>
+    <t>We loved our room.  It was a big room with a big bathroom and a very comfortable bed.  The room was including all necessary minimum equipment for a comfortable stay.  They have cleaned and tidied our room every day.  The personnel was very helpful.  It is an asset that they have a free parking lot.  The garden, pool and all open-air spaces at the hotel was under construction, so it will be better in the near future.  The only downside is their breakfast.  It is very limited.  However, considering the very reasonable price compared to other hotels in LA, we can say it is fair.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r541874089-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>541874089</t>
+  </si>
+  <si>
+    <t>11/18/2017</t>
+  </si>
+  <si>
+    <t>Small Room, Good Location, Staff was helpful</t>
+  </si>
+  <si>
+    <t>This was the least expensive place in the area and it was fine. The room itself is tiny, but again a bed, tv and a bathroom.  It is within walking distance of a lot of nice places and across from CBS.  Do not try and smoke in the courtyard as I was told I couldn't as I did not see the no smoking sign.  I just figured I was outside. Rosarita (I hope that is her name) was very nice and let me stay in the room a little longer than I should have as my ride was running late. Overall I would recommend the place if you just need a place to sleep.  It was clean and everything worked out fine.  Thank you Rosarita for your kindness.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>This was the least expensive place in the area and it was fine. The room itself is tiny, but again a bed, tv and a bathroom.  It is within walking distance of a lot of nice places and across from CBS.  Do not try and smoke in the courtyard as I was told I couldn't as I did not see the no smoking sign.  I just figured I was outside. Rosarita (I hope that is her name) was very nice and let me stay in the room a little longer than I should have as my ride was running late. Overall I would recommend the place if you just need a place to sleep.  It was clean and everything worked out fine.  Thank you Rosarita for your kindness.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r540798469-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>540798469</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>DO NOT EVER STAY HERE! ROOMS REEK of smoke, Hotel staff could care less about their customers!!!!!!</t>
+  </si>
+  <si>
+    <t>This was one of the worse hotel experiences of my life. I would not wish a stay here on my worst enemy.  The hotel staff here does not care one bit about its customers, are greedy, and only care about money. This hotel is advertised to be a nonsmoking hotel and the hotel room we received REEKED and SMELLED completely of tobacco.  We had originally booked for 3 nights and did not even stay one night.  In fact after smelling the room I left after 5 seconds and asked the desk staff to come and smell the room.  We told them we wanted a full refund because of their false advertisement.  We booked somewhere else for all 3 nights.  The front desk personnel said that the manager would be in the next morning and likely wouldn't have a problem refunding us the money. After numerous emails that went unanswered and calls the hotel REFUSED to give us a refund and charged us for ALL THREE nights even though we did not even stay one night.  PLEASE DO NOT EVER  SUPPORT these people.  They  do not care about their customers and are COMPLETE FRAUDS!  Also, THEY say they are NONSMOKING BUT THEIR ROOMS SMELL OF SMOKE!!!!!!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>This was one of the worse hotel experiences of my life. I would not wish a stay here on my worst enemy.  The hotel staff here does not care one bit about its customers, are greedy, and only care about money. This hotel is advertised to be a nonsmoking hotel and the hotel room we received REEKED and SMELLED completely of tobacco.  We had originally booked for 3 nights and did not even stay one night.  In fact after smelling the room I left after 5 seconds and asked the desk staff to come and smell the room.  We told them we wanted a full refund because of their false advertisement.  We booked somewhere else for all 3 nights.  The front desk personnel said that the manager would be in the next morning and likely wouldn't have a problem refunding us the money. After numerous emails that went unanswered and calls the hotel REFUSED to give us a refund and charged us for ALL THREE nights even though we did not even stay one night.  PLEASE DO NOT EVER  SUPPORT these people.  They  do not care about their customers and are COMPLETE FRAUDS!  Also, THEY say they are NONSMOKING BUT THEIR ROOMS SMELL OF SMOKE!!!!!!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r493539694-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>493539694</t>
+  </si>
+  <si>
+    <t>06/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic accommodations </t>
+  </si>
+  <si>
+    <t>Very basic accommodations. The hotel tries to upgrade with nice furniture but walls itself need repair. Air conditioner works but 1980 window unit. Elevator works. Corridors  and hallways not air conditioned, they leave doors open for a breeze (this is not a beach town) so hot/muggy/mosquitoes greet you. Road noise is apparent. We had to wear sunglasses in the shower due to the glare in the bathroom being WAY over the top bright!!! You can't see it's so bright (room 220). Strange. It's across the street from CBS studios so an attendance to the late night show would be the only good idea at this location. Solid basic hotel. Keywords are basic/road noise/strange. MoreShow less</t>
+  </si>
+  <si>
+    <t>Very basic accommodations. The hotel tries to upgrade with nice furniture but walls itself need repair. Air conditioner works but 1980 window unit. Elevator works. Corridors  and hallways not air conditioned, they leave doors open for a breeze (this is not a beach town) so hot/muggy/mosquitoes greet you. Road noise is apparent. We had to wear sunglasses in the shower due to the glare in the bathroom being WAY over the top bright!!! You can't see it's so bright (room 220). Strange. It's across the street from CBS studios so an attendance to the late night show would be the only good idea at this location. Solid basic hotel. Keywords are basic/road noise/strange. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r471502297-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>471502297</t>
+  </si>
+  <si>
+    <t>03/30/2017</t>
+  </si>
+  <si>
+    <t>Tiny Room; Great Location</t>
+  </si>
+  <si>
+    <t>The front desk personnel was efficient, nice and helpful. I was very surprised when I opened the front door.   This was the smallest hotel room I have ever seen.  There was no real closet space, no clock, no chairs...just a queen sized bed which covered virtually the entire room.  However, there was a small desk, fridge and a microwave., and the TV was modern.  The bathroom was tiny, but the plumbing worked and the shower was adequate. The breakfast consisted of random pastries, yogurt and coffee. There was a quaint courtyard area in the middle of the hotel   We stayed for three days at $156.00 per night.  The location is fantastic.  The CBS Broadcast Center was across Beverly Blvd., and the Farmer's Market (a great venue) was within walking distance.  All things considered, the stay was okay, but be prepared for the tiny room!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>The front desk personnel was efficient, nice and helpful. I was very surprised when I opened the front door.   This was the smallest hotel room I have ever seen.  There was no real closet space, no clock, no chairs...just a queen sized bed which covered virtually the entire room.  However, there was a small desk, fridge and a microwave., and the TV was modern.  The bathroom was tiny, but the plumbing worked and the shower was adequate. The breakfast consisted of random pastries, yogurt and coffee. There was a quaint courtyard area in the middle of the hotel   We stayed for three days at $156.00 per night.  The location is fantastic.  The CBS Broadcast Center was across Beverly Blvd., and the Farmer's Market (a great venue) was within walking distance.  All things considered, the stay was okay, but be prepared for the tiny room!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r468661262-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>468661262</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>Cute room</t>
+  </si>
+  <si>
+    <t>Close to The Grove (shopping).  Right across the street from CBS Television City.  Free (limited) parking. Free internet.  Free breakfast (waffles, pastries, juice &amp; yogurt). Cute court yard.  Lots o surveillance cameras. No closet, just a place in the corner to hang your things.  The curved shower rod was installed too deep into the shower to give the benefit of having it.  The shower curtain was too short.  The A/C was loud, but it drowned out the traffic noise.  You have to be buzzed in to the reception area after hours, but the front door stayed open all night.  I would not recommend this location for a female traveling alone.MoreShow less</t>
+  </si>
+  <si>
+    <t>Close to The Grove (shopping).  Right across the street from CBS Television City.  Free (limited) parking. Free internet.  Free breakfast (waffles, pastries, juice &amp; yogurt). Cute court yard.  Lots o surveillance cameras. No closet, just a place in the corner to hang your things.  The curved shower rod was installed too deep into the shower to give the benefit of having it.  The shower curtain was too short.  The A/C was loud, but it drowned out the traffic noise.  You have to be buzzed in to the reception area after hours, but the front door stayed open all night.  I would not recommend this location for a female traveling alone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r452065934-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>452065934</t>
+  </si>
+  <si>
+    <t>01/15/2017</t>
+  </si>
+  <si>
+    <t>Great location + room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is very handy location, the grove is 5.mins walk that has a hop on hop off buss stop and lots of amazing restuarants and shopping stores. Hollywood main drag is a $6 uber away. Great location! Rooms are large and comfortable. We were able to check into our room very early when our flight arrived at no extra cost. Breakfast was nice, waffles, toast, fruit and yoghurt. Great stay if your after a good location and dont want to pay the earth! </t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r443426132-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>443426132</t>
+  </si>
+  <si>
+    <t>12/10/2016</t>
+  </si>
+  <si>
+    <t>Actually a good economical choice in a very pricey neighborhood</t>
+  </si>
+  <si>
+    <t>Although there are quite a few smaller hotels in the neighborhood of Beverly and Fairfax, the Rodeway Inn is a good value for the price.  You may have to sacrifice a bit on the size of room and lack of drawer space for a few hangers on the wall and no desk.  We did get two queen beds in a 2 room configuration which was was very nice.  The beds were extremely comfortable and gave us a good night's sleep.  As the hotel is right on Beverly Boulevard, there is quite a bit of street noise, especially if the room is on the side of Beverly or even on the side street.  If you're on the first floor, you may hear the floor squeak above your head if someone is walking on the second floor.  But Rodeway does provide a decent continental breakfast with self-made waffles, bagels, and bread, as well as cereal and danish.  The coffee machine is pretty good and there is also a nice selection of yogurt.  They also serve milk and orange juice so you can have a decent breakfast.  The underground parking is accessed by a very steep and narrow driveway; not fun to go in and out.  There are several spaces off the alley in the back on the side of the building that are available and you should try to park there instead of in the underground area.  The rooms were clean, sheets...Although there are quite a few smaller hotels in the neighborhood of Beverly and Fairfax, the Rodeway Inn is a good value for the price.  You may have to sacrifice a bit on the size of room and lack of drawer space for a few hangers on the wall and no desk.  We did get two queen beds in a 2 room configuration which was was very nice.  The beds were extremely comfortable and gave us a good night's sleep.  As the hotel is right on Beverly Boulevard, there is quite a bit of street noise, especially if the room is on the side of Beverly or even on the side street.  If you're on the first floor, you may hear the floor squeak above your head if someone is walking on the second floor.  But Rodeway does provide a decent continental breakfast with self-made waffles, bagels, and bread, as well as cereal and danish.  The coffee machine is pretty good and there is also a nice selection of yogurt.  They also serve milk and orange juice so you can have a decent breakfast.  The underground parking is accessed by a very steep and narrow driveway; not fun to go in and out.  There are several spaces off the alley in the back on the side of the building that are available and you should try to park there instead of in the underground area.  The rooms were clean, sheets were clean, and towels were clean (also plush).  Despite a few drawbacks, it was OK.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Although there are quite a few smaller hotels in the neighborhood of Beverly and Fairfax, the Rodeway Inn is a good value for the price.  You may have to sacrifice a bit on the size of room and lack of drawer space for a few hangers on the wall and no desk.  We did get two queen beds in a 2 room configuration which was was very nice.  The beds were extremely comfortable and gave us a good night's sleep.  As the hotel is right on Beverly Boulevard, there is quite a bit of street noise, especially if the room is on the side of Beverly or even on the side street.  If you're on the first floor, you may hear the floor squeak above your head if someone is walking on the second floor.  But Rodeway does provide a decent continental breakfast with self-made waffles, bagels, and bread, as well as cereal and danish.  The coffee machine is pretty good and there is also a nice selection of yogurt.  They also serve milk and orange juice so you can have a decent breakfast.  The underground parking is accessed by a very steep and narrow driveway; not fun to go in and out.  There are several spaces off the alley in the back on the side of the building that are available and you should try to park there instead of in the underground area.  The rooms were clean, sheets...Although there are quite a few smaller hotels in the neighborhood of Beverly and Fairfax, the Rodeway Inn is a good value for the price.  You may have to sacrifice a bit on the size of room and lack of drawer space for a few hangers on the wall and no desk.  We did get two queen beds in a 2 room configuration which was was very nice.  The beds were extremely comfortable and gave us a good night's sleep.  As the hotel is right on Beverly Boulevard, there is quite a bit of street noise, especially if the room is on the side of Beverly or even on the side street.  If you're on the first floor, you may hear the floor squeak above your head if someone is walking on the second floor.  But Rodeway does provide a decent continental breakfast with self-made waffles, bagels, and bread, as well as cereal and danish.  The coffee machine is pretty good and there is also a nice selection of yogurt.  They also serve milk and orange juice so you can have a decent breakfast.  The underground parking is accessed by a very steep and narrow driveway; not fun to go in and out.  There are several spaces off the alley in the back on the side of the building that are available and you should try to park there instead of in the underground area.  The rooms were clean, sheets were clean, and towels were clean (also plush).  Despite a few drawbacks, it was OK.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r436234521-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>436234521</t>
+  </si>
+  <si>
+    <t>11/10/2016</t>
+  </si>
+  <si>
+    <t>Anthony saved the day</t>
+  </si>
+  <si>
+    <t>Prebooked prepaid no cancellation no refund.  We were given a room that was very small one bed a queen I think, Asked for a cot but there was no room to put one.  I feel if you prebook, you lose all chances of getting a decent room, they probably assign the worst room they have once they have your non refundable money.   But anyway my cousin freaked out with claustrophobia and paid for a room with two separate rooms, one bath room.  The place was nice and clean no bugs.  The phones in our rooms did not work when we needed to call the lobby, they never got fixed.  Anthony was our shining star always helpful with directions and ideas.  The place is across the street from CBS if your lucky enough to get tickets.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Prebooked prepaid no cancellation no refund.  We were given a room that was very small one bed a queen I think, Asked for a cot but there was no room to put one.  I feel if you prebook, you lose all chances of getting a decent room, they probably assign the worst room they have once they have your non refundable money.   But anyway my cousin freaked out with claustrophobia and paid for a room with two separate rooms, one bath room.  The place was nice and clean no bugs.  The phones in our rooms did not work when we needed to call the lobby, they never got fixed.  Anthony was our shining star always helpful with directions and ideas.  The place is across the street from CBS if your lucky enough to get tickets.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r420899474-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>420899474</t>
+  </si>
+  <si>
+    <t>09/21/2016</t>
+  </si>
+  <si>
+    <t>Pleasantly Impressed</t>
+  </si>
+  <si>
+    <t>I am a 21 year old female who was traveling to LA from MA alone. It took me a while to make a decision on a place to stay &amp; this is where I ended up booking my stay. I was pretty impressed with the hotel. 
+  The location couldn't be more ideal. It's directly across of CBS studios &amp; a couple blocks away from the Grove &amp; Beverly Center. 
+  The room was really nice for an "inn" &amp; it looks exactly how it does in the photos on their site. The room was equipped with a mini fridge &amp; a microwave which came in handy since I bought some things to keep in my room (microwave rice &amp; pasta, cereal, water, etc) so I wasn't constantly spending money. The bed was surprisingly comfortable &amp; I'm someone who can be very sensitive to different beds (whether they be too soft or too hard) &amp; can be easily uncomfortable. The room as well as the bathroom was the perfect size, not too big &amp; not too small. 
+  The bathroom had great lighting &amp; the shower, although it wasn't anything spectacular, it was spacious. The shower head is at the perfect level &amp; the water pressure &amp; temperatures were great. The toilet however would make a noise once in a while as if it was draining or something &amp; it would do that every day but that didn't bother me. 
+  There were guests...I am a 21 year old female who was traveling to LA from MA alone. It took me a while to make a decision on a place to stay &amp; this is where I ended up booking my stay. I was pretty impressed with the hotel.   The location couldn't be more ideal. It's directly across of CBS studios &amp; a couple blocks away from the Grove &amp; Beverly Center.   The room was really nice for an "inn" &amp; it looks exactly how it does in the photos on their site. The room was equipped with a mini fridge &amp; a microwave which came in handy since I bought some things to keep in my room (microwave rice &amp; pasta, cereal, water, etc) so I wasn't constantly spending money. The bed was surprisingly comfortable &amp; I'm someone who can be very sensitive to different beds (whether they be too soft or too hard) &amp; can be easily uncomfortable. The room as well as the bathroom was the perfect size, not too big &amp; not too small.   The bathroom had great lighting &amp; the shower, although it wasn't anything spectacular, it was spacious. The shower head is at the perfect level &amp; the water pressure &amp; temperatures were great. The toilet however would make a noise once in a while as if it was draining or something &amp; it would do that every day but that didn't bother me.   There were guests who checked in the room above me towards the end of my stay &amp; I could hear a lot of their foot steps which was a little frustrating.   Room service (unless this is normal &amp; I wasn't aware of it) I felt like was different each day. Sometimes they would knock to come clean at say 11 AM &amp; then sometimes they would come &amp; clean around 2 PM.   A friend came to visit me one night &amp; had to park in the parking garage &amp; it was quite narrow &amp; tight, it's easy to get little dinks &amp; scrapes from the garage. It also only parks say 10-12 cars so keep that in mind as well. All in all I will definitely book my stay here again when I plan my next visit to LA.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I am a 21 year old female who was traveling to LA from MA alone. It took me a while to make a decision on a place to stay &amp; this is where I ended up booking my stay. I was pretty impressed with the hotel. 
+  The location couldn't be more ideal. It's directly across of CBS studios &amp; a couple blocks away from the Grove &amp; Beverly Center. 
+  The room was really nice for an "inn" &amp; it looks exactly how it does in the photos on their site. The room was equipped with a mini fridge &amp; a microwave which came in handy since I bought some things to keep in my room (microwave rice &amp; pasta, cereal, water, etc) so I wasn't constantly spending money. The bed was surprisingly comfortable &amp; I'm someone who can be very sensitive to different beds (whether they be too soft or too hard) &amp; can be easily uncomfortable. The room as well as the bathroom was the perfect size, not too big &amp; not too small. 
+  The bathroom had great lighting &amp; the shower, although it wasn't anything spectacular, it was spacious. The shower head is at the perfect level &amp; the water pressure &amp; temperatures were great. The toilet however would make a noise once in a while as if it was draining or something &amp; it would do that every day but that didn't bother me. 
+  There were guests...I am a 21 year old female who was traveling to LA from MA alone. It took me a while to make a decision on a place to stay &amp; this is where I ended up booking my stay. I was pretty impressed with the hotel.   The location couldn't be more ideal. It's directly across of CBS studios &amp; a couple blocks away from the Grove &amp; Beverly Center.   The room was really nice for an "inn" &amp; it looks exactly how it does in the photos on their site. The room was equipped with a mini fridge &amp; a microwave which came in handy since I bought some things to keep in my room (microwave rice &amp; pasta, cereal, water, etc) so I wasn't constantly spending money. The bed was surprisingly comfortable &amp; I'm someone who can be very sensitive to different beds (whether they be too soft or too hard) &amp; can be easily uncomfortable. The room as well as the bathroom was the perfect size, not too big &amp; not too small.   The bathroom had great lighting &amp; the shower, although it wasn't anything spectacular, it was spacious. The shower head is at the perfect level &amp; the water pressure &amp; temperatures were great. The toilet however would make a noise once in a while as if it was draining or something &amp; it would do that every day but that didn't bother me.   There were guests who checked in the room above me towards the end of my stay &amp; I could hear a lot of their foot steps which was a little frustrating.   Room service (unless this is normal &amp; I wasn't aware of it) I felt like was different each day. Sometimes they would knock to come clean at say 11 AM &amp; then sometimes they would come &amp; clean around 2 PM.   A friend came to visit me one night &amp; had to park in the parking garage &amp; it was quite narrow &amp; tight, it's easy to get little dinks &amp; scrapes from the garage. It also only parks say 10-12 cars so keep that in mind as well. All in all I will definitely book my stay here again when I plan my next visit to LA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r411555767-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>411555767</t>
+  </si>
+  <si>
+    <t>08/27/2016</t>
+  </si>
+  <si>
+    <t>Great for seeing a show at the CBS Broadcasting Studio</t>
+  </si>
+  <si>
+    <t>This motel is affordable and convenient for people with tickets to see a show at the Broadcasting Studio.  While the rooms are small, they do have all the necessary amenities including a/c, coffee makers, frig, and microwave.  There is also a garage.  The staff, while nice, needs a bit more front desk training, so they can answer some basic questions re: nearest airport, restaurants, and stores.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r405504967-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>405504967</t>
+  </si>
+  <si>
+    <t>08/14/2016</t>
+  </si>
+  <si>
+    <t>Small Room, Comfy Beds</t>
+  </si>
+  <si>
+    <t>I went with two of my friends and it was our first time staying at this hotel. First room they gave us smelled like cigarette smoke, yuck! They were able to accommodate us to another room. This one smelled better, but it was a small room with one bed and and extra folding bed. Room was clean, organized, beds were comfy, and a working tv! The only thing I didn't like was the bathroom shower. I'm 5'6" tall, and I think that shower head was at least 5in lower from my eye level. Too uncomfortable to shower in the morning. Breakfast needs more variety. Staff needs to be more friendly. Hotel needs more parking spaces (get to the hotel early to get a "good" spot). Other than that, hotel's location is great! Across from CBS building (if you're planning to go to 'The Price is Right!'), The Grove and The Farmer's Market are relatively close to stroll around and lots of restaurants to choose from.MoreShow less</t>
+  </si>
+  <si>
+    <t>I went with two of my friends and it was our first time staying at this hotel. First room they gave us smelled like cigarette smoke, yuck! They were able to accommodate us to another room. This one smelled better, but it was a small room with one bed and and extra folding bed. Room was clean, organized, beds were comfy, and a working tv! The only thing I didn't like was the bathroom shower. I'm 5'6" tall, and I think that shower head was at least 5in lower from my eye level. Too uncomfortable to shower in the morning. Breakfast needs more variety. Staff needs to be more friendly. Hotel needs more parking spaces (get to the hotel early to get a "good" spot). Other than that, hotel's location is great! Across from CBS building (if you're planning to go to 'The Price is Right!'), The Grove and The Farmer's Market are relatively close to stroll around and lots of restaurants to choose from.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r388568854-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>388568854</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>Brief Visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel was clean and staff excellent. Everyone is curious and accommodates every request you may have. The wifi worked during our stay. Hotel was quiet and we did not experience any disturbances. Did not see any security when we visited however the hotel staff monitors the property via CCTV.  Parking is a total nightmare so we used uber after 8PM. Did I mention there is free coffee 24/7. Breakfast we welcomed on that final day since we were running to the airport. We would return if the price is competitive. </t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r387439216-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>387439216</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>Room was very clean and huge.Door key entry kept failing so had to get it reset.Front of house staff not particularly helpful but others were lovely.Area did not feel very safe if you were walking particularly after dark but if in car it was fine.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r375616094-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>375616094</t>
+  </si>
+  <si>
+    <t>05/22/2016</t>
+  </si>
+  <si>
+    <t>Lots of cons, some pros</t>
+  </si>
+  <si>
+    <t>I have been staying at this hotel for a few years for my weekend trips from San Francisco.  This hotel has everything you could want from a motel; free parking, free breakfast, clean rooms, close to bars, on a street close to famous restaurants and other places to walk too, etc.  On a couple recent visits the cons of this hotel started to shine.  After driving all night from SF I pulled up to check in.  After checking in I went to park in the lot (3 spots upstairs, and about 8 in the tight basement).  I found all parking was full.  I circled the block and also found no other street parking.  I asked the front desk clerk about other parking options and they told me to park on the street.  This would have been fine, but the signs said daily street cleaning at 7am.  I didn't want to wake up to move my car for street cleaning at 7am during my vacation.  There were no other parking lots available near by.  I spoke with the manager the following day and they were less than sympathetic.  Unlike other Choice Hotel properties they don't monitor the parking, and they don't limit the cars.  Even after showing the advertisement on their website about "free parking" they had no response.  Other days I had to plan my day around finding a parking spot and ensured I was at the motel by 5pm....I have been staying at this hotel for a few years for my weekend trips from San Francisco.  This hotel has everything you could want from a motel; free parking, free breakfast, clean rooms, close to bars, on a street close to famous restaurants and other places to walk too, etc.  On a couple recent visits the cons of this hotel started to shine.  After driving all night from SF I pulled up to check in.  After checking in I went to park in the lot (3 spots upstairs, and about 8 in the tight basement).  I found all parking was full.  I circled the block and also found no other street parking.  I asked the front desk clerk about other parking options and they told me to park on the street.  This would have been fine, but the signs said daily street cleaning at 7am.  I didn't want to wake up to move my car for street cleaning at 7am during my vacation.  There were no other parking lots available near by.  I spoke with the manager the following day and they were less than sympathetic.  Unlike other Choice Hotel properties they don't monitor the parking, and they don't limit the cars.  Even after showing the advertisement on their website about "free parking" they had no response.  Other days I had to plan my day around finding a parking spot and ensured I was at the motel by 5pm.  Thanks for ruining my vacation Rodeway Inn!!If you plan on driving to this hotel with your own car... choose a different hotel.  It will not be worth your hassle.  There are other Choice hotels in the area that are managed better.Pros:  Free cold breakfast, rooms are up to date, free wifi thats mostly reliable, walking distance to a lot restaurants Cons: Outside doors are open 24/7, no security, parking is a nightmare, rooms have imperfections (chipped paint, broken fixtures, etc.), tight garage with no parking guarantee, no pool, no sit down breakfast area, pick your room carefully else it will be noisyMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>I have been staying at this hotel for a few years for my weekend trips from San Francisco.  This hotel has everything you could want from a motel; free parking, free breakfast, clean rooms, close to bars, on a street close to famous restaurants and other places to walk too, etc.  On a couple recent visits the cons of this hotel started to shine.  After driving all night from SF I pulled up to check in.  After checking in I went to park in the lot (3 spots upstairs, and about 8 in the tight basement).  I found all parking was full.  I circled the block and also found no other street parking.  I asked the front desk clerk about other parking options and they told me to park on the street.  This would have been fine, but the signs said daily street cleaning at 7am.  I didn't want to wake up to move my car for street cleaning at 7am during my vacation.  There were no other parking lots available near by.  I spoke with the manager the following day and they were less than sympathetic.  Unlike other Choice Hotel properties they don't monitor the parking, and they don't limit the cars.  Even after showing the advertisement on their website about "free parking" they had no response.  Other days I had to plan my day around finding a parking spot and ensured I was at the motel by 5pm....I have been staying at this hotel for a few years for my weekend trips from San Francisco.  This hotel has everything you could want from a motel; free parking, free breakfast, clean rooms, close to bars, on a street close to famous restaurants and other places to walk too, etc.  On a couple recent visits the cons of this hotel started to shine.  After driving all night from SF I pulled up to check in.  After checking in I went to park in the lot (3 spots upstairs, and about 8 in the tight basement).  I found all parking was full.  I circled the block and also found no other street parking.  I asked the front desk clerk about other parking options and they told me to park on the street.  This would have been fine, but the signs said daily street cleaning at 7am.  I didn't want to wake up to move my car for street cleaning at 7am during my vacation.  There were no other parking lots available near by.  I spoke with the manager the following day and they were less than sympathetic.  Unlike other Choice Hotel properties they don't monitor the parking, and they don't limit the cars.  Even after showing the advertisement on their website about "free parking" they had no response.  Other days I had to plan my day around finding a parking spot and ensured I was at the motel by 5pm.  Thanks for ruining my vacation Rodeway Inn!!If you plan on driving to this hotel with your own car... choose a different hotel.  It will not be worth your hassle.  There are other Choice hotels in the area that are managed better.Pros:  Free cold breakfast, rooms are up to date, free wifi thats mostly reliable, walking distance to a lot restaurants Cons: Outside doors are open 24/7, no security, parking is a nightmare, rooms have imperfections (chipped paint, broken fixtures, etc.), tight garage with no parking guarantee, no pool, no sit down breakfast area, pick your room carefully else it will be noisyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r354574843-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>354574843</t>
+  </si>
+  <si>
+    <t>03/11/2016</t>
+  </si>
+  <si>
+    <t>GOING TO THE PRICE IS RIGHT</t>
+  </si>
+  <si>
+    <t>The Rodeway Inn is a great place to stay if you are planning on attending a taping of The Price Is Right. It is across the street to the main entrance of CBS Studios. You do need to walk around the block to get in line for the taping. It took us about 5 minutes (and we are a Grammy and Papa in our middle 60's). The room was small, but very clean. Not any smaller than a Veranda Room on a cruise ship. The bed was very comfortable. Our room was right off the inside courtyard, so we were able to open our window. We were there March 8 to the 10th. Weather in the 70s. Rosaria at the front desk was very helpful and friendly. The breakfast area is small but there is cereal, fresh bagels and a waffle pancake maker. The Farmers Market is down the block from the Price Is Right Line. Lots of little shops and food vendors. There is an Italian Restaurant called Maggianos that is good as well. You can get a bus just 1/2 block from the Rodeway to see other sites. We rode the bus for 35 cents since we are considered Senior Citizens. We were able to spend an afternoon on the Walk of Fame where the celebrity stars get their name in the sidewalk. Also see Graumann's Chinese Theater and Dolby Theater. Had a great time and was great...The Rodeway Inn is a great place to stay if you are planning on attending a taping of The Price Is Right. It is across the street to the main entrance of CBS Studios. You do need to walk around the block to get in line for the taping. It took us about 5 minutes (and we are a Grammy and Papa in our middle 60's). The room was small, but very clean. Not any smaller than a Veranda Room on a cruise ship. The bed was very comfortable. Our room was right off the inside courtyard, so we were able to open our window. We were there March 8 to the 10th. Weather in the 70s. Rosaria at the front desk was very helpful and friendly. The breakfast area is small but there is cereal, fresh bagels and a waffle pancake maker. The Farmers Market is down the block from the Price Is Right Line. Lots of little shops and food vendors. There is an Italian Restaurant called Maggianos that is good as well. You can get a bus just 1/2 block from the Rodeway to see other sites. We rode the bus for 35 cents since we are considered Senior Citizens. We were able to spend an afternoon on the Walk of Fame where the celebrity stars get their name in the sidewalk. Also see Graumann's Chinese Theater and Dolby Theater. Had a great time and was great to know we had a nice room to return to. The only negative might be the traffic on Beverly Blvd, but we were not bothered by it that much.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>The Rodeway Inn is a great place to stay if you are planning on attending a taping of The Price Is Right. It is across the street to the main entrance of CBS Studios. You do need to walk around the block to get in line for the taping. It took us about 5 minutes (and we are a Grammy and Papa in our middle 60's). The room was small, but very clean. Not any smaller than a Veranda Room on a cruise ship. The bed was very comfortable. Our room was right off the inside courtyard, so we were able to open our window. We were there March 8 to the 10th. Weather in the 70s. Rosaria at the front desk was very helpful and friendly. The breakfast area is small but there is cereal, fresh bagels and a waffle pancake maker. The Farmers Market is down the block from the Price Is Right Line. Lots of little shops and food vendors. There is an Italian Restaurant called Maggianos that is good as well. You can get a bus just 1/2 block from the Rodeway to see other sites. We rode the bus for 35 cents since we are considered Senior Citizens. We were able to spend an afternoon on the Walk of Fame where the celebrity stars get their name in the sidewalk. Also see Graumann's Chinese Theater and Dolby Theater. Had a great time and was great...The Rodeway Inn is a great place to stay if you are planning on attending a taping of The Price Is Right. It is across the street to the main entrance of CBS Studios. You do need to walk around the block to get in line for the taping. It took us about 5 minutes (and we are a Grammy and Papa in our middle 60's). The room was small, but very clean. Not any smaller than a Veranda Room on a cruise ship. The bed was very comfortable. Our room was right off the inside courtyard, so we were able to open our window. We were there March 8 to the 10th. Weather in the 70s. Rosaria at the front desk was very helpful and friendly. The breakfast area is small but there is cereal, fresh bagels and a waffle pancake maker. The Farmers Market is down the block from the Price Is Right Line. Lots of little shops and food vendors. There is an Italian Restaurant called Maggianos that is good as well. You can get a bus just 1/2 block from the Rodeway to see other sites. We rode the bus for 35 cents since we are considered Senior Citizens. We were able to spend an afternoon on the Walk of Fame where the celebrity stars get their name in the sidewalk. Also see Graumann's Chinese Theater and Dolby Theater. Had a great time and was great to know we had a nice room to return to. The only negative might be the traffic on Beverly Blvd, but we were not bothered by it that much.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r353708528-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>353708528</t>
+  </si>
+  <si>
+    <t>03/07/2016</t>
+  </si>
+  <si>
+    <t>Close to cbs studios</t>
+  </si>
+  <si>
+    <t>The reason we booked this hotel is because it is right across from the cbs studios which thats where we were going. we needed to park our car, so we got there around 930am, and we knew it was too early to check in , but we asked the girl at the front desk if we could park in the garage since we had a reservation for that day, she was really nice and had no problem with us doing that, parking now on the other hand was a little challenging. they have an underground garage, it holds about 10 cars. and its very tight , i mean really tight, so if you have a big car or truck forget about it. they do have a few spots above ground, in the alley behind the hotel. umm not really sure i would park there, as we saw lots of people walking around back there drinking stuff from brown bags,
+So this is a no frills hotel, they do offer breakfast in the am. they have a outside courtyard seating area, rooms are super small, but they have a fridge and microwave. no hairdryer. but we stayed on the 2nd floor, and for this being in a busy location, we did have  a quiet night. its good for a 1 night quick stay, and then move on. And it was a bit pricey, but i guess its because of the area...The reason we booked this hotel is because it is right across from the cbs studios which thats where we were going. we needed to park our car, so we got there around 930am, and we knew it was too early to check in , but we asked the girl at the front desk if we could park in the garage since we had a reservation for that day, she was really nice and had no problem with us doing that, parking now on the other hand was a little challenging. they have an underground garage, it holds about 10 cars. and its very tight , i mean really tight, so if you have a big car or truck forget about it. they do have a few spots above ground, in the alley behind the hotel. umm not really sure i would park there, as we saw lots of people walking around back there drinking stuff from brown bags,So this is a no frills hotel, they do offer breakfast in the am. they have a outside courtyard seating area, rooms are super small, but they have a fridge and microwave. no hairdryer. but we stayed on the 2nd floor, and for this being in a busy location, we did have  a quiet night. its good for a 1 night quick stay, and then move on. And it was a bit pricey, but i guess its because of the area its in, its alot cheaper than the other hotels. we paid  $142, totalMoreShow less</t>
+  </si>
+  <si>
+    <t>The reason we booked this hotel is because it is right across from the cbs studios which thats where we were going. we needed to park our car, so we got there around 930am, and we knew it was too early to check in , but we asked the girl at the front desk if we could park in the garage since we had a reservation for that day, she was really nice and had no problem with us doing that, parking now on the other hand was a little challenging. they have an underground garage, it holds about 10 cars. and its very tight , i mean really tight, so if you have a big car or truck forget about it. they do have a few spots above ground, in the alley behind the hotel. umm not really sure i would park there, as we saw lots of people walking around back there drinking stuff from brown bags,
+So this is a no frills hotel, they do offer breakfast in the am. they have a outside courtyard seating area, rooms are super small, but they have a fridge and microwave. no hairdryer. but we stayed on the 2nd floor, and for this being in a busy location, we did have  a quiet night. its good for a 1 night quick stay, and then move on. And it was a bit pricey, but i guess its because of the area...The reason we booked this hotel is because it is right across from the cbs studios which thats where we were going. we needed to park our car, so we got there around 930am, and we knew it was too early to check in , but we asked the girl at the front desk if we could park in the garage since we had a reservation for that day, she was really nice and had no problem with us doing that, parking now on the other hand was a little challenging. they have an underground garage, it holds about 10 cars. and its very tight , i mean really tight, so if you have a big car or truck forget about it. they do have a few spots above ground, in the alley behind the hotel. umm not really sure i would park there, as we saw lots of people walking around back there drinking stuff from brown bags,So this is a no frills hotel, they do offer breakfast in the am. they have a outside courtyard seating area, rooms are super small, but they have a fridge and microwave. no hairdryer. but we stayed on the 2nd floor, and for this being in a busy location, we did have  a quiet night. its good for a 1 night quick stay, and then move on. And it was a bit pricey, but i guess its because of the area its in, its alot cheaper than the other hotels. we paid  $142, totalMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r344831855-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>344831855</t>
+  </si>
+  <si>
+    <t>02/03/2016</t>
+  </si>
+  <si>
+    <t>AVOID OR BRING EAR PLUGS!!</t>
+  </si>
+  <si>
+    <t>Pros: Great location.Cons: This motel is only for those who really enjoy slammed doors, partying and other commotion throughout the night. The good thing is the noise seems to slow around 3:30am, so you can get some sleep around then. But if you like a good night's sleep this motel is NOT for you.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r337547454-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>337547454</t>
+  </si>
+  <si>
+    <t>01/05/2016</t>
+  </si>
+  <si>
+    <t>Small, old, but comfy. Parking is an adventure.</t>
+  </si>
+  <si>
+    <t>Chose this place for proximity to LA County Museum of Art.The place is old, and the room was tiny, but the bed was comfy. Neighborhood a bit dodgy. Oh well, in LA where RE costs a million dollars a square foot, that's to be expected. Price was certainly cheap enough. Not luxury by any means, but if you just need a place to sleep, it's fine.The parking is underground. Entrance is a narrow, steep ramp. Lots of scrapes visible on the walls.  Would hate to try it in a Suburban.But considering the location, the price was right.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Manager7721, General Manager at Rodeway Inn Los Angeles, responded to this reviewResponded January 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2016</t>
+  </si>
+  <si>
+    <t>Chose this place for proximity to LA County Museum of Art.The place is old, and the room was tiny, but the bed was comfy. Neighborhood a bit dodgy. Oh well, in LA where RE costs a million dollars a square foot, that's to be expected. Price was certainly cheap enough. Not luxury by any means, but if you just need a place to sleep, it's fine.The parking is underground. Entrance is a narrow, steep ramp. Lots of scrapes visible on the walls.  Would hate to try it in a Suburban.But considering the location, the price was right.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r331814730-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>331814730</t>
+  </si>
+  <si>
+    <t>12/10/2015</t>
+  </si>
+  <si>
+    <t>Close to CBS Studios - Price is Right</t>
+  </si>
+  <si>
+    <t>We had Price is Right tickets. I looked for an economic place that was close with free parking and complimentary breakfast as we drove in from Phoenix. As our show was taped on Monday we drove in around 2:30 to miss the 5:00 traffic (2 hours on the freeway).The hotel is in an older section of LA this means the hallways are narrow and the rooms are small. It was a tight fit for the basement parking.The staff are friendly and the continental breakfast had waffled pancakes.At night, my wife unhooked the noisy refrigerator so she could sleep.We walked to The Grove, a trendy shopping center and Farmer's Market Plaza.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager7721, Front Office Manager at Rodeway Inn Los Angeles, responded to this reviewResponded December 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2015</t>
+  </si>
+  <si>
+    <t>We had Price is Right tickets. I looked for an economic place that was close with free parking and complimentary breakfast as we drove in from Phoenix. As our show was taped on Monday we drove in around 2:30 to miss the 5:00 traffic (2 hours on the freeway).The hotel is in an older section of LA this means the hallways are narrow and the rooms are small. It was a tight fit for the basement parking.The staff are friendly and the continental breakfast had waffled pancakes.At night, my wife unhooked the noisy refrigerator so she could sleep.We walked to The Grove, a trendy shopping center and Farmer's Market Plaza.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r324718344-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>324718344</t>
+  </si>
+  <si>
+    <t>11/05/2015</t>
+  </si>
+  <si>
+    <t>Filthy Rooms, STAY AWAY</t>
+  </si>
+  <si>
+    <t>I booked a one nights stay at this Hotel in October for my sister-in-law who was visiting a brother in nearby Cedar Sinai Hospital.  She traveled two hours and I chose this hotel because it was close to the hospital.  When she entered her assigned room she found a yellow stain on the comforter, trash that was not emptied, and a stain on the floor.  She took photos of these unacceptable conditions and sent them to me. I contacted the General Manager complaining of these conditions with PHOTOS asking for a full refund.  She declined to contact me.  Evidently this is must be a common problem.  Plus, I paid $153 for the one night.   So please STAY AWAY for your own good. I would give it NO STARS if I couldMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Manager7721, General Manager at Rodeway Inn Los Angeles, responded to this reviewResponded December 15, 2015</t>
+  </si>
+  <si>
+    <t>I booked a one nights stay at this Hotel in October for my sister-in-law who was visiting a brother in nearby Cedar Sinai Hospital.  She traveled two hours and I chose this hotel because it was close to the hospital.  When she entered her assigned room she found a yellow stain on the comforter, trash that was not emptied, and a stain on the floor.  She took photos of these unacceptable conditions and sent them to me. I contacted the General Manager complaining of these conditions with PHOTOS asking for a full refund.  She declined to contact me.  Evidently this is must be a common problem.  Plus, I paid $153 for the one night.   So please STAY AWAY for your own good. I would give it NO STARS if I couldMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r316197043-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>316197043</t>
+  </si>
+  <si>
+    <t>10/04/2015</t>
+  </si>
+  <si>
+    <t>Attentive and Helpful Staff</t>
+  </si>
+  <si>
+    <t>Even though this Inn is a 2 star hotel, they try very hard to make things safe and comfortable for the guests. Special thanks to Rosario at the front desk who is a very kind and helpful lady. She made our stay much more comfortable even though a member of our travelling party was rude and overly demanding. Rosario, you are the BEST!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager7721, Area Operations Director at Rodeway Inn Los Angeles, responded to this reviewResponded October 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2015</t>
+  </si>
+  <si>
+    <t>Even though this Inn is a 2 star hotel, they try very hard to make things safe and comfortable for the guests. Special thanks to Rosario at the front desk who is a very kind and helpful lady. She made our stay much more comfortable even though a member of our travelling party was rude and overly demanding. Rosario, you are the BEST!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r310280935-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>310280935</t>
+  </si>
+  <si>
+    <t>09/14/2015</t>
+  </si>
+  <si>
+    <t>Reasonably priced, great breakfast included</t>
+  </si>
+  <si>
+    <t>The location for this hotel is excellent. Directly across from CBS Studios, close to The Grove shopping center, Farmers market.  Although is an old looking property it is well maintained. Rooms and bathrooms are very clean. The staff is very helpful. Breakfast is served until 10:00 AM although not too many choices you have the basics, juice, cereal, breads, bagels, pastries and you can make your own waffles.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager7721, General Manager at Rodeway Inn Los Angeles, responded to this reviewResponded September 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2015</t>
+  </si>
+  <si>
+    <t>The location for this hotel is excellent. Directly across from CBS Studios, close to The Grove shopping center, Farmers market.  Although is an old looking property it is well maintained. Rooms and bathrooms are very clean. The staff is very helpful. Breakfast is served until 10:00 AM although not too many choices you have the basics, juice, cereal, breads, bagels, pastries and you can make your own waffles.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r296006753-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>296006753</t>
+  </si>
+  <si>
+    <t>08/05/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place to stay! </t>
+  </si>
+  <si>
+    <t>My boyfriend and I wanted a reasonably priced motel in LA for 2 nights, and this was perfect! Great location, clean, friendly staff, yummy light breakfast, close to The Grove which had awesome shopping and restaurants! And ladies there's a hair dryer...but unfortunately no iron! But I'm sure you could ask for one if desperate. Bed was a bit hard but still slept like a baby. Would definitely stay here again if ever back in LA! MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager7721, Front Office Manager at Rodeway Inn Los Angeles, responded to this reviewResponded August 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2015</t>
+  </si>
+  <si>
+    <t>My boyfriend and I wanted a reasonably priced motel in LA for 2 nights, and this was perfect! Great location, clean, friendly staff, yummy light breakfast, close to The Grove which had awesome shopping and restaurants! And ladies there's a hair dryer...but unfortunately no iron! But I'm sure you could ask for one if desperate. Bed was a bit hard but still slept like a baby. Would definitely stay here again if ever back in LA! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r287523439-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>287523439</t>
+  </si>
+  <si>
+    <t>07/10/2015</t>
+  </si>
+  <si>
+    <t>Cheap and Cheerful Across From CBS Studios</t>
+  </si>
+  <si>
+    <t>Well located - some traffic noise, AC worked well and the room was well appointed for a budget brand with fridge and microwave, plunger coffee and breakfast included which you can eat in the courtyard. Basement parking and a lift which was better than street level I found. Great cafe larder a short walk away on the left on the opposite side of the street if you want a better breakfast although there were waffles in the breakfast and pastries - nothing fancy but ok!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Manager7721, Front Office Manager at Rodeway Inn Los Angeles, responded to this reviewResponded July 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2015</t>
+  </si>
+  <si>
+    <t>Well located - some traffic noise, AC worked well and the room was well appointed for a budget brand with fridge and microwave, plunger coffee and breakfast included which you can eat in the courtyard. Basement parking and a lift which was better than street level I found. Great cafe larder a short walk away on the left on the opposite side of the street if you want a better breakfast although there were waffles in the breakfast and pastries - nothing fancy but ok!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r280466859-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>280466859</t>
+  </si>
+  <si>
+    <t>06/15/2015</t>
+  </si>
+  <si>
+    <t>clean and convenient</t>
+  </si>
+  <si>
+    <t>we stayed only one night but had a good time. the room was comfortable and clean and everything was functional in it.the staff was nice and very helpful! they let us check in early because of our long travels behind us which was highly appreciated.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager7721, Front Office Manager at Rodeway Inn Los Angeles, responded to this reviewResponded June 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2015</t>
+  </si>
+  <si>
+    <t>we stayed only one night but had a good time. the room was comfortable and clean and everything was functional in it.the staff was nice and very helpful! they let us check in early because of our long travels behind us which was highly appreciated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r274869340-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>274869340</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>5 Stars because they refunded my money after the first night</t>
+  </si>
+  <si>
+    <t>Arrived after midnight into a centrally located ( meaning very populated ) area. Sketchy guests arriving into the early hours. Sirens all night long. Yes, it was updated , by means of a coat of paint. Budget friendly , you get what you pay for. Giving it five stars because they refunded my money for the rest of my stay. I stayed for 7 hours. Didn't sleep. You get what you pay for.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager7721, Front Office Manager at Rodeway Inn Los Angeles, responded to this reviewResponded June 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2015</t>
+  </si>
+  <si>
+    <t>Arrived after midnight into a centrally located ( meaning very populated ) area. Sketchy guests arriving into the early hours. Sirens all night long. Yes, it was updated , by means of a coat of paint. Budget friendly , you get what you pay for. Giving it five stars because they refunded my money for the rest of my stay. I stayed for 7 hours. Didn't sleep. You get what you pay for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r267417009-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>267417009</t>
+  </si>
+  <si>
+    <t>04/22/2015</t>
+  </si>
+  <si>
+    <t>Very narrow driveway. Good luck.</t>
+  </si>
+  <si>
+    <t>Overall the rooms were decent and the location was good. The only part was the narrow driveway pulling in and getting out. My friend attempted to dive out and damaged her car due to how narrow the space was. We also attempted to pull out and the corner of the wall scratched our side door and dented it. There was no space to properly back out . I suggest the manager widen the driveway or at least draw some lines to help other judge the turn because I'm sure plenty of other vehicles have gotten damaged.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Manager7721, General Manager at Rodeway Inn Los Angeles, responded to this reviewResponded May 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2015</t>
+  </si>
+  <si>
+    <t>Overall the rooms were decent and the location was good. The only part was the narrow driveway pulling in and getting out. My friend attempted to dive out and damaged her car due to how narrow the space was. We also attempted to pull out and the corner of the wall scratched our side door and dented it. There was no space to properly back out . I suggest the manager widen the driveway or at least draw some lines to help other judge the turn because I'm sure plenty of other vehicles have gotten damaged.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r260919474-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>260919474</t>
+  </si>
+  <si>
+    <t>03/21/2015</t>
+  </si>
+  <si>
+    <t>Wonderful surprise</t>
+  </si>
+  <si>
+    <t>Booked the hotels for 2 nights the room was a queen size. It was well furnished, nicely painted. The bed was comfortable. The location was excellent right next to theFarmes Markets. Staff polite and friendly. Would recommend too there's and would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager7721, General Manager at Rodeway Inn Los Angeles, responded to this reviewResponded March 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2015</t>
+  </si>
+  <si>
+    <t>Booked the hotels for 2 nights the room was a queen size. It was well furnished, nicely painted. The bed was comfortable. The location was excellent right next to theFarmes Markets. Staff polite and friendly. Would recommend too there's and would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r250270688-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>250270688</t>
+  </si>
+  <si>
+    <t>01/20/2015</t>
+  </si>
+  <si>
+    <t>Good Location</t>
+  </si>
+  <si>
+    <t>The room is very clean, there is free parking  and the lady at the front desk was very attentive. We check in around 7:30 PM. We asks her is she knew of any good restaurant  in the area and she politely give us several options. she was very friendly and also she inform us about the continental breakfast in the morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Manager7721, Front Office Manager at Rodeway Inn Los Angeles, responded to this reviewResponded January 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2015</t>
+  </si>
+  <si>
+    <t>The room is very clean, there is free parking  and the lady at the front desk was very attentive. We check in around 7:30 PM. We asks her is she knew of any good restaurant  in the area and she politely give us several options. she was very friendly and also she inform us about the continental breakfast in the morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r245780482-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>245780482</t>
+  </si>
+  <si>
+    <t>12/24/2014</t>
+  </si>
+  <si>
+    <t>Great value for location</t>
+  </si>
+  <si>
+    <t>Being walking distance to the Grove, farmers market, and park is great. Pretty close to the tar pits, too. The room was reasonably up to date and I was surprised to have a little refrigerator and microwave. They had a crib for my one year old already in the room as requested, too. Drawbacks were road noise as they left the front door open a lot of the time, a lot of guests smoke on the patios and outside the door that is open, and the sink was in the bedroom area instead of in the bathroom. Still worth it for the price and location. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager7721, General Manager at Rodeway Inn Los Angeles, responded to this reviewResponded December 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2014</t>
+  </si>
+  <si>
+    <t>Being walking distance to the Grove, farmers market, and park is great. Pretty close to the tar pits, too. The room was reasonably up to date and I was surprised to have a little refrigerator and microwave. They had a crib for my one year old already in the room as requested, too. Drawbacks were road noise as they left the front door open a lot of the time, a lot of guests smoke on the patios and outside the door that is open, and the sink was in the bedroom area instead of in the bathroom. Still worth it for the price and location. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r239737712-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>239737712</t>
+  </si>
+  <si>
+    <t>11/13/2014</t>
+  </si>
+  <si>
+    <t>A good stay</t>
+  </si>
+  <si>
+    <t>Got in before check in was able to leave bags until. Very central to farmers market/hollywood/sunset strip etc. Great resteraunts and steak houses nearby. Decent continental breaky and cook your own waffles which was great. Only negative was the aircon was a little noisy but not near enough to interrupt sleep. Will definitely stay here again when we return next year. Ps wifi worked well the whole timeMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Manager7721, Owner at Rodeway Inn Los Angeles, responded to this reviewResponded November 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2014</t>
+  </si>
+  <si>
+    <t>Got in before check in was able to leave bags until. Very central to farmers market/hollywood/sunset strip etc. Great resteraunts and steak houses nearby. Decent continental breaky and cook your own waffles which was great. Only negative was the aircon was a little noisy but not near enough to interrupt sleep. Will definitely stay here again when we return next year. Ps wifi worked well the whole timeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r233768509-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>233768509</t>
+  </si>
+  <si>
+    <t>10/11/2014</t>
+  </si>
+  <si>
+    <t>Nice place, would stay again</t>
+  </si>
+  <si>
+    <t>We selected this hotel because it was a 5 minute walk to CBS Studios &amp; the Grove. Our room was clean &amp; bright. Comfortable bed Very quietFree underground parking was a real plus (although it can only accommodate smaller vehicles).Air conditioner got a workout because it was over 90 degrees each day.There was a fridge &amp; mirowave which is nice to have. The staff was very nice. The courtyard is a nice place to sit and enjoy breakfast. Safe neighborhood so we were able to walk to the Grove in the evening and enjoy the beautiful weather.Whole Foods within walking distance is a huge plus!It is not a luxury hotel but very nice for what we needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Manager7721, Manager at Rodeway Inn Los Angeles, responded to this reviewResponded November 26, 2014</t>
+  </si>
+  <si>
+    <t>We selected this hotel because it was a 5 minute walk to CBS Studios &amp; the Grove. Our room was clean &amp; bright. Comfortable bed Very quietFree underground parking was a real plus (although it can only accommodate smaller vehicles).Air conditioner got a workout because it was over 90 degrees each day.There was a fridge &amp; mirowave which is nice to have. The staff was very nice. The courtyard is a nice place to sit and enjoy breakfast. Safe neighborhood so we were able to walk to the Grove in the evening and enjoy the beautiful weather.Whole Foods within walking distance is a huge plus!It is not a luxury hotel but very nice for what we needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r224074716-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>224074716</t>
+  </si>
+  <si>
+    <t>08/24/2014</t>
+  </si>
+  <si>
+    <t>Fine place to stay in Beverly Hills</t>
+  </si>
+  <si>
+    <t>I came to Beverly Hills for about a month.  This is a relatively inexpensive place to stay in the area.  It's a no-frills kind of place, but it's more than adequate.  It's in a safe neighborhood, and it's conveniently located across the street from the CBS Television Studios.  It's less than a 10 minute drive to the Sunset Strip, central Hollywood, and Cedars-Sinai Hospital.  It's not a bad place to stay if you're on a budget.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Manager7721, General Manager at Rodeway Inn Los Angeles, responded to this reviewResponded August 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2014</t>
+  </si>
+  <si>
+    <t>I came to Beverly Hills for about a month.  This is a relatively inexpensive place to stay in the area.  It's a no-frills kind of place, but it's more than adequate.  It's in a safe neighborhood, and it's conveniently located across the street from the CBS Television Studios.  It's less than a 10 minute drive to the Sunset Strip, central Hollywood, and Cedars-Sinai Hospital.  It's not a bad place to stay if you're on a budget.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r223239068-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>223239068</t>
+  </si>
+  <si>
+    <t>08/20/2014</t>
+  </si>
+  <si>
+    <t>NIghtmare! trashy hotel and too expensive</t>
+  </si>
+  <si>
+    <t>I booked 2 nights at this hotel, due to the aspect and lack of maintainance, I cancelled the second night. Bad smell, cigarette smell all over the hallways, smell in the room, the door had the paint falling apart, rooms near to main avenue, so, lot of noise at night, every sec. was worse. Only because they dont let me cancel my first night I decided to sleep there.Way to expensive, 200dlls x night. I've been in cheaper rooms at Texas @ La Quinta or Days Inn, and were about 60 dlls, and way much better rooms.Good thing: near Hollywood, farmers market, and CBS studios (right across the street). But believe me, I preferred to go back to Anaheim (courtyard marriot, double bed room at 110dlls x night), and travel every day, than stay one more night.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked 2 nights at this hotel, due to the aspect and lack of maintainance, I cancelled the second night. Bad smell, cigarette smell all over the hallways, smell in the room, the door had the paint falling apart, rooms near to main avenue, so, lot of noise at night, every sec. was worse. Only because they dont let me cancel my first night I decided to sleep there.Way to expensive, 200dlls x night. I've been in cheaper rooms at Texas @ La Quinta or Days Inn, and were about 60 dlls, and way much better rooms.Good thing: near Hollywood, farmers market, and CBS studios (right across the street). But believe me, I preferred to go back to Anaheim (courtyard marriot, double bed room at 110dlls x night), and travel every day, than stay one more night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r218583925-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>218583925</t>
+  </si>
+  <si>
+    <t>07/30/2014</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t>The room is a tiny but the location is great. It is about 5 minutes from The Grove Mall and the farmer's market, Beverley Hills and the good touristy part of Hollywood with the walk of fame and all of that stuff. The whole place is small but is a great stop off point if you can get over the size of the room and the dirty carpet in the halls. Breakfast is fine and it is good value for money.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Manager7721, General Manager at Rodeway Inn Los Angeles, responded to this reviewResponded August 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2014</t>
+  </si>
+  <si>
+    <t>The room is a tiny but the location is great. It is about 5 minutes from The Grove Mall and the farmer's market, Beverley Hills and the good touristy part of Hollywood with the walk of fame and all of that stuff. The whole place is small but is a great stop off point if you can get over the size of the room and the dirty carpet in the halls. Breakfast is fine and it is good value for money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r212346399-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>212346399</t>
+  </si>
+  <si>
+    <t>06/27/2014</t>
+  </si>
+  <si>
+    <t>Near to Cedars Sinai Medical Center</t>
+  </si>
+  <si>
+    <t>This is the least expensive alternative to the high end Hotels/Motels near Cedars Sinai Medical Center. It is very basic, but offers very comfortable beds and quiet rooms.  Parking is next to impossible in the underground parking area unless you are driving a Volkswagen Bug or a Mini-Cooper. There is limited parking behind the hotel.  The area is very old and somewhat scary at night, but you feel safe and comfortable when you get inside. Staff personnel are very kind and courteous.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Manager7721, General Manager at Rodeway Inn Los Angeles, responded to this reviewResponded June 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2014</t>
+  </si>
+  <si>
+    <t>This is the least expensive alternative to the high end Hotels/Motels near Cedars Sinai Medical Center. It is very basic, but offers very comfortable beds and quiet rooms.  Parking is next to impossible in the underground parking area unless you are driving a Volkswagen Bug or a Mini-Cooper. There is limited parking behind the hotel.  The area is very old and somewhat scary at night, but you feel safe and comfortable when you get inside. Staff personnel are very kind and courteous.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r211876480-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>211876480</t>
+  </si>
+  <si>
+    <t>06/24/2014</t>
+  </si>
+  <si>
+    <t>Nice, basic hotel in a great location</t>
+  </si>
+  <si>
+    <t>This Roadway Inn is within walking distance of The Grove, and The Farmers Market. The hotel is no frills, but is very clean and was very quiet at night. I would stay here again, it was a great location and is two minutes from my son's apartment. There is a mini fridge and a microwave in the rooms. They also offer a continental breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager7721, General Manager at Rodeway Inn Los Angeles, responded to this reviewResponded June 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2014</t>
+  </si>
+  <si>
+    <t>This Roadway Inn is within walking distance of The Grove, and The Farmers Market. The hotel is no frills, but is very clean and was very quiet at night. I would stay here again, it was a great location and is two minutes from my son's apartment. There is a mini fridge and a microwave in the rooms. They also offer a continental breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r209364164-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>209364164</t>
+  </si>
+  <si>
+    <t>06/08/2014</t>
+  </si>
+  <si>
+    <t>An okay place to stay</t>
+  </si>
+  <si>
+    <t>Not exactly the Ritz, but okay. Rooms are clean and been updated fairly recently. The common areas need some attention though. There were a few things with the room that weren't top notch but for a two star hotel, I expect to find a little less. If they paid a little more attention to slight wall and paint damage and fix up and clean up the exterior common areas, they could probably add a star or two to their rating. Morning breakfast was ok. There is free parking, but is sparse. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager7721, General Manager at Rodeway Inn Los Angeles, responded to this reviewResponded June 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2014</t>
+  </si>
+  <si>
+    <t>Not exactly the Ritz, but okay. Rooms are clean and been updated fairly recently. The common areas need some attention though. There were a few things with the room that weren't top notch but for a two star hotel, I expect to find a little less. If they paid a little more attention to slight wall and paint damage and fix up and clean up the exterior common areas, they could probably add a star or two to their rating. Morning breakfast was ok. There is free parking, but is sparse. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r201981931-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>201981931</t>
+  </si>
+  <si>
+    <t>04/20/2014</t>
+  </si>
+  <si>
+    <t>Don't Stay Here!!!</t>
+  </si>
+  <si>
+    <t>I was staying here from Australia so as you can imagine it's a very long flight 14 hours to be exact! I arrived at the hotel they gave me my room key only to shortly find out that my room was not ready yet. The cleaning lady was not very nice to me and told me that I should have asked to see if my room was ready yet. I had thought that was the responsibility of the hotel. Also I had ordered a non-smoking room but I was convinced that it was actually a smoking room because it smelled rather stale. Then I find out the phone isn't working properly and the in room menus out of date. Not only that but there was no guest information folder that you usually see in most hotels. I only ended up staying one night do not stay here!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Manager7721, General Manager at Rodeway Inn Los Angeles, responded to this reviewResponded April 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2014</t>
+  </si>
+  <si>
+    <t>I was staying here from Australia so as you can imagine it's a very long flight 14 hours to be exact! I arrived at the hotel they gave me my room key only to shortly find out that my room was not ready yet. The cleaning lady was not very nice to me and told me that I should have asked to see if my room was ready yet. I had thought that was the responsibility of the hotel. Also I had ordered a non-smoking room but I was convinced that it was actually a smoking room because it smelled rather stale. Then I find out the phone isn't working properly and the in room menus out of date. Not only that but there was no guest information folder that you usually see in most hotels. I only ended up staying one night do not stay here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r200990524-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>200990524</t>
+  </si>
+  <si>
+    <t>04/13/2014</t>
+  </si>
+  <si>
+    <t>Good hotel that is being neglected</t>
+  </si>
+  <si>
+    <t>It is basically a good hotel though appears to be badly run. First, the pros: our room occupying a corner position, was pleasant – recently decorated and well lit. The shower was strong and the water hot, the beds clean and comfortable. The air con worked, the internet was free and a good signal; parking was also free – a big plus in a very expensive part of Los Angeles, although the garage was a tight squeeze for our car. All in all a good night’s sleep. 
+However, don’t venture into the public areas. We walked from the underground cark park into a corridor of locked doors, and from one issued a series of incoherent shouts. Eventually we caught the elevator - after a long wait - and in reception the woman behind the desk was yelling into the phone. We stood there unnoticed, and I had time to pick up the paper and read the front page before the woman seemed to notice us. Okay, she may have been fixing a problem, connected or not with the shouting downstairs, so I’ll give her the benefit of the doubt.
+The corridor to the room was dire – an absolutely filthy carpet, paint peeling, the doors scratched and damaged. It looked like there had been a serious gunfight at an earthmovers’ convention. The public area contained a few plastic tables in a yard at the back of the building. While in...It is basically a good hotel though appears to be badly run. First, the pros: our room occupying a corner position, was pleasant – recently decorated and well lit. The shower was strong and the water hot, the beds clean and comfortable. The air con worked, the internet was free and a good signal; parking was also free – a big plus in a very expensive part of Los Angeles, although the garage was a tight squeeze for our car. All in all a good night’s sleep. However, don’t venture into the public areas. We walked from the underground cark park into a corridor of locked doors, and from one issued a series of incoherent shouts. Eventually we caught the elevator - after a long wait - and in reception the woman behind the desk was yelling into the phone. We stood there unnoticed, and I had time to pick up the paper and read the front page before the woman seemed to notice us. Okay, she may have been fixing a problem, connected or not with the shouting downstairs, so I’ll give her the benefit of the doubt. The corridor to the room was dire – an absolutely filthy carpet, paint peeling, the doors scratched and damaged. It looked like there had been a serious gunfight at an earthmovers’ convention. The public area contained a few plastic tables in a yard at the back of the building. While in reception we’d noticed an old juice dispenser and a serving dish on a shelf. We decided then and there to forgo the breakfast. At that point we nearly left and cut our losses although we’d paid over $150 for the room. Luckily the room was good enough to continue our stay. Owners, if you read this, be assured you have a good hotel in a great position near the Farmers’ Market, but for goodness sake try to look after it. Your charges are somewhat higher than the doss-house; as your customer service should be.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>It is basically a good hotel though appears to be badly run. First, the pros: our room occupying a corner position, was pleasant – recently decorated and well lit. The shower was strong and the water hot, the beds clean and comfortable. The air con worked, the internet was free and a good signal; parking was also free – a big plus in a very expensive part of Los Angeles, although the garage was a tight squeeze for our car. All in all a good night’s sleep. 
+However, don’t venture into the public areas. We walked from the underground cark park into a corridor of locked doors, and from one issued a series of incoherent shouts. Eventually we caught the elevator - after a long wait - and in reception the woman behind the desk was yelling into the phone. We stood there unnoticed, and I had time to pick up the paper and read the front page before the woman seemed to notice us. Okay, she may have been fixing a problem, connected or not with the shouting downstairs, so I’ll give her the benefit of the doubt.
+The corridor to the room was dire – an absolutely filthy carpet, paint peeling, the doors scratched and damaged. It looked like there had been a serious gunfight at an earthmovers’ convention. The public area contained a few plastic tables in a yard at the back of the building. While in...It is basically a good hotel though appears to be badly run. First, the pros: our room occupying a corner position, was pleasant – recently decorated and well lit. The shower was strong and the water hot, the beds clean and comfortable. The air con worked, the internet was free and a good signal; parking was also free – a big plus in a very expensive part of Los Angeles, although the garage was a tight squeeze for our car. All in all a good night’s sleep. However, don’t venture into the public areas. We walked from the underground cark park into a corridor of locked doors, and from one issued a series of incoherent shouts. Eventually we caught the elevator - after a long wait - and in reception the woman behind the desk was yelling into the phone. We stood there unnoticed, and I had time to pick up the paper and read the front page before the woman seemed to notice us. Okay, she may have been fixing a problem, connected or not with the shouting downstairs, so I’ll give her the benefit of the doubt. The corridor to the room was dire – an absolutely filthy carpet, paint peeling, the doors scratched and damaged. It looked like there had been a serious gunfight at an earthmovers’ convention. The public area contained a few plastic tables in a yard at the back of the building. While in reception we’d noticed an old juice dispenser and a serving dish on a shelf. We decided then and there to forgo the breakfast. At that point we nearly left and cut our losses although we’d paid over $150 for the room. Luckily the room was good enough to continue our stay. Owners, if you read this, be assured you have a good hotel in a great position near the Farmers’ Market, but for goodness sake try to look after it. Your charges are somewhat higher than the doss-house; as your customer service should be.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r198710335-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>198710335</t>
+  </si>
+  <si>
+    <t>03/25/2014</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised with this hotel. The hotel was in a good spot and right across the street from CBS studios. Down the street was a really cool farmers market place that was HUGE. The hallways and doors were peeling and looked dirty. Once you got into the room it looked fine. I really liked the windows shades. The room was really small but we weren't really concerned about it. It had a microwave and mini fridge too. The parking was underground and VERY tiny. We had a chevy camero and we could barely get the car out. Gah.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r190632331-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>190632331</t>
+  </si>
+  <si>
+    <t>01/12/2014</t>
+  </si>
+  <si>
+    <t>Good Location with Noisy pipes &amp; thin Walls</t>
+  </si>
+  <si>
+    <t>This hotel isn't in B.Hills.It's near to CBS,Microwave &amp; Fridge,our room was renovated and very small,the hallway still dirty. . Can hear noisy running water when others turn on their taps for shower . Walls are thin so can hear people talking and opening or closing doors.A few underground parking for SMALL cars.I would rate the security at the hotel as non existent. They keep the exterior doors wide open most of the time.  Anyone could walk into the hotel at anytime, unnoticed.I saw junkies hanging out at lobby.Sorry not my type of place to stay with my kids.Girl in the lobby was  really helpful,one of the two girls who work on this location.Salvadorian Girl.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>This hotel isn't in B.Hills.It's near to CBS,Microwave &amp; Fridge,our room was renovated and very small,the hallway still dirty. . Can hear noisy running water when others turn on their taps for shower . Walls are thin so can hear people talking and opening or closing doors.A few underground parking for SMALL cars.I would rate the security at the hotel as non existent. They keep the exterior doors wide open most of the time.  Anyone could walk into the hotel at anytime, unnoticed.I saw junkies hanging out at lobby.Sorry not my type of place to stay with my kids.Girl in the lobby was  really helpful,one of the two girls who work on this location.Salvadorian Girl.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r190542901-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>190542901</t>
+  </si>
+  <si>
+    <t>01/11/2014</t>
+  </si>
+  <si>
+    <t>A little bit below the average</t>
+  </si>
+  <si>
+    <t>Pro:Position near Hollywood Blv.Quite clean.Con:Room was very narrow while the bathroom was ok.Carpet in common space are quite old and it seems they are not so clean.The breakfast was very poor and THERE WAS NO PLACE to sit down for eating. The food was served in the lobby and there were two tables to sit down only in an internal patio. In the winter, in the morning, the patio is very cold and it is not possible to eat relaxed.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r190381411-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>190381411</t>
+  </si>
+  <si>
+    <t>01/10/2014</t>
+  </si>
+  <si>
+    <t>It's ok, but don't think I would go back</t>
+  </si>
+  <si>
+    <t>All in all the stay we had was OK. The hotel is old and doesn't feel looked after. Room was small and bathroom not very nice. We put our car in the garage the first day but it was so hard not to scratch it we didn't bother a second time (we parked on road nearby). Breakfast is very basic - coffee, toast, bagels, stop, served in reception and can only be eaten on tables outside.I think it was overpriced and I wouldn't go back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r184488138-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>184488138</t>
+  </si>
+  <si>
+    <t>11/12/2013</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>I give this hotel only 4 stars because of the underground garage and the size of the room. I was actually impressed by the room itself. From the outside as I was driving up it didn't look that nice. I drove into the underground parking garage which is way too small to be considered a parking garage. I went inside to the lobby to check-in but the door was locked and there was no one at the window. I waited about 10 minutes and still no one showed up. It would've been nice to have a bell or something at the window to alert them when a customer is there waiting. We left and decided to drive around for something to eat and come back later. Trying to get out of the parking garage was scary. I own a nissan altima and if you have a car or truck bigger than that don't even think about parking in the garage because you may not come out without some scrapes. I was lucky but decided to park in the back when I returned which wasn't much better because there's a sign that says parking was only for the customers of the building next door. As for the room itself, I was more than satisfied. I will admit that I did look for stuff to write and complain about and I couldn't find anything. The room was tiny but my son and...I give this hotel only 4 stars because of the underground garage and the size of the room. I was actually impressed by the room itself. From the outside as I was driving up it didn't look that nice. I drove into the underground parking garage which is way too small to be considered a parking garage. I went inside to the lobby to check-in but the door was locked and there was no one at the window. I waited about 10 minutes and still no one showed up. It would've been nice to have a bell or something at the window to alert them when a customer is there waiting. We left and decided to drive around for something to eat and come back later. Trying to get out of the parking garage was scary. I own a nissan altima and if you have a car or truck bigger than that don't even think about parking in the garage because you may not come out without some scrapes. I was lucky but decided to park in the back when I returned which wasn't much better because there's a sign that says parking was only for the customers of the building next door. As for the room itself, I was more than satisfied. I will admit that I did look for stuff to write and complain about and I couldn't find anything. The room was tiny but my son and I enjoyed the cable on the flat screen tv and the free wi-fi. The covers and pillows were all clean and so was the bathroom. The room also had a microwave and refrigerator which came in handy. We stayed two nights. We were able to walk over to the park across the street for the Run For Her Ovarian cancer walk event on Sunday. It only took about 10 minutes which included waiting at the crosswalk. We didn't get up in time for the breakfast so I can't comment on that. The walls are thin but what do you expect from a hotel right next to a busy road like Beverly Blvd. We had a room facing the alley. The a/c was loud too but I didn't mind because the sound drowned out the outside noise and helped put me to sleep. The a/c worked well in fact a little too well because when we returned later that night the room was freezing. I would suggest they get bigger towels and more than one wash cloth per person. Yes I would recommend this hotel and I will definitely stay here again if I need to. It's across the street from Pan Pacific park and CBS studios. The Grove is in walking distance and the Beverly Center is about 1 1/2 miles down the street also.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>I give this hotel only 4 stars because of the underground garage and the size of the room. I was actually impressed by the room itself. From the outside as I was driving up it didn't look that nice. I drove into the underground parking garage which is way too small to be considered a parking garage. I went inside to the lobby to check-in but the door was locked and there was no one at the window. I waited about 10 minutes and still no one showed up. It would've been nice to have a bell or something at the window to alert them when a customer is there waiting. We left and decided to drive around for something to eat and come back later. Trying to get out of the parking garage was scary. I own a nissan altima and if you have a car or truck bigger than that don't even think about parking in the garage because you may not come out without some scrapes. I was lucky but decided to park in the back when I returned which wasn't much better because there's a sign that says parking was only for the customers of the building next door. As for the room itself, I was more than satisfied. I will admit that I did look for stuff to write and complain about and I couldn't find anything. The room was tiny but my son and...I give this hotel only 4 stars because of the underground garage and the size of the room. I was actually impressed by the room itself. From the outside as I was driving up it didn't look that nice. I drove into the underground parking garage which is way too small to be considered a parking garage. I went inside to the lobby to check-in but the door was locked and there was no one at the window. I waited about 10 minutes and still no one showed up. It would've been nice to have a bell or something at the window to alert them when a customer is there waiting. We left and decided to drive around for something to eat and come back later. Trying to get out of the parking garage was scary. I own a nissan altima and if you have a car or truck bigger than that don't even think about parking in the garage because you may not come out without some scrapes. I was lucky but decided to park in the back when I returned which wasn't much better because there's a sign that says parking was only for the customers of the building next door. As for the room itself, I was more than satisfied. I will admit that I did look for stuff to write and complain about and I couldn't find anything. The room was tiny but my son and I enjoyed the cable on the flat screen tv and the free wi-fi. The covers and pillows were all clean and so was the bathroom. The room also had a microwave and refrigerator which came in handy. We stayed two nights. We were able to walk over to the park across the street for the Run For Her Ovarian cancer walk event on Sunday. It only took about 10 minutes which included waiting at the crosswalk. We didn't get up in time for the breakfast so I can't comment on that. The walls are thin but what do you expect from a hotel right next to a busy road like Beverly Blvd. We had a room facing the alley. The a/c was loud too but I didn't mind because the sound drowned out the outside noise and helped put me to sleep. The a/c worked well in fact a little too well because when we returned later that night the room was freezing. I would suggest they get bigger towels and more than one wash cloth per person. Yes I would recommend this hotel and I will definitely stay here again if I need to. It's across the street from Pan Pacific park and CBS studios. The Grove is in walking distance and the Beverly Center is about 1 1/2 miles down the street also.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r180869871-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>180869871</t>
+  </si>
+  <si>
+    <t>10/13/2013</t>
+  </si>
+  <si>
+    <t>trip to California</t>
+  </si>
+  <si>
+    <t>We booked this motel for it's proximity to the CBS studios.  It's not fancy at all and quite dated but it served our purpose for a short stay.  The room we had was on the 2nd floor and it was small.  Odd layout - sink/mirror/counter not in washroom but in the main room.  Whatever...it had a flat screen tv, complimentary wifi, fridge and microwave.  Had a courtyard area with tables on ground level and one balcony on the second level which we enjoyed nightly.Our room view was the gas station and CBS studio.  It's not the area for views to begin with so didn't expect them.This motel did offer limited breakfast items - the only fruit was oranges, oatmeal, limited bagels, bread, a waffle maker, coffee and tea. Vending machine for pop/snacks. Water cooler in lobby.Walking distance to The Farmer's Market - lots of really great places to eat, grocery and transit.Air conditioning is loud but works.Walls are thin - heard things we didn't want to!!The front desk staff was very friendly and helpful.The property seems to be trying to keep up with repairs and updating.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>We booked this motel for it's proximity to the CBS studios.  It's not fancy at all and quite dated but it served our purpose for a short stay.  The room we had was on the 2nd floor and it was small.  Odd layout - sink/mirror/counter not in washroom but in the main room.  Whatever...it had a flat screen tv, complimentary wifi, fridge and microwave.  Had a courtyard area with tables on ground level and one balcony on the second level which we enjoyed nightly.Our room view was the gas station and CBS studio.  It's not the area for views to begin with so didn't expect them.This motel did offer limited breakfast items - the only fruit was oranges, oatmeal, limited bagels, bread, a waffle maker, coffee and tea. Vending machine for pop/snacks. Water cooler in lobby.Walking distance to The Farmer's Market - lots of really great places to eat, grocery and transit.Air conditioning is loud but works.Walls are thin - heard things we didn't want to!!The front desk staff was very friendly and helpful.The property seems to be trying to keep up with repairs and updating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r167208165-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>167208165</t>
+  </si>
+  <si>
+    <t>07/11/2013</t>
+  </si>
+  <si>
+    <t>GREAT STAFF</t>
+  </si>
+  <si>
+    <t>I have to admit tha the rooms are in the small side. But the personnel make up for. They all are very friendly and customeer oriente. They are allways willing to help. I SPECIALLY LIKE TO THANK ROSARIO AND CRISTY FOR ALL THE HELP THEY HAVE PROVIDED ME. SUCH HOSPITALITY IS WELCOMED BY ME.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r163367392-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>163367392</t>
+  </si>
+  <si>
+    <t>06/08/2013</t>
+  </si>
+  <si>
+    <t>Nice and clean GREAT location!!!</t>
+  </si>
+  <si>
+    <t>I stayed here 2 nights and I got great rates of under $100 by just asking and talking to the manager. The two ladies at the front desk that I dealt with were both very nice. The first night I got a smoking room which was large but, smelled like stale smoke the second night was a smaller non smoking room. They were both clean and had everything I needed. There was an added bonus that helped out with the price was the free breakfast bar. It was small but, my daughter and I filled up and ate outside in the courtyard right next to the water fountain.You can't beat the location right across from CBS studios and The Grove/Farmers Market. So for a few nights stay this place is a great no frills place to stay. I would recommend it for business trips. Not a great family place but, I only have a baby and circumstances did not allow me to stay at an expensive hotel. It was nice friendly and clean. Can't say enough good stuff about the front desk ladies they were wonderful and very sympathetic to my circumstance.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>I stayed here 2 nights and I got great rates of under $100 by just asking and talking to the manager. The two ladies at the front desk that I dealt with were both very nice. The first night I got a smoking room which was large but, smelled like stale smoke the second night was a smaller non smoking room. They were both clean and had everything I needed. There was an added bonus that helped out with the price was the free breakfast bar. It was small but, my daughter and I filled up and ate outside in the courtyard right next to the water fountain.You can't beat the location right across from CBS studios and The Grove/Farmers Market. So for a few nights stay this place is a great no frills place to stay. I would recommend it for business trips. Not a great family place but, I only have a baby and circumstances did not allow me to stay at an expensive hotel. It was nice friendly and clean. Can't say enough good stuff about the front desk ladies they were wonderful and very sympathetic to my circumstance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r161892592-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>161892592</t>
+  </si>
+  <si>
+    <t>05/26/2013</t>
+  </si>
+  <si>
+    <t>Smaller Motel/Hotel - good value.</t>
+  </si>
+  <si>
+    <t>Wasn't quite sure what I would find at this hotel - as it has some ok to good reviews and some terrible reviews - But I always throw out the top reviews and bottom ones - and give the rest a modicum of truth.  This is a smaller establishment located on Beverly right across the street from CBS studios.  The neighborhood looks like what you would expect to find in the midle of most larger cities... not posh but not skid row.  The staff was friendly and helpful every time we interacted.  We asked for a room with 2 queens to accomodate three adults - and got what we asked for - the room was actually split into 2 separate bed rooms and 1 bath.  One room was a bit smaller but both had good working air conditioners that really worked well - Beds and pillows were clean and comfortable.  Both rooms had a nice flat screen tvs with cable. You could see the hotel was doing some upgrade work as they had workers doing carpet laying during the day.  They provided a nice basic breakfast with do it yourself waffles, various breads and bagels, hot cereal, a couple cold cereals, milk, orange juice, coffee, and tea, and fruit.  Was plentiful - and they had a nice interior courtyard / patio area to sit and eat at.  We did not find the area to appear dangerous - they had parking...Wasn't quite sure what I would find at this hotel - as it has some ok to good reviews and some terrible reviews - But I always throw out the top reviews and bottom ones - and give the rest a modicum of truth.  This is a smaller establishment located on Beverly right across the street from CBS studios.  The neighborhood looks like what you would expect to find in the midle of most larger cities... not posh but not skid row.  The staff was friendly and helpful every time we interacted.  We asked for a room with 2 queens to accomodate three adults - and got what we asked for - the room was actually split into 2 separate bed rooms and 1 bath.  One room was a bit smaller but both had good working air conditioners that really worked well - Beds and pillows were clean and comfortable.  Both rooms had a nice flat screen tvs with cable. You could see the hotel was doing some upgrade work as they had workers doing carpet laying during the day.  They provided a nice basic breakfast with do it yourself waffles, various breads and bagels, hot cereal, a couple cold cereals, milk, orange juice, coffee, and tea, and fruit.  Was plentiful - and they had a nice interior courtyard / patio area to sit and eat at.  We did not find the area to appear dangerous - they had parking below ground which looked to be a bit tight - but they also had parking behind the hotel off street - all areas were well lit and we noticed they had cameras on all areas of the outside areas being observed by the office staff.  Therefore we felt pretty safe, We walked to the Grove - took about 15min at an easy pace...again - didn't feel threatened in any way. We were not bothered by street sounds and we were near the corner of the hotel on Beverly.  Not to say you didn't hear some sounds - but this is expected in a smaller establishment where there aren't 100 rooms between you and the street.  They gave free Wifi - with a terrific strong signal!  It worked both in the room AND on the patio.  They had plenty of soaps and shampoos provided - bath towels were a bit on the smaller side - but adequite to bath and dry off with.  Room had both a refrigerator AND a Microwave - those came in very handy! Would definitely stay again as provided everything we needed in an area where we wanted to be - for a very reasonable price.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Wasn't quite sure what I would find at this hotel - as it has some ok to good reviews and some terrible reviews - But I always throw out the top reviews and bottom ones - and give the rest a modicum of truth.  This is a smaller establishment located on Beverly right across the street from CBS studios.  The neighborhood looks like what you would expect to find in the midle of most larger cities... not posh but not skid row.  The staff was friendly and helpful every time we interacted.  We asked for a room with 2 queens to accomodate three adults - and got what we asked for - the room was actually split into 2 separate bed rooms and 1 bath.  One room was a bit smaller but both had good working air conditioners that really worked well - Beds and pillows were clean and comfortable.  Both rooms had a nice flat screen tvs with cable. You could see the hotel was doing some upgrade work as they had workers doing carpet laying during the day.  They provided a nice basic breakfast with do it yourself waffles, various breads and bagels, hot cereal, a couple cold cereals, milk, orange juice, coffee, and tea, and fruit.  Was plentiful - and they had a nice interior courtyard / patio area to sit and eat at.  We did not find the area to appear dangerous - they had parking...Wasn't quite sure what I would find at this hotel - as it has some ok to good reviews and some terrible reviews - But I always throw out the top reviews and bottom ones - and give the rest a modicum of truth.  This is a smaller establishment located on Beverly right across the street from CBS studios.  The neighborhood looks like what you would expect to find in the midle of most larger cities... not posh but not skid row.  The staff was friendly and helpful every time we interacted.  We asked for a room with 2 queens to accomodate three adults - and got what we asked for - the room was actually split into 2 separate bed rooms and 1 bath.  One room was a bit smaller but both had good working air conditioners that really worked well - Beds and pillows were clean and comfortable.  Both rooms had a nice flat screen tvs with cable. You could see the hotel was doing some upgrade work as they had workers doing carpet laying during the day.  They provided a nice basic breakfast with do it yourself waffles, various breads and bagels, hot cereal, a couple cold cereals, milk, orange juice, coffee, and tea, and fruit.  Was plentiful - and they had a nice interior courtyard / patio area to sit and eat at.  We did not find the area to appear dangerous - they had parking below ground which looked to be a bit tight - but they also had parking behind the hotel off street - all areas were well lit and we noticed they had cameras on all areas of the outside areas being observed by the office staff.  Therefore we felt pretty safe, We walked to the Grove - took about 15min at an easy pace...again - didn't feel threatened in any way. We were not bothered by street sounds and we were near the corner of the hotel on Beverly.  Not to say you didn't hear some sounds - but this is expected in a smaller establishment where there aren't 100 rooms between you and the street.  They gave free Wifi - with a terrific strong signal!  It worked both in the room AND on the patio.  They had plenty of soaps and shampoos provided - bath towels were a bit on the smaller side - but adequite to bath and dry off with.  Room had both a refrigerator AND a Microwave - those came in very handy! Would definitely stay again as provided everything we needed in an area where we wanted to be - for a very reasonable price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r161549298-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>161549298</t>
+  </si>
+  <si>
+    <t>05/22/2013</t>
+  </si>
+  <si>
+    <t>VERY nice!</t>
+  </si>
+  <si>
+    <t>Despite hearing the bad review, bed bug and stuff. We still decided to give it a try as it is just a 15mins walk to The grove and Farmer's Market!The room was small, as expected. But everything else was good, the desk staff offered to book a taxi for us and it came in like 5mins! They gave us a late check out at 12pm upon request!Breakfast was simple yet nice, we get to make our own waffles with is very fun! Overall, worth for money.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r153141479-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>153141479</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>GREAT location!</t>
+  </si>
+  <si>
+    <t>not fancy, no busness center or gym...but also no pretense.. the location, cleanilness and safety was perfect for a girlfriend weekend in Los Angeles.  looking for a place to base ourselves for several days, not looking for luxury but a good night's sleep, we chose this place.  Located across from CBS Studio City, walking distance to The Grove and the LA Farmers Market,  there is a bus route to downtown right in front.  and it was oh-so-conveneint to a range of restaurants, a wonderful natural-foods market, coffee shops, and NAIL SPAS!!!!!  though the rooms are small, this older hotel was very clean, the beds comfortable ( and i have sleep issues!), everything was spotless and in working order.   the bathrooms all have bathtubs.the breakfast was a step up from than the bottom-tier packaged danish- it included fresh bagels with cream cheese, juices and waffles, as well as apples and oranges in the lobby all day.  Don't count on the front desk, however, for any help getting around the city or discovering what to do.  They were pleasant  but usually language was a barrier and they were not well-informed about the city.  As a very independent and confiident traveler, however, this was nveer an issue for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>not fancy, no busness center or gym...but also no pretense.. the location, cleanilness and safety was perfect for a girlfriend weekend in Los Angeles.  looking for a place to base ourselves for several days, not looking for luxury but a good night's sleep, we chose this place.  Located across from CBS Studio City, walking distance to The Grove and the LA Farmers Market,  there is a bus route to downtown right in front.  and it was oh-so-conveneint to a range of restaurants, a wonderful natural-foods market, coffee shops, and NAIL SPAS!!!!!  though the rooms are small, this older hotel was very clean, the beds comfortable ( and i have sleep issues!), everything was spotless and in working order.   the bathrooms all have bathtubs.the breakfast was a step up from than the bottom-tier packaged danish- it included fresh bagels with cream cheese, juices and waffles, as well as apples and oranges in the lobby all day.  Don't count on the front desk, however, for any help getting around the city or discovering what to do.  They were pleasant  but usually language was a barrier and they were not well-informed about the city.  As a very independent and confiident traveler, however, this was nveer an issue for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r152529742-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>152529742</t>
+  </si>
+  <si>
+    <t>02/19/2013</t>
+  </si>
+  <si>
+    <t>Lots of construction but room is good</t>
+  </si>
+  <si>
+    <t>Chose this hotel because it was right across the street from The Price Is Right studios, and the price was good.  Front lobby and most of the hallways were under major construction, which I suppose in not avoidable, but still makes for a slight annoyance when there is banging going on all afternoon and evening while I was trying to work.Room itself was small but clean, no bed bugs, and in a pretty nice location with restaurants, drug store and some nice shops nearby.  Wi-Fi was strong and worked as advertised.No shuttle bus from airport so required a $50 taxi ride each way unless you want to take public transportation.Overall no regrets.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chose this hotel because it was right across the street from The Price Is Right studios, and the price was good.  Front lobby and most of the hallways were under major construction, which I suppose in not avoidable, but still makes for a slight annoyance when there is banging going on all afternoon and evening while I was trying to work.Room itself was small but clean, no bed bugs, and in a pretty nice location with restaurants, drug store and some nice shops nearby.  Wi-Fi was strong and worked as advertised.No shuttle bus from airport so required a $50 taxi ride each way unless you want to take public transportation.Overall no regrets.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r149030733-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>149030733</t>
+  </si>
+  <si>
+    <t>01/06/2013</t>
+  </si>
+  <si>
+    <t>Very small room but great location</t>
+  </si>
+  <si>
+    <t>We initially had chosen a hotel near LAX, but the area turned out to be very sketchy (almost dangerous), so we went for a plan B and chose this hotel. The room is very small, but at least it was clean and had all the necessities. The complimentary breakfast was decent. The great thing about this hotel is the location, very close to Beverly Hills and the other nice places to see in the northern part of LA. In hindsight, I would recommend this hotel.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r144072399-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>144072399</t>
+  </si>
+  <si>
+    <t>10/30/2012</t>
+  </si>
+  <si>
+    <t>In one word: location</t>
+  </si>
+  <si>
+    <t>2 reasons to choose this hotel are its location and relatively cheap price. Besides, there is really no other reason. The rooms are small, it looks like a cheap motel and not like a hotel, breakfast is served as room purports to be called a lobby,  but because it's small and there is no place to sit down you need to take the food to the hotel's garden and eat there.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r143827576-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>143827576</t>
+  </si>
+  <si>
+    <t>10/27/2012</t>
+  </si>
+  <si>
+    <t>TIny room</t>
+  </si>
+  <si>
+    <t>I've never seen a tinier room! We got the room on the second floor facing the gas station. The interior looked very old. Drawers can't close properly and kept sliding open. There's no wardrobe to hang your clothes. Breakfast is simple with toasts, waffles, cereals, bagels. Parking is free but lots are limited. About 10 minutes walk to The Grove. Can't complain abt the location. Given a choice, I'd stay elsewhere.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r139739791-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>139739791</t>
+  </si>
+  <si>
+    <t>09/08/2012</t>
+  </si>
+  <si>
+    <t>Convenient but warm</t>
+  </si>
+  <si>
+    <t>This was a convenient hotel for an overnight stay in LA, but given the temperature outside and the inefficient air conditioning it wasn't the most comfortable night's sleep.The staff were all friendly, the hotel was clean and having underground car parking was reassuring, although anything larger than our Mazda 3 would end up in danger of stripped paintwork coming out of the car park.I would recommend this as a value for money overnight stay closed to Beverly Hills but would look for something different if I was to stay for longer.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r138931612-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>138931612</t>
+  </si>
+  <si>
+    <t>08/30/2012</t>
+  </si>
+  <si>
+    <t>What a dump</t>
+  </si>
+  <si>
+    <t>This is the worst hotel I've ever stayed in! There was a leak in the bathroom and the room was infested by flying bugs. The walls were covered in blood splatter from other people killing the bugs. When I tried to have my money refunded I was refused. I had to spend the night at another hotel because the room was so bad. Spend the extra money and go somewhere else.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r135487270-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>135487270</t>
+  </si>
+  <si>
+    <t>07/26/2012</t>
+  </si>
+  <si>
+    <t>LOCATION, LOCATION IT'S EVERYTHING</t>
+  </si>
+  <si>
+    <t>Across the street from CBS Television City and right around the corner to the Farmer's Market, the Grove, Pinks hot dog stand.  Down the street and up the street Hollywood Boulevard, Sunset Strip and the Hollywood Bowl.  What a deal this would have been for our budget except for NO pool and the ridiculous underground parking.  No room safe either.  Couldn't receive emails or faxes or staff wouldn't acknowledge either.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r133410772-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>133410772</t>
+  </si>
+  <si>
+    <t>07/03/2012</t>
+  </si>
+  <si>
+    <t>okay cheap and easy</t>
+  </si>
+  <si>
+    <t>you are not going to get the glitz and glam of hollywood but u have the hop on hop off bus stop down the road which takes you around the whole city.. clean room.. nice staff....easy breakfast.. i think i would stay here again as it is so cheap</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r129725379-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>129725379</t>
+  </si>
+  <si>
+    <t>05/10/2012</t>
+  </si>
+  <si>
+    <t>Good location in LA</t>
+  </si>
+  <si>
+    <t>We stayed one night in this hotel in April 2012.  This is a basic motel located in a very convenient location in Los Angeles. It delivers three basic things: bed, shower and no bed bugs. In addition, you have a coffee maker, a fridge, and a TV with decent programming. The rooms are small, but if you were in a Paris hotel, nothing can surprise you. This is a very densely populated area of LA, so what do you expect. The breakfast was decent, typical for Choice hotels. Efficient and friendly reception.Underground garage: don’t even think about getting there with a car bigger than compact. I missed the big sign at the front of the garage and went down with Hyundai Sonata. Made it without a scratch, but getting back was a challenge. Luckily the parking was almost empty when I was leaving, otherwise it would be a sure car disaster. In summary, if you are on a budget and do not look for luxuries, this is a hotel for you. You should not be disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>We stayed one night in this hotel in April 2012.  This is a basic motel located in a very convenient location in Los Angeles. It delivers three basic things: bed, shower and no bed bugs. In addition, you have a coffee maker, a fridge, and a TV with decent programming. The rooms are small, but if you were in a Paris hotel, nothing can surprise you. This is a very densely populated area of LA, so what do you expect. The breakfast was decent, typical for Choice hotels. Efficient and friendly reception.Underground garage: don’t even think about getting there with a car bigger than compact. I missed the big sign at the front of the garage and went down with Hyundai Sonata. Made it without a scratch, but getting back was a challenge. Luckily the parking was almost empty when I was leaving, otherwise it would be a sure car disaster. In summary, if you are on a budget and do not look for luxuries, this is a hotel for you. You should not be disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r128414042-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>128414042</t>
+  </si>
+  <si>
+    <t>04/23/2012</t>
+  </si>
+  <si>
+    <t>Weekend Trip</t>
+  </si>
+  <si>
+    <t>Great Location, Across from CBS City and close to all area attractions. The Tar Pits and Farmers Market! Clean Rooms Great Service and Morning Breakfast!</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r127470539-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>127470539</t>
+  </si>
+  <si>
+    <t>04/08/2012</t>
+  </si>
+  <si>
+    <t>Pass This 1 BY</t>
+  </si>
+  <si>
+    <t>Stayed a total of 7 nights out of 13 we stayed on our trip to southern Calif.  We booked thru Expedia.com. and choose this 1 due to its close location to CBS.  We had tickets to The Price Is Right.  Parking was free but almost impossible to get in and out, especially if you had to park in the basement.  We had a small car and still had to strain.Housekeeping took our dirty wash cloths and didn't replace them with clean ones twice.  Had to go to the front desk to get clean ones to shower the 1st time.  The second time I refused to go and insisted that someone bring them up, waited nearly a half hour to get them.  The front desk said they were too busy and couldn't leave.  I had to threaten to contest the charge on the credit card to finally get someone to bring me a wash cloth so I could bathe.The room was VERY small.Also found a long dark hair that was hanging out of the corner of the shower.  I left it there to see how many visits from the housekeeper before it was cleaned. It took 2 visits before it was cleaned.  My friend and I have very short hair, so it definately wasn't ours.The Location is what keeps this place in business.  I would NOT stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>Stayed a total of 7 nights out of 13 we stayed on our trip to southern Calif.  We booked thru Expedia.com. and choose this 1 due to its close location to CBS.  We had tickets to The Price Is Right.  Parking was free but almost impossible to get in and out, especially if you had to park in the basement.  We had a small car and still had to strain.Housekeeping took our dirty wash cloths and didn't replace them with clean ones twice.  Had to go to the front desk to get clean ones to shower the 1st time.  The second time I refused to go and insisted that someone bring them up, waited nearly a half hour to get them.  The front desk said they were too busy and couldn't leave.  I had to threaten to contest the charge on the credit card to finally get someone to bring me a wash cloth so I could bathe.The room was VERY small.Also found a long dark hair that was hanging out of the corner of the shower.  I left it there to see how many visits from the housekeeper before it was cleaned. It took 2 visits before it was cleaned.  My friend and I have very short hair, so it definately wasn't ours.The Location is what keeps this place in business.  I would NOT stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r125881344-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>125881344</t>
+  </si>
+  <si>
+    <t>03/10/2012</t>
+  </si>
+  <si>
+    <t>Great service,excellent location</t>
+  </si>
+  <si>
+    <t>Very good location near the grove and farmers market.very good service.very good breafast.free garage parking.small room but very clean.i׳ll be back there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r125010806-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>125010806</t>
+  </si>
+  <si>
+    <t>02/21/2012</t>
+  </si>
+  <si>
+    <t>Value for money</t>
+  </si>
+  <si>
+    <t>Stayed here in January and we were pleased we did. I booked over the phone from Australia and the receptionist-Cristine was lovely. This hotel was clean and comforatble and the continental breakfast was really handy and saved us money.Location was great too as we could walk to the Grove and the Farmer's market easily. It was also really safe- my daughter and I were quite comfortable walking around the area at night. There was a homeless guy living in the bus shelter under our window but he seemed harmless!</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r123047468-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>123047468</t>
+  </si>
+  <si>
+    <t>01/13/2012</t>
+  </si>
+  <si>
+    <t>Tell your friends</t>
+  </si>
+  <si>
+    <t>Rooms were nice and clean. The location is excellent if you like to do the whole tourism scene. Close to The Grove and Farmers Market. Right across the street from CBS Studios. Minutes away from the Beverly Center and other shopping. Several nice restaurants within walking distance. Nice continental breakfast (Coffee, Cereal, Danishes, Mini muffins, toast, juices). Staff was very friendly and the price was very reasonable for the area. Would definitely stay again and recommend to friends and family.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r120921178-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>120921178</t>
+  </si>
+  <si>
+    <t>11/22/2011</t>
+  </si>
+  <si>
+    <t>We were very pleased</t>
+  </si>
+  <si>
+    <t>This place might not be the most beautiful hotel as you thought it's gonna be in Beverly Hills but we were happy we chose to stay here, it's located on a very convenient location, few blocks walking distance to the famous beautiful mall called The Grove and also Farmers market, everyone there was wonderful and helpful, the room was clean and comfortable maybe a little tiny but it accomodated me and my husband for 1 night perfectly. We loved their little breakfast in the morning it was nice they served  bagels, toast, danishes, mini chocolate muffins, coffee and juices. It was more than enough for us.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r120671561-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>120671561</t>
+  </si>
+  <si>
+    <t>11/16/2011</t>
+  </si>
+  <si>
+    <t>No parking for non-compacts, no closet, dbl bed instead of queen, fuzzy tv reception</t>
+  </si>
+  <si>
+    <t>The room was tiny, we paid for a queen bed, (they don't have King size beds), but it was a double, the bathtub stopper didn't work, the tv had fuzzy reception, there wasn't any closet, just hooks on the wall.  And finally, we said we could not stay there unless we could park somewhere, as street parking is not allowed for long periods and had meters... there was a risk of being towed.  The steep driveway to the underground garage had signs saying it was for compact vehicles only.  The desk person said we could have her space in the rear alley at 11pm when her shift ended.  She called us to say she was leaving at 10:58pm.. we went down at 11:05 and someone had taken the place... we complained, but were told there wasn't anything they could do.  We parked on the street and had to move the car twice... and still ended up hauling luggage etc down the street to our car. Oh yeah -the floor creaked at every step.  and although we received a call from the front desk, when we tried to call them back the phone would not work!MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was tiny, we paid for a queen bed, (they don't have King size beds), but it was a double, the bathtub stopper didn't work, the tv had fuzzy reception, there wasn't any closet, just hooks on the wall.  And finally, we said we could not stay there unless we could park somewhere, as street parking is not allowed for long periods and had meters... there was a risk of being towed.  The steep driveway to the underground garage had signs saying it was for compact vehicles only.  The desk person said we could have her space in the rear alley at 11pm when her shift ended.  She called us to say she was leaving at 10:58pm.. we went down at 11:05 and someone had taken the place... we complained, but were told there wasn't anything they could do.  We parked on the street and had to move the car twice... and still ended up hauling luggage etc down the street to our car. Oh yeah -the floor creaked at every step.  and although we received a call from the front desk, when we tried to call them back the phone would not work!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r117413701-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>117413701</t>
+  </si>
+  <si>
+    <t>08/29/2011</t>
+  </si>
+  <si>
+    <t>Very Pleasant stay!</t>
+  </si>
+  <si>
+    <t>We stayed  for 2 nights, everything was lovely. The staff was very helpful and the room was clean. Location was great.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r116904216-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>116904216</t>
+  </si>
+  <si>
+    <t>08/18/2011</t>
+  </si>
+  <si>
+    <t>Never Stay there again</t>
+  </si>
+  <si>
+    <t>Was very disappointed with our stay . On the second I saw a dead cockroach on the hallway  and a few days later my wife notice her Granola Bars were eaten . Lots of Mice %#^%@ left behind . There's was a few droppings under the Coffee pot too .</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r114937585-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>114937585</t>
+  </si>
+  <si>
+    <t>07/01/2011</t>
+  </si>
+  <si>
+    <t>Cheap, clean, great location, and no bedbugs</t>
+  </si>
+  <si>
+    <t>I came by and checked out room before i booked since I was already in LA and wanted to move to a different location.  I was surprised since some of the reviews are bad.  We booked a two bed room which ended up having a small bedroom inside so it was two rooms, two tvs, two dressers, two ac units....very roomy!  We had one bathroom, one fridge, and one microwave and free wifi in the room.  Also, a free daily basic breakfast (bagels, toast, cereal, oatmeal, mini-chocolate muffins, and pre-packaged danishes.  Also, coffee, milk, oj, and apple juice.)  
+It was  a great basic room, that was clean, and no bedbugs.  I always check beds first.  They had the mattress covers to prevent bedbugs.  
+I was surprised to read someone's review of the area as interesting....this was a great neighborhood to stay in...there was a park a block away, the farmer's market/the grove about two blocks away and the beverly center shopping about a ten minute walk.  This is  a pretty nice area if you are trying to book with a budget.  Now, it's not accessible to the metro rail so if you are using public transportation, plan on walking or getting a metro pass. 
+I would definitely stay again! Stairwell was not creepy...I was a single woman with a teenage son.  My husband stayed home and we did not have any safety concerns at all.   
+I was in LA for...I came by and checked out room before i booked since I was already in LA and wanted to move to a different location.  I was surprised since some of the reviews are bad.  We booked a two bed room which ended up having a small bedroom inside so it was two rooms, two tvs, two dressers, two ac units....very roomy!  We had one bathroom, one fridge, and one microwave and free wifi in the room.  Also, a free daily basic breakfast (bagels, toast, cereal, oatmeal, mini-chocolate muffins, and pre-packaged danishes.  Also, coffee, milk, oj, and apple juice.)  It was  a great basic room, that was clean, and no bedbugs.  I always check beds first.  They had the mattress covers to prevent bedbugs.  I was surprised to read someone's review of the area as interesting....this was a great neighborhood to stay in...there was a park a block away, the farmer's market/the grove about two blocks away and the beverly center shopping about a ten minute walk.  This is  a pretty nice area if you are trying to book with a budget.  Now, it's not accessible to the metro rail so if you are using public transportation, plan on walking or getting a metro pass. I would definitely stay again! Stairwell was not creepy...I was a single woman with a teenage son.  My husband stayed home and we did not have any safety concerns at all.   I was in LA for a total of three weeks and only came here the last week and I wish I had stayed here all three weeks.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>-RPHotelOwner, Owner at Rodeway Inn Los Angeles, responded to this reviewResponded July 31, 2011</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2011</t>
+  </si>
+  <si>
+    <t>I came by and checked out room before i booked since I was already in LA and wanted to move to a different location.  I was surprised since some of the reviews are bad.  We booked a two bed room which ended up having a small bedroom inside so it was two rooms, two tvs, two dressers, two ac units....very roomy!  We had one bathroom, one fridge, and one microwave and free wifi in the room.  Also, a free daily basic breakfast (bagels, toast, cereal, oatmeal, mini-chocolate muffins, and pre-packaged danishes.  Also, coffee, milk, oj, and apple juice.)  
+It was  a great basic room, that was clean, and no bedbugs.  I always check beds first.  They had the mattress covers to prevent bedbugs.  
+I was surprised to read someone's review of the area as interesting....this was a great neighborhood to stay in...there was a park a block away, the farmer's market/the grove about two blocks away and the beverly center shopping about a ten minute walk.  This is  a pretty nice area if you are trying to book with a budget.  Now, it's not accessible to the metro rail so if you are using public transportation, plan on walking or getting a metro pass. 
+I would definitely stay again! Stairwell was not creepy...I was a single woman with a teenage son.  My husband stayed home and we did not have any safety concerns at all.   
+I was in LA for...I came by and checked out room before i booked since I was already in LA and wanted to move to a different location.  I was surprised since some of the reviews are bad.  We booked a two bed room which ended up having a small bedroom inside so it was two rooms, two tvs, two dressers, two ac units....very roomy!  We had one bathroom, one fridge, and one microwave and free wifi in the room.  Also, a free daily basic breakfast (bagels, toast, cereal, oatmeal, mini-chocolate muffins, and pre-packaged danishes.  Also, coffee, milk, oj, and apple juice.)  It was  a great basic room, that was clean, and no bedbugs.  I always check beds first.  They had the mattress covers to prevent bedbugs.  I was surprised to read someone's review of the area as interesting....this was a great neighborhood to stay in...there was a park a block away, the farmer's market/the grove about two blocks away and the beverly center shopping about a ten minute walk.  This is  a pretty nice area if you are trying to book with a budget.  Now, it's not accessible to the metro rail so if you are using public transportation, plan on walking or getting a metro pass. I would definitely stay again! Stairwell was not creepy...I was a single woman with a teenage son.  My husband stayed home and we did not have any safety concerns at all.   I was in LA for a total of three weeks and only came here the last week and I wish I had stayed here all three weeks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r114878788-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>114878788</t>
+  </si>
+  <si>
+    <t>06/29/2011</t>
+  </si>
+  <si>
+    <t>Wonderful stay</t>
+  </si>
+  <si>
+    <t>We had one night stay, it was really nice, the location was great, room was very clean, they had a little continental breakfast which is nice, and the staff was nice and helpful at least we could tell they tried their best to help us with anything.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had one night stay, it was really nice, the location was great, room was very clean, they had a little continental breakfast which is nice, and the staff was nice and helpful at least we could tell they tried their best to help us with anything.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r105205876-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>105205876</t>
+  </si>
+  <si>
+    <t>04/23/2011</t>
+  </si>
+  <si>
+    <t>Terrible experience....definitely not deserving of 2 stars</t>
+  </si>
+  <si>
+    <t>After being checked in by a surly clerk, we went to our tiny room and found that instead of the queen size bed we had booked, we had a full size.  It was late, so we decided to put up with it for the first night.  Next morning, the clerk at the front desk acknowledged we had a full size bed in our room, but said "that's what we call a queen size" so she didn't feel any need to change our room despite showing her the confirmation that stated "Queen size bed".  She finally offered to upgrade us to a room with 2 beds...but for an additional cost equal to half of what we had paid! If she's correct and they book full sized beds as "queen size", that's just deceptive.  If not, then they certainly should have moved us or refunded at least some of what we had paid.On top of this -- tiny room; only room for one bedside table with our full size bed, otherwise the door wouldn't open.  The parking is pretty bad, as other reviewers have noted; there is also not enough for all the rooms and we were told to park on the street when there was no parking left.  Finally, the advertised free wireless internet didn't reach our room, and apparently not to several others in the rear of the motel based on conversations with other guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>After being checked in by a surly clerk, we went to our tiny room and found that instead of the queen size bed we had booked, we had a full size.  It was late, so we decided to put up with it for the first night.  Next morning, the clerk at the front desk acknowledged we had a full size bed in our room, but said "that's what we call a queen size" so she didn't feel any need to change our room despite showing her the confirmation that stated "Queen size bed".  She finally offered to upgrade us to a room with 2 beds...but for an additional cost equal to half of what we had paid! If she's correct and they book full sized beds as "queen size", that's just deceptive.  If not, then they certainly should have moved us or refunded at least some of what we had paid.On top of this -- tiny room; only room for one bedside table with our full size bed, otherwise the door wouldn't open.  The parking is pretty bad, as other reviewers have noted; there is also not enough for all the rooms and we were told to park on the street when there was no parking left.  Finally, the advertised free wireless internet didn't reach our room, and apparently not to several others in the rear of the motel based on conversations with other guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r103427605-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>103427605</t>
+  </si>
+  <si>
+    <t>04/09/2011</t>
+  </si>
+  <si>
+    <t>Beware of the driveway into the parking garage.</t>
+  </si>
+  <si>
+    <t>The room was clean and fine for our one night stay.  However, I read on Trip Advisor that the driveway into the parking garage was small and to take heed.  We drive a Mercury Grand Marquis, and we tried our best to be careful, but we still scraped our front fender coming out of the garage.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r101873540-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>101873540</t>
+  </si>
+  <si>
+    <t>03/28/2011</t>
+  </si>
+  <si>
+    <t>Clean, cheap, and that's about it</t>
+  </si>
+  <si>
+    <t>I stayed here for a weekend in March '11. The rooms were super clean and mine was a decent size. Pluses? Clean, convenient to downtown, good wireless (free), and inexpensive. Minuses? Creepy stairwell and elevator, "interesting" neighborhood, bad coffee, nothin' breakfast. Worth it for the price, but next time I need to be in downtown LA, I'm going to spend the extra $$.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r96808808-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>96808808</t>
+  </si>
+  <si>
+    <t>02/15/2011</t>
+  </si>
+  <si>
+    <t>It was fine!</t>
+  </si>
+  <si>
+    <t>Hey, hotels are expensive in Los Angeles.  Whenever people come from out of town, they are shocked at the prices.  SO, I was happy that we found the Rodeway.  It was very clean, updated, and extremely well located.  The only downside was that the rooms are very small.  If you are looking for a clean, nice, cheap room, this is it.</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r96668278-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>96668278</t>
+  </si>
+  <si>
+    <t>02/14/2011</t>
+  </si>
+  <si>
+    <t>Great Hollywood Location, Sad Motel</t>
+  </si>
+  <si>
+    <t>The plus side of this motel is the location - a very safe, pleasant neighborhood near the trendy "Grove" shopping center and directly across the street from CBS Television City where "American Idol," "Dancing With the Stars, and "The Price is Right" are taped.
+Speaking of price, the motel is cheap... and unfortunately, you get what you paid for.  The room was extremely small, by far the smallest hotel/motel room I have ever seen.  The heater/air unit was literally about 2 feet from the bed.  The air would have blown directly into our faces the whole night if we hadn't covered the unit up with pillows.  The bathroom fan rattled.   The dresser drawers didn't shut properly.  The ceiling light had florescent bulbs, which only "highlighted" just how depressing the whole room was.   The subterranean parking is only for compact vehicles, and that is no exaggeration.  There were numerous scrape marks on the parking ramp walls from past unlucky drivers.  If you have anything bigger than a Honda Civic, I wouldn't chance it.  To get to the elevator from the parking garage, guests must navigate a very dingy basement with unmarked rooms that are probably being used for the workers.    I would recommend this only to people who need to get to sleep immediately and then get out of there as quickly as possible.   FYI, the Beverly Inn Motel, also on the block and about the same price, looked even worse....The plus side of this motel is the location - a very safe, pleasant neighborhood near the trendy "Grove" shopping center and directly across the street from CBS Television City where "American Idol," "Dancing With the Stars, and "The Price is Right" are taped.Speaking of price, the motel is cheap... and unfortunately, you get what you paid for.  The room was extremely small, by far the smallest hotel/motel room I have ever seen.  The heater/air unit was literally about 2 feet from the bed.  The air would have blown directly into our faces the whole night if we hadn't covered the unit up with pillows.  The bathroom fan rattled.   The dresser drawers didn't shut properly.  The ceiling light had florescent bulbs, which only "highlighted" just how depressing the whole room was.   The subterranean parking is only for compact vehicles, and that is no exaggeration.  There were numerous scrape marks on the parking ramp walls from past unlucky drivers.  If you have anything bigger than a Honda Civic, I wouldn't chance it.  To get to the elevator from the parking garage, guests must navigate a very dingy basement with unmarked rooms that are probably being used for the workers.    I would recommend this only to people who need to get to sleep immediately and then get out of there as quickly as possible.   FYI, the Beverly Inn Motel, also on the block and about the same price, looked even worse.  If location isn't your first priority but pricing is, I'd recommend a Motel 6.MoreShow less</t>
+  </si>
+  <si>
+    <t>The plus side of this motel is the location - a very safe, pleasant neighborhood near the trendy "Grove" shopping center and directly across the street from CBS Television City where "American Idol," "Dancing With the Stars, and "The Price is Right" are taped.
+Speaking of price, the motel is cheap... and unfortunately, you get what you paid for.  The room was extremely small, by far the smallest hotel/motel room I have ever seen.  The heater/air unit was literally about 2 feet from the bed.  The air would have blown directly into our faces the whole night if we hadn't covered the unit up with pillows.  The bathroom fan rattled.   The dresser drawers didn't shut properly.  The ceiling light had florescent bulbs, which only "highlighted" just how depressing the whole room was.   The subterranean parking is only for compact vehicles, and that is no exaggeration.  There were numerous scrape marks on the parking ramp walls from past unlucky drivers.  If you have anything bigger than a Honda Civic, I wouldn't chance it.  To get to the elevator from the parking garage, guests must navigate a very dingy basement with unmarked rooms that are probably being used for the workers.    I would recommend this only to people who need to get to sleep immediately and then get out of there as quickly as possible.   FYI, the Beverly Inn Motel, also on the block and about the same price, looked even worse....The plus side of this motel is the location - a very safe, pleasant neighborhood near the trendy "Grove" shopping center and directly across the street from CBS Television City where "American Idol," "Dancing With the Stars, and "The Price is Right" are taped.Speaking of price, the motel is cheap... and unfortunately, you get what you paid for.  The room was extremely small, by far the smallest hotel/motel room I have ever seen.  The heater/air unit was literally about 2 feet from the bed.  The air would have blown directly into our faces the whole night if we hadn't covered the unit up with pillows.  The bathroom fan rattled.   The dresser drawers didn't shut properly.  The ceiling light had florescent bulbs, which only "highlighted" just how depressing the whole room was.   The subterranean parking is only for compact vehicles, and that is no exaggeration.  There were numerous scrape marks on the parking ramp walls from past unlucky drivers.  If you have anything bigger than a Honda Civic, I wouldn't chance it.  To get to the elevator from the parking garage, guests must navigate a very dingy basement with unmarked rooms that are probably being used for the workers.    I would recommend this only to people who need to get to sleep immediately and then get out of there as quickly as possible.   FYI, the Beverly Inn Motel, also on the block and about the same price, looked even worse.  If location isn't your first priority but pricing is, I'd recommend a Motel 6.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r95247816-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>95247816</t>
+  </si>
+  <si>
+    <t>02/01/2011</t>
+  </si>
+  <si>
+    <t>Great value in a clean Hotel</t>
+  </si>
+  <si>
+    <t>Rooms are small but very clean.  Free covered parking.  Half the price of other hotels inn the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r61134328-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>61134328</t>
+  </si>
+  <si>
+    <t>04/12/2010</t>
+  </si>
+  <si>
+    <t>$95.00 hotel rate for a $39.99 hotel.  MUST READ!!!!!!</t>
+  </si>
+  <si>
+    <t>Let me start by saying, this place sucks. I never write reviews but I had to on this one. We stayed here because we felt it was close to attractions but so are other places. It seems that they turned some rooms into apartments on the basement floor for the poor. Front desk dude is very unhelpful, loves to talk on his cell and play computer games while your waiting for help. No smoking rooms smell like ashtrays and the size of their rooms are too small. The queen bed takes up 80% of the room so you might want to ask for the double bed for more space...or just don't stay here. I have to finish this with one positive thing, they do provide an iron, but no board. Have fun ironing on the bed!!! OMG enjoy getting in and out the parking garage. I called to complain so I didn't have to write this but some chick from over seas had no idea what I was saying. I'm sure she can read this. Hope this helps ya'll!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>Let me start by saying, this place sucks. I never write reviews but I had to on this one. We stayed here because we felt it was close to attractions but so are other places. It seems that they turned some rooms into apartments on the basement floor for the poor. Front desk dude is very unhelpful, loves to talk on his cell and play computer games while your waiting for help. No smoking rooms smell like ashtrays and the size of their rooms are too small. The queen bed takes up 80% of the room so you might want to ask for the double bed for more space...or just don't stay here. I have to finish this with one positive thing, they do provide an iron, but no board. Have fun ironing on the bed!!! OMG enjoy getting in and out the parking garage. I called to complain so I didn't have to write this but some chick from over seas had no idea what I was saying. I'm sure she can read this. Hope this helps ya'll!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r21146061-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>21146061</t>
+  </si>
+  <si>
+    <t>10/23/2008</t>
+  </si>
+  <si>
+    <t>Loved this place!</t>
+  </si>
+  <si>
+    <t>I did, i loved this place, I think I had a nice stay, a clean, comfortable and convenient room, the staff were lovely and helpful, the location is great, very close to everything and I definitely would come back for the future needs.</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r20744385-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>20744385</t>
+  </si>
+  <si>
+    <t>10/08/2008</t>
+  </si>
+  <si>
+    <t>Welcome to the Cockroach Motel</t>
+  </si>
+  <si>
+    <t>When we arrived at the hotel everything looked great.  The room with two beds had adequate space.  All was well, until I went to take a bath and found a small cockroach in the tub...YUCK!I laid in my bed pondering if I should bring this up to the staff that night or try my best to sleep and tell them in the morning.  Well, the decision on that one was made when I looked over next to the heater and there was a HUGE cockroach on the wall.  I freaked out of course, and went over and smashed it (literally to pieces).I then went down to the front desk to tell them what had happened and they told me that they were surprised because they have never had a problem with roaches in the past. (Not true if you read through some of the other reviews)Also, they said that they couldn't do anything about getting me another room unless they could come into my room and take a picture of it.  How ridiculous!  And in the end they didn't reaccommodate us because they didn't have anymore rooms.  The location was excellent because we went to the price is right the next morning, and is worth it if you want to save money and don't mind some extra company....as for me, I will NEVER, EVER stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>When we arrived at the hotel everything looked great.  The room with two beds had adequate space.  All was well, until I went to take a bath and found a small cockroach in the tub...YUCK!I laid in my bed pondering if I should bring this up to the staff that night or try my best to sleep and tell them in the morning.  Well, the decision on that one was made when I looked over next to the heater and there was a HUGE cockroach on the wall.  I freaked out of course, and went over and smashed it (literally to pieces).I then went down to the front desk to tell them what had happened and they told me that they were surprised because they have never had a problem with roaches in the past. (Not true if you read through some of the other reviews)Also, they said that they couldn't do anything about getting me another room unless they could come into my room and take a picture of it.  How ridiculous!  And in the end they didn't reaccommodate us because they didn't have anymore rooms.  The location was excellent because we went to the price is right the next morning, and is worth it if you want to save money and don't mind some extra company....as for me, I will NEVER, EVER stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r7489379-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>7489379</t>
+  </si>
+  <si>
+    <t>04/30/2007</t>
+  </si>
+  <si>
+    <t>It is, what it is...</t>
+  </si>
+  <si>
+    <t>and what it is, is a low budget motel a la Motel 6 .  We rented this room since we were arriving at 11PM from Miami &amp; immediately getting in line for The Price is Right.  We only needed the room for bathroom breaks, quick showers &amp; cat naps.  Upon arriving, check in was quick &amp; but not very personable.Rooms are VERY small.  Smaller than a 10x10 I'm sure.  But they are basically clean.  I didn't see any bugs at all.Walls are paper thin.  We heard not only conversations from other rooms, but showers &amp; snoring as well.‘Warm” breakfast is served in the tiny lobby.  I think they had single serve oatmeal pkgs, cereals, breads, pastries,  juice, coffee &amp; tea.  There may have been more, I didn’t really notice.For TPIR, it is very convenient and a cheaper alternative to the Farmer’s Daughter.  As mentioned before, parking is VERY tight.  You can see the paint marks on the wall from cars trying to get out.  This motel is not very appealing to look at.  To their benefit, they seem to be remodeling.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2007</t>
+  </si>
+  <si>
+    <t>and what it is, is a low budget motel a la Motel 6 .  We rented this room since we were arriving at 11PM from Miami &amp; immediately getting in line for The Price is Right.  We only needed the room for bathroom breaks, quick showers &amp; cat naps.  Upon arriving, check in was quick &amp; but not very personable.Rooms are VERY small.  Smaller than a 10x10 I'm sure.  But they are basically clean.  I didn't see any bugs at all.Walls are paper thin.  We heard not only conversations from other rooms, but showers &amp; snoring as well.‘Warm” breakfast is served in the tiny lobby.  I think they had single serve oatmeal pkgs, cereals, breads, pastries,  juice, coffee &amp; tea.  There may have been more, I didn’t really notice.For TPIR, it is very convenient and a cheaper alternative to the Farmer’s Daughter.  As mentioned before, parking is VERY tight.  You can see the paint marks on the wall from cars trying to get out.  This motel is not very appealing to look at.  To their benefit, they seem to be remodeling.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r7267468-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>7267468</t>
+  </si>
+  <si>
+    <t>03/31/2007</t>
+  </si>
+  <si>
+    <t>Good for the money</t>
+  </si>
+  <si>
+    <t>Very convenient location. Clean, comfortable. Friendly staff.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r5889221-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>5889221</t>
+  </si>
+  <si>
+    <t>09/27/2006</t>
+  </si>
+  <si>
+    <t>A benchmark for horror . . .</t>
+  </si>
+  <si>
+    <t>OK. It's our fault. We had to be in LA for one night, for one dread event, and didn't want to spend any money. So I [it's really my fault. . .] opted for the cheapest place. $65 or so for a hotel across from CBS on Fairfax.  Half of what anything decent charges. [If I had it to do over again, I'd have sprung for $200 to avoid re-living that night.] In my defense,  I looked at the hotel photos on the 'net and booked a room based on faith that the photos had something to do with the hotel. The whole place was tiny, cramped, claustrophobic, ill-kept and with staff who obviously wished they were somewhere else. I felt sorry for them.Parking is also tiny and cramped, but is under the hotel and free.The room is a couple of feet larger than a queen bed. The window opens to an alley and a building next door.My husband woke me with a nightmare he was locked in a cell.I forget whether breakfast food was offered. We were in Malibu by sunrise.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2006</t>
+  </si>
+  <si>
+    <t>OK. It's our fault. We had to be in LA for one night, for one dread event, and didn't want to spend any money. So I [it's really my fault. . .] opted for the cheapest place. $65 or so for a hotel across from CBS on Fairfax.  Half of what anything decent charges. [If I had it to do over again, I'd have sprung for $200 to avoid re-living that night.] In my defense,  I looked at the hotel photos on the 'net and booked a room based on faith that the photos had something to do with the hotel. The whole place was tiny, cramped, claustrophobic, ill-kept and with staff who obviously wished they were somewhere else. I felt sorry for them.Parking is also tiny and cramped, but is under the hotel and free.The room is a couple of feet larger than a queen bed. The window opens to an alley and a building next door.My husband woke me with a nightmare he was locked in a cell.I forget whether breakfast food was offered. We were in Malibu by sunrise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r5183897-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>5183897</t>
+  </si>
+  <si>
+    <t>05/19/2006</t>
+  </si>
+  <si>
+    <t>Location, Location, Location</t>
+  </si>
+  <si>
+    <t>For the money, you can't do much better. It's in a good, central location. The front desk service was very pleasant. The room we were in was little, but clean, and we weren't in it much, anyway. The inn was quiet and has a nice courtyard. The only concerns I had were the parking situation and the back entry and front entry doors are left open and unlocked, though it looked like the rear door was locked at night. The parking garage is barely that--there is some parking in a small lot next door, but you risk getting blocked in by other cars &amp; the street parking situation is not too good, either.MoreShow less</t>
+  </si>
+  <si>
+    <t>For the money, you can't do much better. It's in a good, central location. The front desk service was very pleasant. The room we were in was little, but clean, and we weren't in it much, anyway. The inn was quiet and has a nice courtyard. The only concerns I had were the parking situation and the back entry and front entry doors are left open and unlocked, though it looked like the rear door was locked at night. The parking garage is barely that--there is some parking in a small lot next door, but you risk getting blocked in by other cars &amp; the street parking situation is not too good, either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r4477307-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>4477307</t>
+  </si>
+  <si>
+    <t>02/20/2006</t>
+  </si>
+  <si>
+    <t>great location</t>
+  </si>
+  <si>
+    <t>this little hotel is not the fanciest place by any stretch but is perfect for location , is in a quiet neighbourhood , has very nice staff and is a half a block from the transit system to go any where you need to go.the CBS studio is across the street and behind that is the farmers market with shopping and great market style eatingyou can't go wrong for the price!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r4245019-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>4245019</t>
+  </si>
+  <si>
+    <t>12/15/2005</t>
+  </si>
+  <si>
+    <t>No frills and okay if you keep your expectations low</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for several days and changed rooms once because the phone didn't work (I didn't mind changing rooms since the first room I was in was so small).  This first room was so small that there was basically just enough room to walk around the queen size bed.  There was a fridge and microwave squeezed in the room though, along with reliable free wireless internet.  The rooms did not, however, have irons and ironing boards (which I needed) so I asked the front desk and they lent me one to use that I had to return when I was done.  There is apparently a complimentary continental breakfast offered but I never tried it.  The front desk staff was generally courteous.
+After my first night in the tiny room I asked to change rooms on the pretense that I wanted one with a working phone (normally I wouldn't care and would just use my cell phone).  The second room was much larger and actually felt like a real hotel room.
+Overall, the place had a bit of a run down feel, with a thin flimsy blanket on the bed with an occasional small hole, presumably from a cigarette.  The place seemed reasonably clean (at least I didn't see any obvious danger signs such as cockroaches or anything like that).  The walls and doors seemed thin but the place was quiet throughout my stay.  The parking garage is...I stayed in this hotel for several days and changed rooms once because the phone didn't work (I didn't mind changing rooms since the first room I was in was so small).  This first room was so small that there was basically just enough room to walk around the queen size bed.  There was a fridge and microwave squeezed in the room though, along with reliable free wireless internet.  The rooms did not, however, have irons and ironing boards (which I needed) so I asked the front desk and they lent me one to use that I had to return when I was done.  There is apparently a complimentary continental breakfast offered but I never tried it.  The front desk staff was generally courteous.After my first night in the tiny room I asked to change rooms on the pretense that I wanted one with a working phone (normally I wouldn't care and would just use my cell phone).  The second room was much larger and actually felt like a real hotel room.Overall, the place had a bit of a run down feel, with a thin flimsy blanket on the bed with an occasional small hole, presumably from a cigarette.  The place seemed reasonably clean (at least I didn't see any obvious danger signs such as cockroaches or anything like that).  The walls and doors seemed thin but the place was quiet throughout my stay.  The parking garage is quite narrow/small but I managed to drive in and out of it for several days without scraping up my car.  One of the stairways leading up to the hotel from the parking garage smelled very bad (like a port-o-potty) but the other stairway up was all right.  Finally, this hotel is most definitely NOT in Beverly Hills (though it is on Beverly Blvd).  It is across from CBS Television City.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2005</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for several days and changed rooms once because the phone didn't work (I didn't mind changing rooms since the first room I was in was so small).  This first room was so small that there was basically just enough room to walk around the queen size bed.  There was a fridge and microwave squeezed in the room though, along with reliable free wireless internet.  The rooms did not, however, have irons and ironing boards (which I needed) so I asked the front desk and they lent me one to use that I had to return when I was done.  There is apparently a complimentary continental breakfast offered but I never tried it.  The front desk staff was generally courteous.
+After my first night in the tiny room I asked to change rooms on the pretense that I wanted one with a working phone (normally I wouldn't care and would just use my cell phone).  The second room was much larger and actually felt like a real hotel room.
+Overall, the place had a bit of a run down feel, with a thin flimsy blanket on the bed with an occasional small hole, presumably from a cigarette.  The place seemed reasonably clean (at least I didn't see any obvious danger signs such as cockroaches or anything like that).  The walls and doors seemed thin but the place was quiet throughout my stay.  The parking garage is...I stayed in this hotel for several days and changed rooms once because the phone didn't work (I didn't mind changing rooms since the first room I was in was so small).  This first room was so small that there was basically just enough room to walk around the queen size bed.  There was a fridge and microwave squeezed in the room though, along with reliable free wireless internet.  The rooms did not, however, have irons and ironing boards (which I needed) so I asked the front desk and they lent me one to use that I had to return when I was done.  There is apparently a complimentary continental breakfast offered but I never tried it.  The front desk staff was generally courteous.After my first night in the tiny room I asked to change rooms on the pretense that I wanted one with a working phone (normally I wouldn't care and would just use my cell phone).  The second room was much larger and actually felt like a real hotel room.Overall, the place had a bit of a run down feel, with a thin flimsy blanket on the bed with an occasional small hole, presumably from a cigarette.  The place seemed reasonably clean (at least I didn't see any obvious danger signs such as cockroaches or anything like that).  The walls and doors seemed thin but the place was quiet throughout my stay.  The parking garage is quite narrow/small but I managed to drive in and out of it for several days without scraping up my car.  One of the stairways leading up to the hotel from the parking garage smelled very bad (like a port-o-potty) but the other stairway up was all right.  Finally, this hotel is most definitely NOT in Beverly Hills (though it is on Beverly Blvd).  It is across from CBS Television City.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r3262483-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>3262483</t>
+  </si>
+  <si>
+    <t>03/08/2005</t>
+  </si>
+  <si>
+    <t>Worst Hotel!</t>
+  </si>
+  <si>
+    <t>We only were staying 1 night and picked this hotel because it was right across the street from CBS studios and we were in town for a taping of The Price is Right.  We checked in and then went to our room.  It had the worst smell, a combo of really bad body odor and wet mold.  The room was tiny and the bathroom was the size of about a closet, with only a cheap stand up shower.  We asked to see another room, due to the smell, so they let us look at two others, but these ones were smoking rooms.  They were a bit bigger and at least the bathrooms had full tub/showers, but the smell was the same, just mixed with a smoke smell.  There was no way we could stomach a night there, we asked for our money back.  We literally had paid for the room about 15 minutes earlier, but we were told that there were NO REFUNDS and that we should have read the fine print.  We decided that there was no way we could stay there so we kissed the $70 we paid for the room goodbye and went to stay at a Holiday Inn Express.I would NOT Recommend this hotel to anyone.  The service was horrible, and the rooms worse.MoreShow less</t>
+  </si>
+  <si>
+    <t>We only were staying 1 night and picked this hotel because it was right across the street from CBS studios and we were in town for a taping of The Price is Right.  We checked in and then went to our room.  It had the worst smell, a combo of really bad body odor and wet mold.  The room was tiny and the bathroom was the size of about a closet, with only a cheap stand up shower.  We asked to see another room, due to the smell, so they let us look at two others, but these ones were smoking rooms.  They were a bit bigger and at least the bathrooms had full tub/showers, but the smell was the same, just mixed with a smoke smell.  There was no way we could stomach a night there, we asked for our money back.  We literally had paid for the room about 15 minutes earlier, but we were told that there were NO REFUNDS and that we should have read the fine print.  We decided that there was no way we could stay there so we kissed the $70 we paid for the room goodbye and went to stay at a Holiday Inn Express.I would NOT Recommend this hotel to anyone.  The service was horrible, and the rooms worse.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r3239295-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>3239295</t>
+  </si>
+  <si>
+    <t>02/28/2005</t>
+  </si>
+  <si>
+    <t>Tiny rooms!  Nice staff!</t>
+  </si>
+  <si>
+    <t>For the price you pay, this hotel could recieve an "average" rating.  It is kept as clean as it can be, being that it appears to be an older building.
+Our room was SO TINY with a small double bed where the front door almost hits the side of the bed when you come in.  There is a desk chair, TV, and sink in the sleeping room.  Small bathroom with shower only.  It was clean and well-stocked.  We did not go to the free continental breakfast.
+The parking garage is a nightmare - small cars only!  Tight - tight - tight - ramp down to parking spaces.  If the garage is full, it is a real challenge to back out.  There appears to be some parking on the street, tho.
+The good part:  So close to CBS Studios and "The Price is Right".  Tip for getting on the show:  line up EARLY!  I'm talking 3am!  We lined up at 6am and did not get in (Feb 24).  Anyway, this hotel is also close to/easy walking distance to Farmer's Market (lotsa fun) and The Grove, which is an upscale shopping/restaurant area.  There is also a Subway and an Italian sandwich/pizza place (good food) a block or two down the street.
+The front desk people were friendly and helpful.  I probably would not stay here again, only because of how small the rooms are but maybe there are larger ones available ????...For the price you pay, this hotel could recieve an "average" rating.  It is kept as clean as it can be, being that it appears to be an older building.Our room was SO TINY with a small double bed where the front door almost hits the side of the bed when you come in.  There is a desk chair, TV, and sink in the sleeping room.  Small bathroom with shower only.  It was clean and well-stocked.  We did not go to the free continental breakfast.The parking garage is a nightmare - small cars only!  Tight - tight - tight - ramp down to parking spaces.  If the garage is full, it is a real challenge to back out.  There appears to be some parking on the street, tho.The good part:  So close to CBS Studios and "The Price is Right".  Tip for getting on the show:  line up EARLY!  I'm talking 3am!  We lined up at 6am and did not get in (Feb 24).  Anyway, this hotel is also close to/easy walking distance to Farmer's Market (lotsa fun) and The Grove, which is an upscale shopping/restaurant area.  There is also a Subway and an Italian sandwich/pizza place (good food) a block or two down the street.The front desk people were friendly and helpful.  I probably would not stay here again, only because of how small the rooms are but maybe there are larger ones available ????  Good luck and have a great time in LA.Rick and Laurie, Renton WAMoreShow less</t>
+  </si>
+  <si>
+    <t>For the price you pay, this hotel could recieve an "average" rating.  It is kept as clean as it can be, being that it appears to be an older building.
+Our room was SO TINY with a small double bed where the front door almost hits the side of the bed when you come in.  There is a desk chair, TV, and sink in the sleeping room.  Small bathroom with shower only.  It was clean and well-stocked.  We did not go to the free continental breakfast.
+The parking garage is a nightmare - small cars only!  Tight - tight - tight - ramp down to parking spaces.  If the garage is full, it is a real challenge to back out.  There appears to be some parking on the street, tho.
+The good part:  So close to CBS Studios and "The Price is Right".  Tip for getting on the show:  line up EARLY!  I'm talking 3am!  We lined up at 6am and did not get in (Feb 24).  Anyway, this hotel is also close to/easy walking distance to Farmer's Market (lotsa fun) and The Grove, which is an upscale shopping/restaurant area.  There is also a Subway and an Italian sandwich/pizza place (good food) a block or two down the street.
+The front desk people were friendly and helpful.  I probably would not stay here again, only because of how small the rooms are but maybe there are larger ones available ????...For the price you pay, this hotel could recieve an "average" rating.  It is kept as clean as it can be, being that it appears to be an older building.Our room was SO TINY with a small double bed where the front door almost hits the side of the bed when you come in.  There is a desk chair, TV, and sink in the sleeping room.  Small bathroom with shower only.  It was clean and well-stocked.  We did not go to the free continental breakfast.The parking garage is a nightmare - small cars only!  Tight - tight - tight - ramp down to parking spaces.  If the garage is full, it is a real challenge to back out.  There appears to be some parking on the street, tho.The good part:  So close to CBS Studios and "The Price is Right".  Tip for getting on the show:  line up EARLY!  I'm talking 3am!  We lined up at 6am and did not get in (Feb 24).  Anyway, this hotel is also close to/easy walking distance to Farmer's Market (lotsa fun) and The Grove, which is an upscale shopping/restaurant area.  There is also a Subway and an Italian sandwich/pizza place (good food) a block or two down the street.The front desk people were friendly and helpful.  I probably would not stay here again, only because of how small the rooms are but maybe there are larger ones available ????  Good luck and have a great time in LA.Rick and Laurie, Renton WAMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r3231602-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>3231602</t>
+  </si>
+  <si>
+    <t>02/25/2005</t>
+  </si>
+  <si>
+    <t>Don't let the Beverly Hills fool you!</t>
+  </si>
+  <si>
+    <t>This is NOT in Beverly Hills and most certainly NOT a "hotel". It's more along the lines of seedy motel. The location of this establishment is ok. It is within walking distance to CBS studios (across the street) and the Farmer's Market. The room we stayed in was very very small-but clean. Bring your own towels because the ones they provide are very threadbare and dingy. There really wasn't anywhere to place our luggage. Parking is free (which is nice) but I'd park my car on the street rather than in their garage again. It's extremely difficult to exit the underground garage without scraping your car.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r1728612-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>1728612</t>
+  </si>
+  <si>
+    <t>03/16/2004</t>
+  </si>
+  <si>
+    <t>Convenient to CBS</t>
+  </si>
+  <si>
+    <t>If you are planning to be at CBS studios, I recommend Guesthouse Inn. It was great to get up and walk across the street. We were also so busy we didn't spend quality time in the room. Just there to sleep and shower. The rooms are small, worn, and the bathrooms were clean, but the carpet was questionable. We also passed up the continental breakfast-not appealing. If I had plans at CBS, I would stay there again. (Can walk to Farmer's Market, too.)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r1623121-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>1623121</t>
+  </si>
+  <si>
+    <t>01/30/2004</t>
+  </si>
+  <si>
+    <t>Avoid at all cost!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel in January 2004. This is the worst place I've ever stayed at in my life. The room was extremely cramped, no bigger than a jail cell. The TV didnt come with a remote. The towels were dingy. They have the audacity to tell you you arent allowed to have any visitors or you will be kicked out. The parking garage is cramped as well. I mean you could see where many cars had scraped the sides. I ended up parking on the street for the night. The employees speak with a thick Indian accent, you can barely understand them and are rude to boot. I don't know why this is called "GuestHouse- Beverly Hills". It is NOT in Beverly Hills. Its "down the road" from Beverly Hills. And that "stretch of road" makes ALL the difference! I would not recommend staying here at all. I dont care how cheap you can get it, avoid it at all cost. My reservation was originally for 3 nights, I stayed there for one and found a much better place in North Hollywood.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel in January 2004. This is the worst place I've ever stayed at in my life. The room was extremely cramped, no bigger than a jail cell. The TV didnt come with a remote. The towels were dingy. They have the audacity to tell you you arent allowed to have any visitors or you will be kicked out. The parking garage is cramped as well. I mean you could see where many cars had scraped the sides. I ended up parking on the street for the night. The employees speak with a thick Indian accent, you can barely understand them and are rude to boot. I don't know why this is called "GuestHouse- Beverly Hills". It is NOT in Beverly Hills. Its "down the road" from Beverly Hills. And that "stretch of road" makes ALL the difference! I would not recommend staying here at all. I dont care how cheap you can get it, avoid it at all cost. My reservation was originally for 3 nights, I stayed there for one and found a much better place in North Hollywood.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r1398059-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>1398059</t>
+  </si>
+  <si>
+    <t>10/17/2003</t>
+  </si>
+  <si>
+    <t>Just for location</t>
+  </si>
+  <si>
+    <t>Overall it fit the purpose ..cheap and around the corner from CBS studios.I didn't like the sink being in the sleeping area instead of in the bathroom and barely warm water in the morning.Cigarette burns in carpet and bedding.(smoking room)No pool.Parking garage is small with a scarey ramp,little cars only.Great cold air conditioning!I would stay there again just for location.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2562,5947 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>107</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" t="s">
+        <v>115</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>115</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" t="s">
+        <v>107</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>115</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18" t="s">
+        <v>158</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>152</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" t="s">
+        <v>164</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>165</v>
+      </c>
+      <c r="O19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" t="s">
+        <v>170</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>171</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>172</v>
+      </c>
+      <c r="X20" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>176</v>
+      </c>
+      <c r="J21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K21" t="s">
+        <v>178</v>
+      </c>
+      <c r="L21" t="s">
+        <v>179</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>171</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>180</v>
+      </c>
+      <c r="X21" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>184</v>
+      </c>
+      <c r="J22" t="s">
+        <v>185</v>
+      </c>
+      <c r="K22" t="s">
+        <v>186</v>
+      </c>
+      <c r="L22" t="s">
+        <v>187</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>188</v>
+      </c>
+      <c r="O22" t="s">
+        <v>80</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>189</v>
+      </c>
+      <c r="X22" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>192</v>
+      </c>
+      <c r="J23" t="s">
+        <v>193</v>
+      </c>
+      <c r="K23" t="s">
+        <v>194</v>
+      </c>
+      <c r="L23" t="s">
+        <v>195</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>188</v>
+      </c>
+      <c r="O23" t="s">
+        <v>107</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>196</v>
+      </c>
+      <c r="X23" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>199</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>200</v>
+      </c>
+      <c r="J24" t="s">
+        <v>201</v>
+      </c>
+      <c r="K24" t="s">
+        <v>202</v>
+      </c>
+      <c r="L24" t="s">
+        <v>203</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>145</v>
+      </c>
+      <c r="O24" t="s">
+        <v>80</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>204</v>
+      </c>
+      <c r="X24" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>208</v>
+      </c>
+      <c r="J25" t="s">
+        <v>209</v>
+      </c>
+      <c r="K25" t="s">
+        <v>210</v>
+      </c>
+      <c r="L25" t="s">
+        <v>211</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>145</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>212</v>
+      </c>
+      <c r="X25" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>215</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>216</v>
+      </c>
+      <c r="J26" t="s">
+        <v>217</v>
+      </c>
+      <c r="K26" t="s">
+        <v>218</v>
+      </c>
+      <c r="L26" t="s">
+        <v>219</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>220</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>221</v>
+      </c>
+      <c r="X26" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>225</v>
+      </c>
+      <c r="J27" t="s">
+        <v>226</v>
+      </c>
+      <c r="K27" t="s">
+        <v>227</v>
+      </c>
+      <c r="L27" t="s">
+        <v>228</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>220</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>229</v>
+      </c>
+      <c r="X27" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>232</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>233</v>
+      </c>
+      <c r="J28" t="s">
+        <v>234</v>
+      </c>
+      <c r="K28" t="s">
+        <v>235</v>
+      </c>
+      <c r="L28" t="s">
+        <v>236</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>237</v>
+      </c>
+      <c r="X28" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>240</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>241</v>
+      </c>
+      <c r="J29" t="s">
+        <v>242</v>
+      </c>
+      <c r="K29" t="s">
+        <v>243</v>
+      </c>
+      <c r="L29" t="s">
+        <v>244</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>245</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>246</v>
+      </c>
+      <c r="X29" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>249</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>250</v>
+      </c>
+      <c r="J30" t="s">
+        <v>251</v>
+      </c>
+      <c r="K30" t="s">
+        <v>252</v>
+      </c>
+      <c r="L30" t="s">
+        <v>253</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>245</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>254</v>
+      </c>
+      <c r="X30" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>257</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>258</v>
+      </c>
+      <c r="J31" t="s">
+        <v>259</v>
+      </c>
+      <c r="K31" t="s">
+        <v>260</v>
+      </c>
+      <c r="L31" t="s">
+        <v>261</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>262</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>263</v>
+      </c>
+      <c r="X31" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>266</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>267</v>
+      </c>
+      <c r="J32" t="s">
+        <v>268</v>
+      </c>
+      <c r="K32" t="s">
+        <v>269</v>
+      </c>
+      <c r="L32" t="s">
+        <v>270</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>271</v>
+      </c>
+      <c r="X32" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>274</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>275</v>
+      </c>
+      <c r="J33" t="s">
+        <v>276</v>
+      </c>
+      <c r="K33" t="s">
+        <v>277</v>
+      </c>
+      <c r="L33" t="s">
+        <v>278</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>279</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>280</v>
+      </c>
+      <c r="X33" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>283</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>284</v>
+      </c>
+      <c r="J34" t="s">
+        <v>285</v>
+      </c>
+      <c r="K34" t="s">
+        <v>286</v>
+      </c>
+      <c r="L34" t="s">
+        <v>287</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>288</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>289</v>
+      </c>
+      <c r="X34" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>291</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>292</v>
+      </c>
+      <c r="J35" t="s">
+        <v>293</v>
+      </c>
+      <c r="K35" t="s">
+        <v>294</v>
+      </c>
+      <c r="L35" t="s">
+        <v>295</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>296</v>
+      </c>
+      <c r="O35" t="s">
+        <v>115</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>297</v>
+      </c>
+      <c r="X35" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>300</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>301</v>
+      </c>
+      <c r="J36" t="s">
+        <v>302</v>
+      </c>
+      <c r="K36" t="s">
+        <v>303</v>
+      </c>
+      <c r="L36" t="s">
+        <v>304</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>296</v>
+      </c>
+      <c r="O36" t="s">
+        <v>80</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>297</v>
+      </c>
+      <c r="X36" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>306</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>307</v>
+      </c>
+      <c r="J37" t="s">
+        <v>308</v>
+      </c>
+      <c r="K37" t="s">
+        <v>309</v>
+      </c>
+      <c r="L37" t="s">
+        <v>310</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>311</v>
+      </c>
+      <c r="O37" t="s">
+        <v>80</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>312</v>
+      </c>
+      <c r="X37" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>315</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>316</v>
+      </c>
+      <c r="J38" t="s">
+        <v>317</v>
+      </c>
+      <c r="K38" t="s">
+        <v>318</v>
+      </c>
+      <c r="L38" t="s">
+        <v>319</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>320</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>321</v>
+      </c>
+      <c r="X38" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>324</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>325</v>
+      </c>
+      <c r="J39" t="s">
+        <v>326</v>
+      </c>
+      <c r="K39" t="s">
+        <v>327</v>
+      </c>
+      <c r="L39" t="s">
+        <v>328</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>320</v>
+      </c>
+      <c r="O39" t="s">
+        <v>115</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>329</v>
+      </c>
+      <c r="X39" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>332</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>333</v>
+      </c>
+      <c r="J40" t="s">
+        <v>334</v>
+      </c>
+      <c r="K40" t="s">
+        <v>335</v>
+      </c>
+      <c r="L40" t="s">
+        <v>336</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>320</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>337</v>
+      </c>
+      <c r="X40" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>340</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>341</v>
+      </c>
+      <c r="J41" t="s">
+        <v>342</v>
+      </c>
+      <c r="K41" t="s">
+        <v>343</v>
+      </c>
+      <c r="L41" t="s">
+        <v>344</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>345</v>
+      </c>
+      <c r="O41" t="s">
+        <v>115</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>346</v>
+      </c>
+      <c r="X41" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>349</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>350</v>
+      </c>
+      <c r="J42" t="s">
+        <v>351</v>
+      </c>
+      <c r="K42" t="s">
+        <v>352</v>
+      </c>
+      <c r="L42" t="s">
+        <v>353</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>354</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>356</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>357</v>
+      </c>
+      <c r="J43" t="s">
+        <v>358</v>
+      </c>
+      <c r="K43" t="s">
+        <v>359</v>
+      </c>
+      <c r="L43" t="s">
+        <v>360</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>361</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>362</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>363</v>
+      </c>
+      <c r="J44" t="s">
+        <v>364</v>
+      </c>
+      <c r="K44" t="s">
+        <v>365</v>
+      </c>
+      <c r="L44" t="s">
+        <v>366</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>367</v>
+      </c>
+      <c r="O44" t="s">
+        <v>80</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>369</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>370</v>
+      </c>
+      <c r="J45" t="s">
+        <v>371</v>
+      </c>
+      <c r="K45" t="s">
+        <v>372</v>
+      </c>
+      <c r="L45" t="s">
+        <v>373</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>374</v>
+      </c>
+      <c r="O45" t="s">
+        <v>107</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>375</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>376</v>
+      </c>
+      <c r="J46" t="s">
+        <v>377</v>
+      </c>
+      <c r="K46" t="s">
+        <v>378</v>
+      </c>
+      <c r="L46" t="s">
+        <v>379</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>374</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>380</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>381</v>
+      </c>
+      <c r="J47" t="s">
+        <v>382</v>
+      </c>
+      <c r="K47" t="s">
+        <v>383</v>
+      </c>
+      <c r="L47" t="s">
+        <v>384</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>385</v>
+      </c>
+      <c r="O47" t="s">
+        <v>80</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>387</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>388</v>
+      </c>
+      <c r="J48" t="s">
+        <v>389</v>
+      </c>
+      <c r="K48" t="s">
+        <v>390</v>
+      </c>
+      <c r="L48" t="s">
+        <v>391</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>392</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>394</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>395</v>
+      </c>
+      <c r="J49" t="s">
+        <v>396</v>
+      </c>
+      <c r="K49" t="s">
+        <v>397</v>
+      </c>
+      <c r="L49" t="s">
+        <v>398</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>399</v>
+      </c>
+      <c r="O49" t="s">
+        <v>115</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>400</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>401</v>
+      </c>
+      <c r="J50" t="s">
+        <v>402</v>
+      </c>
+      <c r="K50" t="s">
+        <v>403</v>
+      </c>
+      <c r="L50" t="s">
+        <v>404</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>405</v>
+      </c>
+      <c r="O50" t="s">
+        <v>80</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>407</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>408</v>
+      </c>
+      <c r="J51" t="s">
+        <v>409</v>
+      </c>
+      <c r="K51" t="s">
+        <v>410</v>
+      </c>
+      <c r="L51" t="s">
+        <v>411</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>412</v>
+      </c>
+      <c r="O51" t="s">
+        <v>107</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>414</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>415</v>
+      </c>
+      <c r="J52" t="s">
+        <v>416</v>
+      </c>
+      <c r="K52" t="s">
+        <v>417</v>
+      </c>
+      <c r="L52" t="s">
+        <v>418</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>412</v>
+      </c>
+      <c r="O52" t="s">
+        <v>107</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>419</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>420</v>
+      </c>
+      <c r="J53" t="s">
+        <v>421</v>
+      </c>
+      <c r="K53" t="s">
+        <v>422</v>
+      </c>
+      <c r="L53" t="s">
+        <v>423</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>424</v>
+      </c>
+      <c r="O53" t="s">
+        <v>107</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>426</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>427</v>
+      </c>
+      <c r="J54" t="s">
+        <v>428</v>
+      </c>
+      <c r="K54" t="s">
+        <v>429</v>
+      </c>
+      <c r="L54" t="s">
+        <v>430</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>424</v>
+      </c>
+      <c r="O54" t="s">
+        <v>115</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>432</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>433</v>
+      </c>
+      <c r="J55" t="s">
+        <v>434</v>
+      </c>
+      <c r="K55" t="s">
+        <v>435</v>
+      </c>
+      <c r="L55" t="s">
+        <v>436</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>437</v>
+      </c>
+      <c r="O55" t="s">
+        <v>107</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>438</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>439</v>
+      </c>
+      <c r="J56" t="s">
+        <v>440</v>
+      </c>
+      <c r="K56" t="s">
+        <v>441</v>
+      </c>
+      <c r="L56" t="s">
+        <v>442</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>443</v>
+      </c>
+      <c r="O56" t="s">
+        <v>107</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>444</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>445</v>
+      </c>
+      <c r="J57" t="s">
+        <v>446</v>
+      </c>
+      <c r="K57" t="s">
+        <v>447</v>
+      </c>
+      <c r="L57" t="s">
+        <v>448</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>443</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>449</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>450</v>
+      </c>
+      <c r="J58" t="s">
+        <v>451</v>
+      </c>
+      <c r="K58" t="s">
+        <v>452</v>
+      </c>
+      <c r="L58" t="s">
+        <v>453</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>454</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>455</v>
+      </c>
+      <c r="J59" t="s">
+        <v>456</v>
+      </c>
+      <c r="K59" t="s">
+        <v>457</v>
+      </c>
+      <c r="L59" t="s">
+        <v>458</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>459</v>
+      </c>
+      <c r="O59" t="s">
+        <v>80</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>460</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>461</v>
+      </c>
+      <c r="J60" t="s">
+        <v>462</v>
+      </c>
+      <c r="K60" t="s">
+        <v>463</v>
+      </c>
+      <c r="L60" t="s">
+        <v>464</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>465</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>466</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>467</v>
+      </c>
+      <c r="J61" t="s">
+        <v>468</v>
+      </c>
+      <c r="K61" t="s">
+        <v>469</v>
+      </c>
+      <c r="L61" t="s">
+        <v>470</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>471</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>472</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>473</v>
+      </c>
+      <c r="J62" t="s">
+        <v>474</v>
+      </c>
+      <c r="K62" t="s">
+        <v>475</v>
+      </c>
+      <c r="L62" t="s">
+        <v>476</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>477</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>479</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>480</v>
+      </c>
+      <c r="J63" t="s">
+        <v>481</v>
+      </c>
+      <c r="K63" t="s">
+        <v>482</v>
+      </c>
+      <c r="L63" t="s">
+        <v>483</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>484</v>
+      </c>
+      <c r="O63" t="s">
+        <v>80</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>485</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>486</v>
+      </c>
+      <c r="J64" t="s">
+        <v>487</v>
+      </c>
+      <c r="K64" t="s">
+        <v>488</v>
+      </c>
+      <c r="L64" t="s">
+        <v>489</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>490</v>
+      </c>
+      <c r="O64" t="s">
+        <v>107</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>492</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>493</v>
+      </c>
+      <c r="J65" t="s">
+        <v>494</v>
+      </c>
+      <c r="K65" t="s">
+        <v>495</v>
+      </c>
+      <c r="L65" t="s">
+        <v>496</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>497</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>498</v>
+      </c>
+      <c r="J66" t="s">
+        <v>499</v>
+      </c>
+      <c r="K66" t="s">
+        <v>500</v>
+      </c>
+      <c r="L66" t="s">
+        <v>501</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>502</v>
+      </c>
+      <c r="O66" t="s">
+        <v>80</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>503</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>504</v>
+      </c>
+      <c r="J67" t="s">
+        <v>505</v>
+      </c>
+      <c r="K67" t="s">
+        <v>506</v>
+      </c>
+      <c r="L67" t="s">
+        <v>507</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>502</v>
+      </c>
+      <c r="O67" t="s">
+        <v>60</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>508</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>509</v>
+      </c>
+      <c r="J68" t="s">
+        <v>510</v>
+      </c>
+      <c r="K68" t="s">
+        <v>511</v>
+      </c>
+      <c r="L68" t="s">
+        <v>512</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>513</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>514</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>515</v>
+      </c>
+      <c r="J69" t="s">
+        <v>516</v>
+      </c>
+      <c r="K69" t="s">
+        <v>517</v>
+      </c>
+      <c r="L69" t="s">
+        <v>518</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s">
+        <v>513</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>520</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>521</v>
+      </c>
+      <c r="J70" t="s">
+        <v>522</v>
+      </c>
+      <c r="K70" t="s">
+        <v>523</v>
+      </c>
+      <c r="L70" t="s">
+        <v>524</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>525</v>
+      </c>
+      <c r="O70" t="s">
+        <v>80</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>526</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>527</v>
+      </c>
+      <c r="J71" t="s">
+        <v>528</v>
+      </c>
+      <c r="K71" t="s">
+        <v>529</v>
+      </c>
+      <c r="L71" t="s">
+        <v>530</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>525</v>
+      </c>
+      <c r="O71" t="s">
+        <v>80</v>
+      </c>
+      <c r="P71" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>531</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>532</v>
+      </c>
+      <c r="J72" t="s">
+        <v>533</v>
+      </c>
+      <c r="K72" t="s">
+        <v>534</v>
+      </c>
+      <c r="L72" t="s">
+        <v>535</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>536</v>
+      </c>
+      <c r="O72" t="s">
+        <v>80</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>537</v>
+      </c>
+      <c r="X72" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>540</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>541</v>
+      </c>
+      <c r="J73" t="s">
+        <v>542</v>
+      </c>
+      <c r="K73" t="s">
+        <v>543</v>
+      </c>
+      <c r="L73" t="s">
+        <v>544</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>536</v>
+      </c>
+      <c r="O73" t="s">
+        <v>107</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>537</v>
+      </c>
+      <c r="X73" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>546</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>547</v>
+      </c>
+      <c r="J74" t="s">
+        <v>548</v>
+      </c>
+      <c r="K74" t="s">
+        <v>549</v>
+      </c>
+      <c r="L74" t="s">
+        <v>550</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>551</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>553</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>554</v>
+      </c>
+      <c r="J75" t="s">
+        <v>555</v>
+      </c>
+      <c r="K75" t="s">
+        <v>556</v>
+      </c>
+      <c r="L75" t="s">
+        <v>557</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>558</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>559</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>560</v>
+      </c>
+      <c r="J76" t="s">
+        <v>561</v>
+      </c>
+      <c r="K76" t="s">
+        <v>562</v>
+      </c>
+      <c r="L76" t="s">
+        <v>563</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>558</v>
+      </c>
+      <c r="O76" t="s">
+        <v>60</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>564</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>565</v>
+      </c>
+      <c r="J77" t="s">
+        <v>566</v>
+      </c>
+      <c r="K77" t="s">
+        <v>567</v>
+      </c>
+      <c r="L77" t="s">
+        <v>568</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>569</v>
+      </c>
+      <c r="O77" t="s">
+        <v>80</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>570</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>571</v>
+      </c>
+      <c r="J78" t="s">
+        <v>572</v>
+      </c>
+      <c r="K78" t="s">
+        <v>573</v>
+      </c>
+      <c r="L78" t="s">
+        <v>574</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>2</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>576</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>577</v>
+      </c>
+      <c r="J79" t="s">
+        <v>578</v>
+      </c>
+      <c r="K79" t="s">
+        <v>579</v>
+      </c>
+      <c r="L79" t="s">
+        <v>580</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>569</v>
+      </c>
+      <c r="O79" t="s">
+        <v>60</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>581</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>582</v>
+      </c>
+      <c r="J80" t="s">
+        <v>583</v>
+      </c>
+      <c r="K80" t="s">
+        <v>584</v>
+      </c>
+      <c r="L80" t="s">
+        <v>585</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>586</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>588</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>589</v>
+      </c>
+      <c r="J81" t="s">
+        <v>590</v>
+      </c>
+      <c r="K81" t="s">
+        <v>591</v>
+      </c>
+      <c r="L81" t="s">
+        <v>592</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>593</v>
+      </c>
+      <c r="O81" t="s">
+        <v>107</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>594</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>595</v>
+      </c>
+      <c r="J82" t="s">
+        <v>596</v>
+      </c>
+      <c r="K82" t="s">
+        <v>597</v>
+      </c>
+      <c r="L82" t="s">
+        <v>598</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>593</v>
+      </c>
+      <c r="O82" t="s">
+        <v>60</v>
+      </c>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>2</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>600</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>601</v>
+      </c>
+      <c r="J83" t="s">
+        <v>602</v>
+      </c>
+      <c r="K83" t="s">
+        <v>603</v>
+      </c>
+      <c r="L83" t="s">
+        <v>604</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s">
+        <v>605</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>607</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>608</v>
+      </c>
+      <c r="J84" t="s">
+        <v>609</v>
+      </c>
+      <c r="K84" t="s">
+        <v>610</v>
+      </c>
+      <c r="L84" t="s">
+        <v>611</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>605</v>
+      </c>
+      <c r="O84" t="s">
+        <v>80</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>612</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>613</v>
+      </c>
+      <c r="J85" t="s">
+        <v>614</v>
+      </c>
+      <c r="K85" t="s">
+        <v>615</v>
+      </c>
+      <c r="L85" t="s">
+        <v>616</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s">
+        <v>617</v>
+      </c>
+      <c r="O85" t="s">
+        <v>60</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>1</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>2</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>1</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>619</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>620</v>
+      </c>
+      <c r="J86" t="s">
+        <v>621</v>
+      </c>
+      <c r="K86" t="s">
+        <v>622</v>
+      </c>
+      <c r="L86" t="s">
+        <v>623</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="s"/>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>625</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>626</v>
+      </c>
+      <c r="J87" t="s">
+        <v>627</v>
+      </c>
+      <c r="K87" t="s">
+        <v>628</v>
+      </c>
+      <c r="L87" t="s">
+        <v>629</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="s"/>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>630</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>631</v>
+      </c>
+      <c r="J88" t="s">
+        <v>632</v>
+      </c>
+      <c r="K88" t="s">
+        <v>633</v>
+      </c>
+      <c r="L88" t="s">
+        <v>634</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>635</v>
+      </c>
+      <c r="O88" t="s">
+        <v>60</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>2</v>
+      </c>
+      <c r="R88" t="s"/>
+      <c r="S88" t="n">
+        <v>2</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>2</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>637</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>638</v>
+      </c>
+      <c r="J89" t="s">
+        <v>639</v>
+      </c>
+      <c r="K89" t="s">
+        <v>640</v>
+      </c>
+      <c r="L89" t="s">
+        <v>641</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" t="s"/>
+      <c r="S89" t="n">
+        <v>1</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>643</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>644</v>
+      </c>
+      <c r="J90" t="s">
+        <v>645</v>
+      </c>
+      <c r="K90" t="s">
+        <v>646</v>
+      </c>
+      <c r="L90" t="s">
+        <v>647</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>649</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>650</v>
+      </c>
+      <c r="J91" t="s">
+        <v>651</v>
+      </c>
+      <c r="K91" t="s">
+        <v>652</v>
+      </c>
+      <c r="L91" t="s">
+        <v>653</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>654</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>655</v>
+      </c>
+      <c r="J92" t="s">
+        <v>656</v>
+      </c>
+      <c r="K92" t="s">
+        <v>657</v>
+      </c>
+      <c r="L92" t="s">
+        <v>658</v>
+      </c>
+      <c r="M92" t="n">
+        <v>2</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>659</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>660</v>
+      </c>
+      <c r="J93" t="s">
+        <v>661</v>
+      </c>
+      <c r="K93" t="s">
+        <v>662</v>
+      </c>
+      <c r="L93" t="s">
+        <v>663</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>1</v>
+      </c>
+      <c r="R93" t="s"/>
+      <c r="S93" t="n">
+        <v>1</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>1</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>39378</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>665</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>666</v>
+      </c>
+      <c r="J94" t="s">
+        <v>667</v>
+      </c>
+      <c r="K94" t="s">
+        <v>668</v>
+      </c>
+      <c r="L94" t="s">
+        <v>669</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>669</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_675.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_675.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="759">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Burcakurt</t>
+  </si>
+  <si>
     <t>07/10/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Robert R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r541874089-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>This was the least expensive place in the area and it was fine. The room itself is tiny, but again a bed, tv and a bathroom.  It is within walking distance of a lot of nice places and across from CBS.  Do not try and smoke in the courtyard as I was told I couldn't as I did not see the no smoking sign.  I just figured I was outside. Rosarita (I hope that is her name) was very nice and let me stay in the room a little longer than I should have as my ride was running late. Overall I would recommend the place if you just need a place to sleep.  It was clean and everything worked out fine.  Thank you Rosarita for your kindness.More</t>
   </si>
   <si>
+    <t>shellys292017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r540798469-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t>This was one of the worse hotel experiences of my life. I would not wish a stay here on my worst enemy.  The hotel staff here does not care one bit about its customers, are greedy, and only care about money. This hotel is advertised to be a nonsmoking hotel and the hotel room we received REEKED and SMELLED completely of tobacco.  We had originally booked for 3 nights and did not even stay one night.  In fact after smelling the room I left after 5 seconds and asked the desk staff to come and smell the room.  We told them we wanted a full refund because of their false advertisement.  We booked somewhere else for all 3 nights.  The front desk personnel said that the manager would be in the next morning and likely wouldn't have a problem refunding us the money. After numerous emails that went unanswered and calls the hotel REFUSED to give us a refund and charged us for ALL THREE nights even though we did not even stay one night.  PLEASE DO NOT EVER  SUPPORT these people.  They  do not care about their customers and are COMPLETE FRAUDS!  Also, THEY say they are NONSMOKING BUT THEIR ROOMS SMELL OF SMOKE!!!!!!!!!!!!More</t>
   </si>
   <si>
+    <t>avatarjennie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r493539694-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>Very basic accommodations. The hotel tries to upgrade with nice furniture but walls itself need repair. Air conditioner works but 1980 window unit. Elevator works. Corridors  and hallways not air conditioned, they leave doors open for a breeze (this is not a beach town) so hot/muggy/mosquitoes greet you. Road noise is apparent. We had to wear sunglasses in the shower due to the glare in the bathroom being WAY over the top bright!!! You can't see it's so bright (room 220). Strange. It's across the street from CBS studios so an attendance to the late night show would be the only good idea at this location. Solid basic hotel. Keywords are basic/road noise/strange. More</t>
   </si>
   <si>
+    <t>772patrick</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r471502297-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -264,6 +279,9 @@
     <t>The front desk personnel was efficient, nice and helpful. I was very surprised when I opened the front door.   This was the smallest hotel room I have ever seen.  There was no real closet space, no clock, no chairs...just a queen sized bed which covered virtually the entire room.  However, there was a small desk, fridge and a microwave., and the TV was modern.  The bathroom was tiny, but the plumbing worked and the shower was adequate. The breakfast consisted of random pastries, yogurt and coffee. There was a quaint courtyard area in the middle of the hotel   We stayed for three days at $156.00 per night.  The location is fantastic.  The CBS Broadcast Center was across Beverly Blvd., and the Farmer's Market (a great venue) was within walking distance.  All things considered, the stay was okay, but be prepared for the tiny room!More</t>
   </si>
   <si>
+    <t>ChilMili</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r468661262-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t>Close to The Grove (shopping).  Right across the street from CBS Television City.  Free (limited) parking. Free internet.  Free breakfast (waffles, pastries, juice &amp; yogurt). Cute court yard.  Lots o surveillance cameras. No closet, just a place in the corner to hang your things.  The curved shower rod was installed too deep into the shower to give the benefit of having it.  The shower curtain was too short.  The A/C was loud, but it drowned out the traffic noise.  You have to be buzzed in to the reception area after hours, but the front door stayed open all night.  I would not recommend this location for a female traveling alone.More</t>
   </si>
   <si>
+    <t>Jessica W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r452065934-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -300,6 +321,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>geotech522</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r443426132-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -321,6 +345,9 @@
     <t>Although there are quite a few smaller hotels in the neighborhood of Beverly and Fairfax, the Rodeway Inn is a good value for the price.  You may have to sacrifice a bit on the size of room and lack of drawer space for a few hangers on the wall and no desk.  We did get two queen beds in a 2 room configuration which was was very nice.  The beds were extremely comfortable and gave us a good night's sleep.  As the hotel is right on Beverly Boulevard, there is quite a bit of street noise, especially if the room is on the side of Beverly or even on the side street.  If you're on the first floor, you may hear the floor squeak above your head if someone is walking on the second floor.  But Rodeway does provide a decent continental breakfast with self-made waffles, bagels, and bread, as well as cereal and danish.  The coffee machine is pretty good and there is also a nice selection of yogurt.  They also serve milk and orange juice so you can have a decent breakfast.  The underground parking is accessed by a very steep and narrow driveway; not fun to go in and out.  There are several spaces off the alley in the back on the side of the building that are available and you should try to park there instead of in the underground area.  The rooms were clean, sheets...Although there are quite a few smaller hotels in the neighborhood of Beverly and Fairfax, the Rodeway Inn is a good value for the price.  You may have to sacrifice a bit on the size of room and lack of drawer space for a few hangers on the wall and no desk.  We did get two queen beds in a 2 room configuration which was was very nice.  The beds were extremely comfortable and gave us a good night's sleep.  As the hotel is right on Beverly Boulevard, there is quite a bit of street noise, especially if the room is on the side of Beverly or even on the side street.  If you're on the first floor, you may hear the floor squeak above your head if someone is walking on the second floor.  But Rodeway does provide a decent continental breakfast with self-made waffles, bagels, and bread, as well as cereal and danish.  The coffee machine is pretty good and there is also a nice selection of yogurt.  They also serve milk and orange juice so you can have a decent breakfast.  The underground parking is accessed by a very steep and narrow driveway; not fun to go in and out.  There are several spaces off the alley in the back on the side of the building that are available and you should try to park there instead of in the underground area.  The rooms were clean, sheets were clean, and towels were clean (also plush).  Despite a few drawbacks, it was OK.More</t>
   </si>
   <si>
+    <t>carribbeanmic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r436234521-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -343,6 +370,9 @@
   </si>
   <si>
     <t>Prebooked prepaid no cancellation no refund.  We were given a room that was very small one bed a queen I think, Asked for a cot but there was no room to put one.  I feel if you prebook, you lose all chances of getting a decent room, they probably assign the worst room they have once they have your non refundable money.   But anyway my cousin freaked out with claustrophobia and paid for a room with two separate rooms, one bath room.  The place was nice and clean no bugs.  The phones in our rooms did not work when we needed to call the lobby, they never got fixed.  Anthony was our shining star always helpful with directions and ideas.  The place is across the street from CBS if your lucky enough to get tickets.More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r420899474-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
@@ -377,6 +407,9 @@
   There were guests...I am a 21 year old female who was traveling to LA from MA alone. It took me a while to make a decision on a place to stay &amp; this is where I ended up booking my stay. I was pretty impressed with the hotel.   The location couldn't be more ideal. It's directly across of CBS studios &amp; a couple blocks away from the Grove &amp; Beverly Center.   The room was really nice for an "inn" &amp; it looks exactly how it does in the photos on their site. The room was equipped with a mini fridge &amp; a microwave which came in handy since I bought some things to keep in my room (microwave rice &amp; pasta, cereal, water, etc) so I wasn't constantly spending money. The bed was surprisingly comfortable &amp; I'm someone who can be very sensitive to different beds (whether they be too soft or too hard) &amp; can be easily uncomfortable. The room as well as the bathroom was the perfect size, not too big &amp; not too small.   The bathroom had great lighting &amp; the shower, although it wasn't anything spectacular, it was spacious. The shower head is at the perfect level &amp; the water pressure &amp; temperatures were great. The toilet however would make a noise once in a while as if it was draining or something &amp; it would do that every day but that didn't bother me.   There were guests who checked in the room above me towards the end of my stay &amp; I could hear a lot of their foot steps which was a little frustrating.   Room service (unless this is normal &amp; I wasn't aware of it) I felt like was different each day. Sometimes they would knock to come clean at say 11 AM &amp; then sometimes they would come &amp; clean around 2 PM.   A friend came to visit me one night &amp; had to park in the parking garage &amp; it was quite narrow &amp; tight, it's easy to get little dinks &amp; scrapes from the garage. It also only parks say 10-12 cars so keep that in mind as well. All in all I will definitely book my stay here again when I plan my next visit to LA.More</t>
   </si>
   <si>
+    <t>Calif0rniadreamers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r411555767-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -395,6 +428,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Kimberly4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r405504967-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -413,6 +449,9 @@
     <t>I went with two of my friends and it was our first time staying at this hotel. First room they gave us smelled like cigarette smoke, yuck! They were able to accommodate us to another room. This one smelled better, but it was a small room with one bed and and extra folding bed. Room was clean, organized, beds were comfy, and a working tv! The only thing I didn't like was the bathroom shower. I'm 5'6" tall, and I think that shower head was at least 5in lower from my eye level. Too uncomfortable to shower in the morning. Breakfast needs more variety. Staff needs to be more friendly. Hotel needs more parking spaces (get to the hotel early to get a "good" spot). Other than that, hotel's location is great! Across from CBS building (if you're planning to go to 'The Price is Right!'), The Grove and The Farmer's Market are relatively close to stroll around and lots of restaurants to choose from.More</t>
   </si>
   <si>
+    <t>Ron S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r388568854-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -431,6 +470,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Mumpays1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r387439216-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -446,6 +488,9 @@
     <t>Room was very clean and huge.Door key entry kept failing so had to get it reset.Front of house staff not particularly helpful but others were lovely.Area did not feel very safe if you were walking particularly after dark but if in car it was fine.</t>
   </si>
   <si>
+    <t>Alan H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r375616094-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -467,6 +512,9 @@
     <t>I have been staying at this hotel for a few years for my weekend trips from San Francisco.  This hotel has everything you could want from a motel; free parking, free breakfast, clean rooms, close to bars, on a street close to famous restaurants and other places to walk too, etc.  On a couple recent visits the cons of this hotel started to shine.  After driving all night from SF I pulled up to check in.  After checking in I went to park in the lot (3 spots upstairs, and about 8 in the tight basement).  I found all parking was full.  I circled the block and also found no other street parking.  I asked the front desk clerk about other parking options and they told me to park on the street.  This would have been fine, but the signs said daily street cleaning at 7am.  I didn't want to wake up to move my car for street cleaning at 7am during my vacation.  There were no other parking lots available near by.  I spoke with the manager the following day and they were less than sympathetic.  Unlike other Choice Hotel properties they don't monitor the parking, and they don't limit the cars.  Even after showing the advertisement on their website about "free parking" they had no response.  Other days I had to plan my day around finding a parking spot and ensured I was at the motel by 5pm....I have been staying at this hotel for a few years for my weekend trips from San Francisco.  This hotel has everything you could want from a motel; free parking, free breakfast, clean rooms, close to bars, on a street close to famous restaurants and other places to walk too, etc.  On a couple recent visits the cons of this hotel started to shine.  After driving all night from SF I pulled up to check in.  After checking in I went to park in the lot (3 spots upstairs, and about 8 in the tight basement).  I found all parking was full.  I circled the block and also found no other street parking.  I asked the front desk clerk about other parking options and they told me to park on the street.  This would have been fine, but the signs said daily street cleaning at 7am.  I didn't want to wake up to move my car for street cleaning at 7am during my vacation.  There were no other parking lots available near by.  I spoke with the manager the following day and they were less than sympathetic.  Unlike other Choice Hotel properties they don't monitor the parking, and they don't limit the cars.  Even after showing the advertisement on their website about "free parking" they had no response.  Other days I had to plan my day around finding a parking spot and ensured I was at the motel by 5pm.  Thanks for ruining my vacation Rodeway Inn!!If you plan on driving to this hotel with your own car... choose a different hotel.  It will not be worth your hassle.  There are other Choice hotels in the area that are managed better.Pros:  Free cold breakfast, rooms are up to date, free wifi thats mostly reliable, walking distance to a lot restaurants Cons: Outside doors are open 24/7, no security, parking is a nightmare, rooms have imperfections (chipped paint, broken fixtures, etc.), tight garage with no parking guarantee, no pool, no sit down breakfast area, pick your room carefully else it will be noisyMore</t>
   </si>
   <si>
+    <t>L N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r354574843-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -486,6 +534,9 @@
   </si>
   <si>
     <t>The Rodeway Inn is a great place to stay if you are planning on attending a taping of The Price Is Right. It is across the street to the main entrance of CBS Studios. You do need to walk around the block to get in line for the taping. It took us about 5 minutes (and we are a Grammy and Papa in our middle 60's). The room was small, but very clean. Not any smaller than a Veranda Room on a cruise ship. The bed was very comfortable. Our room was right off the inside courtyard, so we were able to open our window. We were there March 8 to the 10th. Weather in the 70s. Rosaria at the front desk was very helpful and friendly. The breakfast area is small but there is cereal, fresh bagels and a waffle pancake maker. The Farmers Market is down the block from the Price Is Right Line. Lots of little shops and food vendors. There is an Italian Restaurant called Maggianos that is good as well. You can get a bus just 1/2 block from the Rodeway to see other sites. We rode the bus for 35 cents since we are considered Senior Citizens. We were able to spend an afternoon on the Walk of Fame where the celebrity stars get their name in the sidewalk. Also see Graumann's Chinese Theater and Dolby Theater. Had a great time and was great...The Rodeway Inn is a great place to stay if you are planning on attending a taping of The Price Is Right. It is across the street to the main entrance of CBS Studios. You do need to walk around the block to get in line for the taping. It took us about 5 minutes (and we are a Grammy and Papa in our middle 60's). The room was small, but very clean. Not any smaller than a Veranda Room on a cruise ship. The bed was very comfortable. Our room was right off the inside courtyard, so we were able to open our window. We were there March 8 to the 10th. Weather in the 70s. Rosaria at the front desk was very helpful and friendly. The breakfast area is small but there is cereal, fresh bagels and a waffle pancake maker. The Farmers Market is down the block from the Price Is Right Line. Lots of little shops and food vendors. There is an Italian Restaurant called Maggianos that is good as well. You can get a bus just 1/2 block from the Rodeway to see other sites. We rode the bus for 35 cents since we are considered Senior Citizens. We were able to spend an afternoon on the Walk of Fame where the celebrity stars get their name in the sidewalk. Also see Graumann's Chinese Theater and Dolby Theater. Had a great time and was great to know we had a nice room to return to. The only negative might be the traffic on Beverly Blvd, but we were not bothered by it that much.More</t>
+  </si>
+  <si>
+    <t>babya71</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r353708528-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
@@ -508,6 +559,9 @@
 So this is a no frills hotel, they do offer breakfast in the am. they have a outside courtyard seating area, rooms are super small, but they have a fridge and microwave. no hairdryer. but we stayed on the 2nd floor, and for this being in a busy location, we did have  a quiet night. its good for a 1 night quick stay, and then move on. And it was a bit pricey, but i guess its because of the area...The reason we booked this hotel is because it is right across from the cbs studios which thats where we were going. we needed to park our car, so we got there around 930am, and we knew it was too early to check in , but we asked the girl at the front desk if we could park in the garage since we had a reservation for that day, she was really nice and had no problem with us doing that, parking now on the other hand was a little challenging. they have an underground garage, it holds about 10 cars. and its very tight , i mean really tight, so if you have a big car or truck forget about it. they do have a few spots above ground, in the alley behind the hotel. umm not really sure i would park there, as we saw lots of people walking around back there drinking stuff from brown bags,So this is a no frills hotel, they do offer breakfast in the am. they have a outside courtyard seating area, rooms are super small, but they have a fridge and microwave. no hairdryer. but we stayed on the 2nd floor, and for this being in a busy location, we did have  a quiet night. its good for a 1 night quick stay, and then move on. And it was a bit pricey, but i guess its because of the area its in, its alot cheaper than the other hotels. we paid  $142, totalMore</t>
   </si>
   <si>
+    <t>Greg Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r344831855-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -526,6 +580,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>milquetoast599</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r337547454-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -553,6 +610,9 @@
     <t>Chose this place for proximity to LA County Museum of Art.The place is old, and the room was tiny, but the bed was comfy. Neighborhood a bit dodgy. Oh well, in LA where RE costs a million dollars a square foot, that's to be expected. Price was certainly cheap enough. Not luxury by any means, but if you just need a place to sleep, it's fine.The parking is underground. Entrance is a narrow, steep ramp. Lots of scrapes visible on the walls.  Would hate to try it in a Suburban.But considering the location, the price was right.More</t>
   </si>
   <si>
+    <t>MathduckAlberta</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r331814730-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -577,6 +637,9 @@
     <t>We had Price is Right tickets. I looked for an economic place that was close with free parking and complimentary breakfast as we drove in from Phoenix. As our show was taped on Monday we drove in around 2:30 to miss the 5:00 traffic (2 hours on the freeway).The hotel is in an older section of LA this means the hallways are narrow and the rooms are small. It was a tight fit for the basement parking.The staff are friendly and the continental breakfast had waffled pancakes.At night, my wife unhooked the noisy refrigerator so she could sleep.We walked to The Grove, a trendy shopping center and Farmer's Market Plaza.More</t>
   </si>
   <si>
+    <t>sdavy49</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r324718344-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -601,6 +664,9 @@
     <t>I booked a one nights stay at this Hotel in October for my sister-in-law who was visiting a brother in nearby Cedar Sinai Hospital.  She traveled two hours and I chose this hotel because it was close to the hospital.  When she entered her assigned room she found a yellow stain on the comforter, trash that was not emptied, and a stain on the floor.  She took photos of these unacceptable conditions and sent them to me. I contacted the General Manager complaining of these conditions with PHOTOS asking for a full refund.  She declined to contact me.  Evidently this is must be a common problem.  Plus, I paid $153 for the one night.   So please STAY AWAY for your own good. I would give it NO STARS if I couldMore</t>
   </si>
   <si>
+    <t>Josie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r316197043-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -625,6 +691,9 @@
     <t>Even though this Inn is a 2 star hotel, they try very hard to make things safe and comfortable for the guests. Special thanks to Rosario at the front desk who is a very kind and helpful lady. She made our stay much more comfortable even though a member of our travelling party was rude and overly demanding. Rosario, you are the BEST!More</t>
   </si>
   <si>
+    <t>Sonia D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r310280935-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -649,6 +718,9 @@
     <t>The location for this hotel is excellent. Directly across from CBS Studios, close to The Grove shopping center, Farmers market.  Although is an old looking property it is well maintained. Rooms and bathrooms are very clean. The staff is very helpful. Breakfast is served until 10:00 AM although not too many choices you have the basics, juice, cereal, breads, bagels, pastries and you can make your own waffles.More</t>
   </si>
   <si>
+    <t>Gillian D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r296006753-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -673,6 +745,9 @@
     <t>My boyfriend and I wanted a reasonably priced motel in LA for 2 nights, and this was perfect! Great location, clean, friendly staff, yummy light breakfast, close to The Grove which had awesome shopping and restaurants! And ladies there's a hair dryer...but unfortunately no iron! But I'm sure you could ask for one if desperate. Bed was a bit hard but still slept like a baby. Would definitely stay here again if ever back in LA! More</t>
   </si>
   <si>
+    <t>LisaDefazio</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r287523439-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -700,6 +775,9 @@
     <t>Well located - some traffic noise, AC worked well and the room was well appointed for a budget brand with fridge and microwave, plunger coffee and breakfast included which you can eat in the courtyard. Basement parking and a lift which was better than street level I found. Great cafe larder a short walk away on the left on the opposite side of the street if you want a better breakfast although there were waffles in the breakfast and pastries - nothing fancy but ok!More</t>
   </si>
   <si>
+    <t>laura f</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r280466859-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -724,6 +802,9 @@
     <t>we stayed only one night but had a good time. the room was comfortable and clean and everything was functional in it.the staff was nice and very helpful! they let us check in early because of our long travels behind us which was highly appreciated.More</t>
   </si>
   <si>
+    <t>jontomsam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r274869340-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -748,6 +829,9 @@
     <t>Arrived after midnight into a centrally located ( meaning very populated ) area. Sketchy guests arriving into the early hours. Sirens all night long. Yes, it was updated , by means of a coat of paint. Budget friendly , you get what you pay for. Giving it five stars because they refunded my money for the rest of my stay. I stayed for 7 hours. Didn't sleep. You get what you pay for.More</t>
   </si>
   <si>
+    <t>Stephc09</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r267417009-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -775,6 +859,9 @@
     <t>Overall the rooms were decent and the location was good. The only part was the narrow driveway pulling in and getting out. My friend attempted to dive out and damaged her car due to how narrow the space was. We also attempted to pull out and the corner of the wall scratched our side door and dented it. There was no space to properly back out . I suggest the manager widen the driveway or at least draw some lines to help other judge the turn because I'm sure plenty of other vehicles have gotten damaged.More</t>
   </si>
   <si>
+    <t>SeaWinds2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r260919474-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -799,6 +886,9 @@
     <t>Booked the hotels for 2 nights the room was a queen size. It was well furnished, nicely painted. The bed was comfortable. The location was excellent right next to theFarmes Markets. Staff polite and friendly. Would recommend too there's and would stay there again.More</t>
   </si>
   <si>
+    <t>Jawon K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r250270688-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -826,6 +916,9 @@
     <t>The room is very clean, there is free parking  and the lady at the front desk was very attentive. We check in around 7:30 PM. We asks her is she knew of any good restaurant  in the area and she politely give us several options. she was very friendly and also she inform us about the continental breakfast in the morning.More</t>
   </si>
   <si>
+    <t>ryanmacluso</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r245780482-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -850,6 +943,9 @@
     <t>Being walking distance to the Grove, farmers market, and park is great. Pretty close to the tar pits, too. The room was reasonably up to date and I was surprised to have a little refrigerator and microwave. They had a crib for my one year old already in the room as requested, too. Drawbacks were road noise as they left the front door open a lot of the time, a lot of guests smoke on the patios and outside the door that is open, and the sink was in the bedroom area instead of in the bathroom. Still worth it for the price and location. More</t>
   </si>
   <si>
+    <t>Jessi B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r239737712-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -877,6 +973,9 @@
     <t>Got in before check in was able to leave bags until. Very central to farmers market/hollywood/sunset strip etc. Great resteraunts and steak houses nearby. Decent continental breaky and cook your own waffles which was great. Only negative was the aircon was a little noisy but not near enough to interrupt sleep. Will definitely stay here again when we return next year. Ps wifi worked well the whole timeMore</t>
   </si>
   <si>
+    <t>ih8usrnames</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r233768509-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -901,6 +1000,9 @@
     <t>We selected this hotel because it was a 5 minute walk to CBS Studios &amp; the Grove. Our room was clean &amp; bright. Comfortable bed Very quietFree underground parking was a real plus (although it can only accommodate smaller vehicles).Air conditioner got a workout because it was over 90 degrees each day.There was a fridge &amp; mirowave which is nice to have. The staff was very nice. The courtyard is a nice place to sit and enjoy breakfast. Safe neighborhood so we were able to walk to the Grove in the evening and enjoy the beautiful weather.Whole Foods within walking distance is a huge plus!It is not a luxury hotel but very nice for what we needed.More</t>
   </si>
   <si>
+    <t>blacey1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r224074716-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -928,6 +1030,9 @@
     <t>I came to Beverly Hills for about a month.  This is a relatively inexpensive place to stay in the area.  It's a no-frills kind of place, but it's more than adequate.  It's in a safe neighborhood, and it's conveniently located across the street from the CBS Television Studios.  It's less than a 10 minute drive to the Sunset Strip, central Hollywood, and Cedars-Sinai Hospital.  It's not a bad place to stay if you're on a budget.More</t>
   </si>
   <si>
+    <t>jgonzalezglez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r223239068-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -946,6 +1051,9 @@
     <t>I booked 2 nights at this hotel, due to the aspect and lack of maintainance, I cancelled the second night. Bad smell, cigarette smell all over the hallways, smell in the room, the door had the paint falling apart, rooms near to main avenue, so, lot of noise at night, every sec. was worse. Only because they dont let me cancel my first night I decided to sleep there.Way to expensive, 200dlls x night. I've been in cheaper rooms at Texas @ La Quinta or Days Inn, and were about 60 dlls, and way much better rooms.Good thing: near Hollywood, farmers market, and CBS studios (right across the street). But believe me, I preferred to go back to Anaheim (courtyard marriot, double bed room at 110dlls x night), and travel every day, than stay one more night.More</t>
   </si>
   <si>
+    <t>Evan M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r218583925-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -973,6 +1081,9 @@
     <t>The room is a tiny but the location is great. It is about 5 minutes from The Grove Mall and the farmer's market, Beverley Hills and the good touristy part of Hollywood with the walk of fame and all of that stuff. The whole place is small but is a great stop off point if you can get over the size of the room and the dirty carpet in the halls. Breakfast is fine and it is good value for money.More</t>
   </si>
   <si>
+    <t>Richard C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r212346399-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1000,6 +1111,9 @@
     <t>This is the least expensive alternative to the high end Hotels/Motels near Cedars Sinai Medical Center. It is very basic, but offers very comfortable beds and quiet rooms.  Parking is next to impossible in the underground parking area unless you are driving a Volkswagen Bug or a Mini-Cooper. There is limited parking behind the hotel.  The area is very old and somewhat scary at night, but you feel safe and comfortable when you get inside. Staff personnel are very kind and courteous.More</t>
   </si>
   <si>
+    <t>Chicago0123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r211876480-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1024,6 +1138,9 @@
     <t>This Roadway Inn is within walking distance of The Grove, and The Farmers Market. The hotel is no frills, but is very clean and was very quiet at night. I would stay here again, it was a great location and is two minutes from my son's apartment. There is a mini fridge and a microwave in the rooms. They also offer a continental breakfast.More</t>
   </si>
   <si>
+    <t>Bear C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r209364164-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1048,6 +1165,9 @@
     <t>Not exactly the Ritz, but okay. Rooms are clean and been updated fairly recently. The common areas need some attention though. There were a few things with the room that weren't top notch but for a two star hotel, I expect to find a little less. If they paid a little more attention to slight wall and paint damage and fix up and clean up the exterior common areas, they could probably add a star or two to their rating. Morning breakfast was ok. There is free parking, but is sparse. More</t>
   </si>
   <si>
+    <t>Rosie D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r201981931-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1073,6 +1193,9 @@
   </si>
   <si>
     <t>I was staying here from Australia so as you can imagine it's a very long flight 14 hours to be exact! I arrived at the hotel they gave me my room key only to shortly find out that my room was not ready yet. The cleaning lady was not very nice to me and told me that I should have asked to see if my room was ready yet. I had thought that was the responsibility of the hotel. Also I had ordered a non-smoking room but I was convinced that it was actually a smoking room because it smelled rather stale. Then I find out the phone isn't working properly and the in room menus out of date. Not only that but there was no guest information folder that you usually see in most hotels. I only ended up staying one night do not stay here!More</t>
+  </si>
+  <si>
+    <t>morris_minor_travel</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r200990524-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
@@ -1100,6 +1223,9 @@
 The corridor to the room was dire – an absolutely filthy carpet, paint peeling, the doors scratched and damaged. It looked like there had been a serious gunfight at an earthmovers’ convention. The public area contained a few plastic tables in a yard at the back of the building. While in...It is basically a good hotel though appears to be badly run. First, the pros: our room occupying a corner position, was pleasant – recently decorated and well lit. The shower was strong and the water hot, the beds clean and comfortable. The air con worked, the internet was free and a good signal; parking was also free – a big plus in a very expensive part of Los Angeles, although the garage was a tight squeeze for our car. All in all a good night’s sleep. However, don’t venture into the public areas. We walked from the underground cark park into a corridor of locked doors, and from one issued a series of incoherent shouts. Eventually we caught the elevator - after a long wait - and in reception the woman behind the desk was yelling into the phone. We stood there unnoticed, and I had time to pick up the paper and read the front page before the woman seemed to notice us. Okay, she may have been fixing a problem, connected or not with the shouting downstairs, so I’ll give her the benefit of the doubt. The corridor to the room was dire – an absolutely filthy carpet, paint peeling, the doors scratched and damaged. It looked like there had been a serious gunfight at an earthmovers’ convention. The public area contained a few plastic tables in a yard at the back of the building. While in reception we’d noticed an old juice dispenser and a serving dish on a shelf. We decided then and there to forgo the breakfast. At that point we nearly left and cut our losses although we’d paid over $150 for the room. Luckily the room was good enough to continue our stay. Owners, if you read this, be assured you have a good hotel in a great position near the Farmers’ Market, but for goodness sake try to look after it. Your charges are somewhat higher than the doss-house; as your customer service should be.More</t>
   </si>
   <si>
+    <t>C S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r198710335-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1118,6 +1244,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Liz C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r190632331-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1139,6 +1268,9 @@
     <t>This hotel isn't in B.Hills.It's near to CBS,Microwave &amp; Fridge,our room was renovated and very small,the hallway still dirty. . Can hear noisy running water when others turn on their taps for shower . Walls are thin so can hear people talking and opening or closing doors.A few underground parking for SMALL cars.I would rate the security at the hotel as non existent. They keep the exterior doors wide open most of the time.  Anyone could walk into the hotel at anytime, unnoticed.I saw junkies hanging out at lobby.Sorry not my type of place to stay with my kids.Girl in the lobby was  really helpful,one of the two girls who work on this location.Salvadorian Girl.More</t>
   </si>
   <si>
+    <t>Roberto P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r190542901-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1157,6 +1289,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>fatam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r190381411-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1172,6 +1307,9 @@
     <t>All in all the stay we had was OK. The hotel is old and doesn't feel looked after. Room was small and bathroom not very nice. We put our car in the garage the first day but it was so hard not to scratch it we didn't bother a second time (we parked on road nearby). Breakfast is very basic - coffee, toast, bagels, stop, served in reception and can only be eaten on tables outside.I think it was overpriced and I wouldn't go back.</t>
   </si>
   <si>
+    <t>BridgetSmith4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r184488138-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1193,6 +1331,9 @@
     <t>I give this hotel only 4 stars because of the underground garage and the size of the room. I was actually impressed by the room itself. From the outside as I was driving up it didn't look that nice. I drove into the underground parking garage which is way too small to be considered a parking garage. I went inside to the lobby to check-in but the door was locked and there was no one at the window. I waited about 10 minutes and still no one showed up. It would've been nice to have a bell or something at the window to alert them when a customer is there waiting. We left and decided to drive around for something to eat and come back later. Trying to get out of the parking garage was scary. I own a nissan altima and if you have a car or truck bigger than that don't even think about parking in the garage because you may not come out without some scrapes. I was lucky but decided to park in the back when I returned which wasn't much better because there's a sign that says parking was only for the customers of the building next door. As for the room itself, I was more than satisfied. I will admit that I did look for stuff to write and complain about and I couldn't find anything. The room was tiny but my son and...I give this hotel only 4 stars because of the underground garage and the size of the room. I was actually impressed by the room itself. From the outside as I was driving up it didn't look that nice. I drove into the underground parking garage which is way too small to be considered a parking garage. I went inside to the lobby to check-in but the door was locked and there was no one at the window. I waited about 10 minutes and still no one showed up. It would've been nice to have a bell or something at the window to alert them when a customer is there waiting. We left and decided to drive around for something to eat and come back later. Trying to get out of the parking garage was scary. I own a nissan altima and if you have a car or truck bigger than that don't even think about parking in the garage because you may not come out without some scrapes. I was lucky but decided to park in the back when I returned which wasn't much better because there's a sign that says parking was only for the customers of the building next door. As for the room itself, I was more than satisfied. I will admit that I did look for stuff to write and complain about and I couldn't find anything. The room was tiny but my son and I enjoyed the cable on the flat screen tv and the free wi-fi. The covers and pillows were all clean and so was the bathroom. The room also had a microwave and refrigerator which came in handy. We stayed two nights. We were able to walk over to the park across the street for the Run For Her Ovarian cancer walk event on Sunday. It only took about 10 minutes which included waiting at the crosswalk. We didn't get up in time for the breakfast so I can't comment on that. The walls are thin but what do you expect from a hotel right next to a busy road like Beverly Blvd. We had a room facing the alley. The a/c was loud too but I didn't mind because the sound drowned out the outside noise and helped put me to sleep. The a/c worked well in fact a little too well because when we returned later that night the room was freezing. I would suggest they get bigger towels and more than one wash cloth per person. Yes I would recommend this hotel and I will definitely stay here again if I need to. It's across the street from Pan Pacific park and CBS studios. The Grove is in walking distance and the Beverly Center is about 1 1/2 miles down the street also.More</t>
   </si>
   <si>
+    <t>badweather</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r180869871-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1214,6 +1355,9 @@
     <t>We booked this motel for it's proximity to the CBS studios.  It's not fancy at all and quite dated but it served our purpose for a short stay.  The room we had was on the 2nd floor and it was small.  Odd layout - sink/mirror/counter not in washroom but in the main room.  Whatever...it had a flat screen tv, complimentary wifi, fridge and microwave.  Had a courtyard area with tables on ground level and one balcony on the second level which we enjoyed nightly.Our room view was the gas station and CBS studio.  It's not the area for views to begin with so didn't expect them.This motel did offer limited breakfast items - the only fruit was oranges, oatmeal, limited bagels, bread, a waffle maker, coffee and tea. Vending machine for pop/snacks. Water cooler in lobby.Walking distance to The Farmer's Market - lots of really great places to eat, grocery and transit.Air conditioning is loud but works.Walls are thin - heard things we didn't want to!!The front desk staff was very friendly and helpful.The property seems to be trying to keep up with repairs and updating.More</t>
   </si>
   <si>
+    <t>Fran A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r167208165-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1232,6 +1376,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>MrMouser</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r163367392-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1253,6 +1400,9 @@
     <t>I stayed here 2 nights and I got great rates of under $100 by just asking and talking to the manager. The two ladies at the front desk that I dealt with were both very nice. The first night I got a smoking room which was large but, smelled like stale smoke the second night was a smaller non smoking room. They were both clean and had everything I needed. There was an added bonus that helped out with the price was the free breakfast bar. It was small but, my daughter and I filled up and ate outside in the courtyard right next to the water fountain.You can't beat the location right across from CBS studios and The Grove/Farmers Market. So for a few nights stay this place is a great no frills place to stay. I would recommend it for business trips. Not a great family place but, I only have a baby and circumstances did not allow me to stay at an expensive hotel. It was nice friendly and clean. Can't say enough good stuff about the front desk ladies they were wonderful and very sympathetic to my circumstance.More</t>
   </si>
   <si>
+    <t>Lesley C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r161892592-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1274,6 +1424,9 @@
     <t>Wasn't quite sure what I would find at this hotel - as it has some ok to good reviews and some terrible reviews - But I always throw out the top reviews and bottom ones - and give the rest a modicum of truth.  This is a smaller establishment located on Beverly right across the street from CBS studios.  The neighborhood looks like what you would expect to find in the midle of most larger cities... not posh but not skid row.  The staff was friendly and helpful every time we interacted.  We asked for a room with 2 queens to accomodate three adults - and got what we asked for - the room was actually split into 2 separate bed rooms and 1 bath.  One room was a bit smaller but both had good working air conditioners that really worked well - Beds and pillows were clean and comfortable.  Both rooms had a nice flat screen tvs with cable. You could see the hotel was doing some upgrade work as they had workers doing carpet laying during the day.  They provided a nice basic breakfast with do it yourself waffles, various breads and bagels, hot cereal, a couple cold cereals, milk, orange juice, coffee, and tea, and fruit.  Was plentiful - and they had a nice interior courtyard / patio area to sit and eat at.  We did not find the area to appear dangerous - they had parking...Wasn't quite sure what I would find at this hotel - as it has some ok to good reviews and some terrible reviews - But I always throw out the top reviews and bottom ones - and give the rest a modicum of truth.  This is a smaller establishment located on Beverly right across the street from CBS studios.  The neighborhood looks like what you would expect to find in the midle of most larger cities... not posh but not skid row.  The staff was friendly and helpful every time we interacted.  We asked for a room with 2 queens to accomodate three adults - and got what we asked for - the room was actually split into 2 separate bed rooms and 1 bath.  One room was a bit smaller but both had good working air conditioners that really worked well - Beds and pillows were clean and comfortable.  Both rooms had a nice flat screen tvs with cable. You could see the hotel was doing some upgrade work as they had workers doing carpet laying during the day.  They provided a nice basic breakfast with do it yourself waffles, various breads and bagels, hot cereal, a couple cold cereals, milk, orange juice, coffee, and tea, and fruit.  Was plentiful - and they had a nice interior courtyard / patio area to sit and eat at.  We did not find the area to appear dangerous - they had parking below ground which looked to be a bit tight - but they also had parking behind the hotel off street - all areas were well lit and we noticed they had cameras on all areas of the outside areas being observed by the office staff.  Therefore we felt pretty safe, We walked to the Grove - took about 15min at an easy pace...again - didn't feel threatened in any way. We were not bothered by street sounds and we were near the corner of the hotel on Beverly.  Not to say you didn't hear some sounds - but this is expected in a smaller establishment where there aren't 100 rooms between you and the street.  They gave free Wifi - with a terrific strong signal!  It worked both in the room AND on the patio.  They had plenty of soaps and shampoos provided - bath towels were a bit on the smaller side - but adequite to bath and dry off with.  Room had both a refrigerator AND a Microwave - those came in very handy! Would definitely stay again as provided everything we needed in an area where we wanted to be - for a very reasonable price.More</t>
   </si>
   <si>
+    <t>Wang Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r161549298-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1289,6 +1442,9 @@
     <t>Despite hearing the bad review, bed bug and stuff. We still decided to give it a try as it is just a 15mins walk to The grove and Farmer's Market!The room was small, as expected. But everything else was good, the desk staff offered to book a taxi for us and it came in like 5mins! They gave us a late check out at 12pm upon request!Breakfast was simple yet nice, we get to make our own waffles with is very fun! Overall, worth for money.</t>
   </si>
   <si>
+    <t>southam97</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r153141479-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1310,6 +1466,9 @@
     <t>not fancy, no busness center or gym...but also no pretense.. the location, cleanilness and safety was perfect for a girlfriend weekend in Los Angeles.  looking for a place to base ourselves for several days, not looking for luxury but a good night's sleep, we chose this place.  Located across from CBS Studio City, walking distance to The Grove and the LA Farmers Market,  there is a bus route to downtown right in front.  and it was oh-so-conveneint to a range of restaurants, a wonderful natural-foods market, coffee shops, and NAIL SPAS!!!!!  though the rooms are small, this older hotel was very clean, the beds comfortable ( and i have sleep issues!), everything was spotless and in working order.   the bathrooms all have bathtubs.the breakfast was a step up from than the bottom-tier packaged danish- it included fresh bagels with cream cheese, juices and waffles, as well as apples and oranges in the lobby all day.  Don't count on the front desk, however, for any help getting around the city or discovering what to do.  They were pleasant  but usually language was a barrier and they were not well-informed about the city.  As a very independent and confiident traveler, however, this was nveer an issue for us.More</t>
   </si>
   <si>
+    <t>Aaron S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r152529742-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1328,6 +1487,9 @@
     <t>Chose this hotel because it was right across the street from The Price Is Right studios, and the price was good.  Front lobby and most of the hallways were under major construction, which I suppose in not avoidable, but still makes for a slight annoyance when there is banging going on all afternoon and evening while I was trying to work.Room itself was small but clean, no bed bugs, and in a pretty nice location with restaurants, drug store and some nice shops nearby.  Wi-Fi was strong and worked as advertised.No shuttle bus from airport so required a $50 taxi ride each way unless you want to take public transportation.Overall no regrets.More</t>
   </si>
   <si>
+    <t>DavidAL04</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r149030733-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1346,6 +1508,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>Elik972</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r144072399-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1364,6 +1529,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>Wahedah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r143827576-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1379,6 +1547,9 @@
     <t>I've never seen a tinier room! We got the room on the second floor facing the gas station. The interior looked very old. Drawers can't close properly and kept sliding open. There's no wardrobe to hang your clothes. Breakfast is simple with toasts, waffles, cereals, bagels. Parking is free but lots are limited. About 10 minutes walk to The Grove. Can't complain abt the location. Given a choice, I'd stay elsewhere.</t>
   </si>
   <si>
+    <t>GlynH-J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r139739791-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1394,6 +1565,9 @@
     <t>This was a convenient hotel for an overnight stay in LA, but given the temperature outside and the inefficient air conditioning it wasn't the most comfortable night's sleep.The staff were all friendly, the hotel was clean and having underground car parking was reassuring, although anything larger than our Mazda 3 would end up in danger of stripped paintwork coming out of the car park.I would recommend this as a value for money overnight stay closed to Beverly Hills but would look for something different if I was to stay for longer.</t>
   </si>
   <si>
+    <t>Nicole M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r138931612-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1412,6 +1586,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>Oldspice1947</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r135487270-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1430,6 +1607,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>Jenna P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r133410772-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1448,6 +1628,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>Ottavian</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r129725379-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1469,6 +1652,9 @@
     <t>We stayed one night in this hotel in April 2012.  This is a basic motel located in a very convenient location in Los Angeles. It delivers three basic things: bed, shower and no bed bugs. In addition, you have a coffee maker, a fridge, and a TV with decent programming. The rooms are small, but if you were in a Paris hotel, nothing can surprise you. This is a very densely populated area of LA, so what do you expect. The breakfast was decent, typical for Choice hotels. Efficient and friendly reception.Underground garage: don’t even think about getting there with a car bigger than compact. I missed the big sign at the front of the garage and went down with Hyundai Sonata. Made it without a scratch, but getting back was a challenge. Luckily the parking was almost empty when I was leaving, otherwise it would be a sure car disaster. In summary, if you are on a budget and do not look for luxuries, this is a hotel for you. You should not be disappointed.More</t>
   </si>
   <si>
+    <t>Jlmajestic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r128414042-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1487,6 +1673,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>Mike S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r127470539-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1508,6 +1697,9 @@
     <t>Stayed a total of 7 nights out of 13 we stayed on our trip to southern Calif.  We booked thru Expedia.com. and choose this 1 due to its close location to CBS.  We had tickets to The Price Is Right.  Parking was free but almost impossible to get in and out, especially if you had to park in the basement.  We had a small car and still had to strain.Housekeeping took our dirty wash cloths and didn't replace them with clean ones twice.  Had to go to the front desk to get clean ones to shower the 1st time.  The second time I refused to go and insisted that someone bring them up, waited nearly a half hour to get them.  The front desk said they were too busy and couldn't leave.  I had to threaten to contest the charge on the credit card to finally get someone to bring me a wash cloth so I could bathe.The room was VERY small.Also found a long dark hair that was hanging out of the corner of the shower.  I left it there to see how many visits from the housekeeper before it was cleaned. It took 2 visits before it was cleaned.  My friend and I have very short hair, so it definately wasn't ours.The Location is what keeps this place in business.  I would NOT stay there again.More</t>
   </si>
   <si>
+    <t>teddy s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r125881344-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1523,6 +1715,9 @@
     <t>Very good location near the grove and farmers market.very good service.very good breafast.free garage parking.small room but very clean.i׳ll be back there again.</t>
   </si>
   <si>
+    <t>MrsmacAus</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r125010806-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1541,6 +1736,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>Bryan H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r123047468-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1556,6 +1754,9 @@
     <t>Rooms were nice and clean. The location is excellent if you like to do the whole tourism scene. Close to The Grove and Farmers Market. Right across the street from CBS Studios. Minutes away from the Beverly Center and other shopping. Several nice restaurants within walking distance. Nice continental breakfast (Coffee, Cereal, Danishes, Mini muffins, toast, juices). Staff was very friendly and the price was very reasonable for the area. Would definitely stay again and recommend to friends and family.</t>
   </si>
   <si>
+    <t>Anna W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r120921178-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1574,6 +1775,9 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>BlueBeamette</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r120671561-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1592,6 +1796,9 @@
     <t>The room was tiny, we paid for a queen bed, (they don't have King size beds), but it was a double, the bathtub stopper didn't work, the tv had fuzzy reception, there wasn't any closet, just hooks on the wall.  And finally, we said we could not stay there unless we could park somewhere, as street parking is not allowed for long periods and had meters... there was a risk of being towed.  The steep driveway to the underground garage had signs saying it was for compact vehicles only.  The desk person said we could have her space in the rear alley at 11pm when her shift ended.  She called us to say she was leaving at 10:58pm.. we went down at 11:05 and someone had taken the place... we complained, but were told there wasn't anything they could do.  We parked on the street and had to move the car twice... and still ended up hauling luggage etc down the street to our car. Oh yeah -the floor creaked at every step.  and although we received a call from the front desk, when we tried to call them back the phone would not work!More</t>
   </si>
   <si>
+    <t>Marie K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r117413701-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1610,6 +1817,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>Edward L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r116904216-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1623,6 +1833,9 @@
   </si>
   <si>
     <t>Was very disappointed with our stay . On the second I saw a dead cockroach on the hallway  and a few days later my wife notice her Granola Bars were eaten . Lots of Mice %#^%@ left behind . There's was a few droppings under the Coffee pot too .</t>
+  </si>
+  <si>
+    <t>msperop</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r114937585-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
@@ -1660,6 +1873,9 @@
 I was in LA for...I came by and checked out room before i booked since I was already in LA and wanted to move to a different location.  I was surprised since some of the reviews are bad.  We booked a two bed room which ended up having a small bedroom inside so it was two rooms, two tvs, two dressers, two ac units....very roomy!  We had one bathroom, one fridge, and one microwave and free wifi in the room.  Also, a free daily basic breakfast (bagels, toast, cereal, oatmeal, mini-chocolate muffins, and pre-packaged danishes.  Also, coffee, milk, oj, and apple juice.)  It was  a great basic room, that was clean, and no bedbugs.  I always check beds first.  They had the mattress covers to prevent bedbugs.  I was surprised to read someone's review of the area as interesting....this was a great neighborhood to stay in...there was a park a block away, the farmer's market/the grove about two blocks away and the beverly center shopping about a ten minute walk.  This is  a pretty nice area if you are trying to book with a budget.  Now, it's not accessible to the metro rail so if you are using public transportation, plan on walking or getting a metro pass. I would definitely stay again! Stairwell was not creepy...I was a single woman with a teenage son.  My husband stayed home and we did not have any safety concerns at all.   I was in LA for a total of three weeks and only came here the last week and I wish I had stayed here all three weeks.More</t>
   </si>
   <si>
+    <t>jene2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r114878788-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1678,6 +1894,9 @@
     <t>We had one night stay, it was really nice, the location was great, room was very clean, they had a little continental breakfast which is nice, and the staff was nice and helpful at least we could tell they tried their best to help us with anything.More</t>
   </si>
   <si>
+    <t>sfvoyager415</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r105205876-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1699,6 +1918,9 @@
     <t>After being checked in by a surly clerk, we went to our tiny room and found that instead of the queen size bed we had booked, we had a full size.  It was late, so we decided to put up with it for the first night.  Next morning, the clerk at the front desk acknowledged we had a full size bed in our room, but said "that's what we call a queen size" so she didn't feel any need to change our room despite showing her the confirmation that stated "Queen size bed".  She finally offered to upgrade us to a room with 2 beds...but for an additional cost equal to half of what we had paid! If she's correct and they book full sized beds as "queen size", that's just deceptive.  If not, then they certainly should have moved us or refunded at least some of what we had paid.On top of this -- tiny room; only room for one bedside table with our full size bed, otherwise the door wouldn't open.  The parking is pretty bad, as other reviewers have noted; there is also not enough for all the rooms and we were told to park on the street when there was no parking left.  Finally, the advertised free wireless internet didn't reach our room, and apparently not to several others in the rear of the motel based on conversations with other guests.More</t>
   </si>
   <si>
+    <t>4tomorrow</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r103427605-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1717,6 +1939,9 @@
     <t>March 2011</t>
   </si>
   <si>
+    <t>On_Holiday_154</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r101873540-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1732,6 +1957,9 @@
     <t>I stayed here for a weekend in March '11. The rooms were super clean and mine was a decent size. Pluses? Clean, convenient to downtown, good wireless (free), and inexpensive. Minuses? Creepy stairwell and elevator, "interesting" neighborhood, bad coffee, nothin' breakfast. Worth it for the price, but next time I need to be in downtown LA, I'm going to spend the extra $$.</t>
   </si>
   <si>
+    <t>fweeb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r96808808-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1748,6 +1976,9 @@
   </si>
   <si>
     <t>February 2011</t>
+  </si>
+  <si>
+    <t>JohninTX</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r96668278-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
@@ -1770,6 +2001,9 @@
 Speaking of price, the motel is cheap... and unfortunately, you get what you paid for.  The room was extremely small, by far the smallest hotel/motel room I have ever seen.  The heater/air unit was literally about 2 feet from the bed.  The air would have blown directly into our faces the whole night if we hadn't covered the unit up with pillows.  The bathroom fan rattled.   The dresser drawers didn't shut properly.  The ceiling light had florescent bulbs, which only "highlighted" just how depressing the whole room was.   The subterranean parking is only for compact vehicles, and that is no exaggeration.  There were numerous scrape marks on the parking ramp walls from past unlucky drivers.  If you have anything bigger than a Honda Civic, I wouldn't chance it.  To get to the elevator from the parking garage, guests must navigate a very dingy basement with unmarked rooms that are probably being used for the workers.    I would recommend this only to people who need to get to sleep immediately and then get out of there as quickly as possible.   FYI, the Beverly Inn Motel, also on the block and about the same price, looked even worse....The plus side of this motel is the location - a very safe, pleasant neighborhood near the trendy "Grove" shopping center and directly across the street from CBS Television City where "American Idol," "Dancing With the Stars, and "The Price is Right" are taped.Speaking of price, the motel is cheap... and unfortunately, you get what you paid for.  The room was extremely small, by far the smallest hotel/motel room I have ever seen.  The heater/air unit was literally about 2 feet from the bed.  The air would have blown directly into our faces the whole night if we hadn't covered the unit up with pillows.  The bathroom fan rattled.   The dresser drawers didn't shut properly.  The ceiling light had florescent bulbs, which only "highlighted" just how depressing the whole room was.   The subterranean parking is only for compact vehicles, and that is no exaggeration.  There were numerous scrape marks on the parking ramp walls from past unlucky drivers.  If you have anything bigger than a Honda Civic, I wouldn't chance it.  To get to the elevator from the parking garage, guests must navigate a very dingy basement with unmarked rooms that are probably being used for the workers.    I would recommend this only to people who need to get to sleep immediately and then get out of there as quickly as possible.   FYI, the Beverly Inn Motel, also on the block and about the same price, looked even worse.  If location isn't your first priority but pricing is, I'd recommend a Motel 6.More</t>
   </si>
   <si>
+    <t>Jimmsocal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r95247816-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1785,6 +2019,9 @@
     <t>Rooms are small but very clean.  Free covered parking.  Half the price of other hotels inn the area.</t>
   </si>
   <si>
+    <t>ibjarry</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r61134328-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1806,6 +2043,9 @@
     <t>Let me start by saying, this place sucks. I never write reviews but I had to on this one. We stayed here because we felt it was close to attractions but so are other places. It seems that they turned some rooms into apartments on the basement floor for the poor. Front desk dude is very unhelpful, loves to talk on his cell and play computer games while your waiting for help. No smoking rooms smell like ashtrays and the size of their rooms are too small. The queen bed takes up 80% of the room so you might want to ask for the double bed for more space...or just don't stay here. I have to finish this with one positive thing, they do provide an iron, but no board. Have fun ironing on the bed!!! OMG enjoy getting in and out the parking garage. I called to complain so I didn't have to write this but some chick from over seas had no idea what I was saying. I'm sure she can read this. Hope this helps ya'll!!!!More</t>
   </si>
   <si>
+    <t>Weshy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r21146061-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1824,6 +2064,9 @@
     <t>October 2008</t>
   </si>
   <si>
+    <t>porcheezi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r20744385-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1842,6 +2085,9 @@
     <t>When we arrived at the hotel everything looked great.  The room with two beds had adequate space.  All was well, until I went to take a bath and found a small cockroach in the tub...YUCK!I laid in my bed pondering if I should bring this up to the staff that night or try my best to sleep and tell them in the morning.  Well, the decision on that one was made when I looked over next to the heater and there was a HUGE cockroach on the wall.  I freaked out of course, and went over and smashed it (literally to pieces).I then went down to the front desk to tell them what had happened and they told me that they were surprised because they have never had a problem with roaches in the past. (Not true if you read through some of the other reviews)Also, they said that they couldn't do anything about getting me another room unless they could come into my room and take a picture of it.  How ridiculous!  And in the end they didn't reaccommodate us because they didn't have anymore rooms.  The location was excellent because we went to the price is right the next morning, and is worth it if you want to save money and don't mind some extra company....as for me, I will NEVER, EVER stay here again!More</t>
   </si>
   <si>
+    <t>Lissete</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r7489379-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1863,6 +2109,9 @@
     <t>and what it is, is a low budget motel a la Motel 6 .  We rented this room since we were arriving at 11PM from Miami &amp; immediately getting in line for The Price is Right.  We only needed the room for bathroom breaks, quick showers &amp; cat naps.  Upon arriving, check in was quick &amp; but not very personable.Rooms are VERY small.  Smaller than a 10x10 I'm sure.  But they are basically clean.  I didn't see any bugs at all.Walls are paper thin.  We heard not only conversations from other rooms, but showers &amp; snoring as well.‘Warm” breakfast is served in the tiny lobby.  I think they had single serve oatmeal pkgs, cereals, breads, pastries,  juice, coffee &amp; tea.  There may have been more, I didn’t really notice.For TPIR, it is very convenient and a cheaper alternative to the Farmer’s Daughter.  As mentioned before, parking is VERY tight.  You can see the paint marks on the wall from cars trying to get out.  This motel is not very appealing to look at.  To their benefit, they seem to be remodeling.More</t>
   </si>
   <si>
+    <t>DWJK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r7267468-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1878,6 +2127,9 @@
     <t>Very convenient location. Clean, comfortable. Friendly staff.</t>
   </si>
   <si>
+    <t>Sharonae</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r5889221-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1899,6 +2151,9 @@
     <t>OK. It's our fault. We had to be in LA for one night, for one dread event, and didn't want to spend any money. So I [it's really my fault. . .] opted for the cheapest place. $65 or so for a hotel across from CBS on Fairfax.  Half of what anything decent charges. [If I had it to do over again, I'd have sprung for $200 to avoid re-living that night.] In my defense,  I looked at the hotel photos on the 'net and booked a room based on faith that the photos had something to do with the hotel. The whole place was tiny, cramped, claustrophobic, ill-kept and with staff who obviously wished they were somewhere else. I felt sorry for them.Parking is also tiny and cramped, but is under the hotel and free.The room is a couple of feet larger than a queen bed. The window opens to an alley and a building next door.My husband woke me with a nightmare he was locked in a cell.I forget whether breakfast food was offered. We were in Malibu by sunrise.More</t>
   </si>
   <si>
+    <t>lazkity</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r5183897-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1917,6 +2172,9 @@
     <t>For the money, you can't do much better. It's in a good, central location. The front desk service was very pleasant. The room we were in was little, but clean, and we weren't in it much, anyway. The inn was quiet and has a nice courtyard. The only concerns I had were the parking situation and the back entry and front entry doors are left open and unlocked, though it looked like the rear door was locked at night. The parking garage is barely that--there is some parking in a small lot next door, but you risk getting blocked in by other cars &amp; the street parking situation is not too good, either.More</t>
   </si>
   <si>
+    <t>bigredapple</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r4477307-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1930,6 +2188,9 @@
   </si>
   <si>
     <t>this little hotel is not the fanciest place by any stretch but is perfect for location , is in a quiet neighbourhood , has very nice staff and is a half a block from the transit system to go any where you need to go.the CBS studio is across the street and behind that is the farmers market with shopping and great market style eatingyou can't go wrong for the price!!!</t>
+  </si>
+  <si>
+    <t>ryanw12376</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r4245019-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
@@ -2001,6 +2262,9 @@
 The front desk people were friendly and helpful.  I probably would not stay here again, only because of how small the rooms are but maybe there are larger ones available ????...For the price you pay, this hotel could recieve an "average" rating.  It is kept as clean as it can be, being that it appears to be an older building.Our room was SO TINY with a small double bed where the front door almost hits the side of the bed when you come in.  There is a desk chair, TV, and sink in the sleeping room.  Small bathroom with shower only.  It was clean and well-stocked.  We did not go to the free continental breakfast.The parking garage is a nightmare - small cars only!  Tight - tight - tight - ramp down to parking spaces.  If the garage is full, it is a real challenge to back out.  There appears to be some parking on the street, tho.The good part:  So close to CBS Studios and "The Price is Right".  Tip for getting on the show:  line up EARLY!  I'm talking 3am!  We lined up at 6am and did not get in (Feb 24).  Anyway, this hotel is also close to/easy walking distance to Farmer's Market (lotsa fun) and The Grove, which is an upscale shopping/restaurant area.  There is also a Subway and an Italian sandwich/pizza place (good food) a block or two down the street.The front desk people were friendly and helpful.  I probably would not stay here again, only because of how small the rooms are but maybe there are larger ones available ????  Good luck and have a great time in LA.Rick and Laurie, Renton WAMore</t>
   </si>
   <si>
+    <t>MovingtoCA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r3231602-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2047,6 +2311,9 @@
   </si>
   <si>
     <t>I stayed at this hotel in January 2004. This is the worst place I've ever stayed at in my life. The room was extremely cramped, no bigger than a jail cell. The TV didnt come with a remote. The towels were dingy. They have the audacity to tell you you arent allowed to have any visitors or you will be kicked out. The parking garage is cramped as well. I mean you could see where many cars had scraped the sides. I ended up parking on the street for the night. The employees speak with a thick Indian accent, you can barely understand them and are rude to boot. I don't know why this is called "GuestHouse- Beverly Hills". It is NOT in Beverly Hills. Its "down the road" from Beverly Hills. And that "stretch of road" makes ALL the difference! I would not recommend staying here at all. I dont care how cheap you can get it, avoid it at all cost. My reservation was originally for 3 nights, I stayed there for one and found a much better place in North Hollywood.More</t>
+  </si>
+  <si>
+    <t>glacierlady</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84529-r1398059-Rodeway_Inn_Los_Angeles-Los_Angeles_California.html</t>
@@ -2566,43 +2833,47 @@
       <c r="A2" t="n">
         <v>39378</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -2620,50 +2891,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>39378</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2681,50 +2956,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>39378</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -2744,41 +3023,45 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>39378</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
@@ -2797,50 +3080,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>39378</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -2858,50 +3145,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>39378</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
         <v>84</v>
       </c>
-      <c r="K7" t="s">
+      <c r="O7" t="s">
         <v>85</v>
-      </c>
-      <c r="L7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
-        <v>79</v>
-      </c>
-      <c r="O7" t="s">
-        <v>80</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -2921,50 +3212,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>39378</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2978,50 +3273,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>39378</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -3039,50 +3338,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>39378</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3102,50 +3405,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>39378</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="O11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3159,50 +3466,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>39378</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="O12" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -3222,50 +3533,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>39378</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="K13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="L13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="O13" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3279,50 +3594,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>39378</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="L14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="O14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3336,50 +3655,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>39378</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>148</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="J15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="K15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="O15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -3403,50 +3726,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>39378</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="O16" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3462,50 +3789,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>39378</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -3525,50 +3856,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>39378</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -3586,50 +3921,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>39378</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>177</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="O19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -3649,50 +3988,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>39378</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>184</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="J20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="K20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -3710,56 +4053,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="X20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="Y20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>39378</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>194</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="J21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="K21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3775,56 +4122,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="X21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="Y21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>39378</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>203</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="J22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="K22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="L22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="O22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3840,56 +4191,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="X22" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="Y22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>39378</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>212</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="J23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="K23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="O23" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3901,56 +4256,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="X23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="Y23" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>39378</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>221</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="J24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="K24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="O24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3968,56 +4327,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="X24" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="Y24" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>39378</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>230</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="J25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="K25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="L25" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4029,56 +4392,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="X25" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="Y25" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>39378</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>239</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="J26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="K26" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="L26" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -4096,56 +4463,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="X26" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="Y26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>39378</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>249</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="J27" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="K27" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="L27" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4157,47 +4528,51 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="X27" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="Y27" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>39378</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>258</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="J28" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="K28" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="L28" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
@@ -4214,56 +4589,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="X28" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="Y28" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>39378</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>267</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="J29" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="K29" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4275,56 +4654,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="X29" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="Y29" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>39378</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>277</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="J30" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="K30" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="L30" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -4342,56 +4725,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="X30" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="Y30" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>39378</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>286</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="J31" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="K31" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="L31" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4407,47 +4794,51 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="X31" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="Y31" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>39378</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>296</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="J32" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="K32" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="L32" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
@@ -4474,56 +4865,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="X32" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="Y32" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>39378</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>305</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="J33" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="K33" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="L33" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -4541,56 +4936,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="X33" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="Y33" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>39378</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>315</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="J34" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="K34" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="L34" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4608,56 +5007,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="X34" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="Y34" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>39378</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>324</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="J35" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="K35" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="L35" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="O35" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -4673,56 +5076,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="X35" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="Y35" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>39378</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>334</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="J36" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="K36" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="L36" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="O36" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -4740,56 +5147,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="X36" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="Y36" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>39378</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>341</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="J37" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="K37" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="L37" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="O37" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4807,56 +5218,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="X37" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="Y37" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>39378</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>351</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="J38" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="K38" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="L38" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4878,56 +5293,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="X38" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="Y38" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>39378</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>361</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="J39" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="K39" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="L39" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="O39" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -4949,56 +5368,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="X39" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="Y39" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>39378</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>370</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="J40" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="K40" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="L40" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5010,56 +5433,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="X40" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="Y40" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>39378</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>379</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="J41" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="K41" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="L41" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="O41" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5071,56 +5498,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="X41" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="Y41" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>39378</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>389</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="J42" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="K42" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="L42" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -5144,50 +5575,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>39378</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>397</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="J43" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="K43" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="L43" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -5211,50 +5646,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>39378</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>404</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="J44" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="K44" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="L44" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="O44" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P44" t="n">
         <v>2</v>
@@ -5278,50 +5717,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>39378</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>412</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="J45" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="K45" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="L45" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="O45" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P45" t="n">
         <v>2</v>
@@ -5345,50 +5788,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>39378</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>419</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="J46" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="K46" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="L46" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>1</v>
@@ -5412,50 +5859,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>39378</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>425</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="J47" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="K47" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="L47" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="O47" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5477,50 +5928,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>39378</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>433</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="J48" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="K48" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
       <c r="L48" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -5544,50 +5999,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>39378</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>441</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="J49" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="K49" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="L49" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="O49" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5611,50 +6070,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>39378</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>448</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="J50" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="K50" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="L50" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="O50" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5678,50 +6141,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>39378</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>456</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>407</v>
+        <v>457</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="J51" t="s">
-        <v>409</v>
+        <v>459</v>
       </c>
       <c r="K51" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="L51" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="O51" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -5745,50 +6212,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>39378</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>464</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="J52" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
       <c r="K52" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="L52" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="O52" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5812,50 +6283,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>39378</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>470</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="J53" t="s">
-        <v>421</v>
+        <v>473</v>
       </c>
       <c r="K53" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="L53" t="s">
-        <v>423</v>
+        <v>475</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="O53" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5879,50 +6354,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>39378</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>478</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="J54" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="K54" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="L54" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="O54" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -5946,50 +6425,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>431</v>
+        <v>484</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>39378</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>485</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="J55" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="K55" t="s">
-        <v>435</v>
+        <v>489</v>
       </c>
       <c r="L55" t="s">
-        <v>436</v>
+        <v>490</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="O55" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6003,50 +6486,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>436</v>
+        <v>490</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>39378</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>492</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="J56" t="s">
-        <v>440</v>
+        <v>495</v>
       </c>
       <c r="K56" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="L56" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="M56" t="n">
         <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
       <c r="O56" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -6070,50 +6557,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>39378</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>499</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>445</v>
+        <v>501</v>
       </c>
       <c r="J57" t="s">
-        <v>446</v>
+        <v>502</v>
       </c>
       <c r="K57" t="s">
-        <v>447</v>
+        <v>503</v>
       </c>
       <c r="L57" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -6137,41 +6628,45 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>39378</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>505</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="J58" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="K58" t="s">
-        <v>452</v>
+        <v>509</v>
       </c>
       <c r="L58" t="s">
-        <v>453</v>
+        <v>510</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
@@ -6200,50 +6695,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>453</v>
+        <v>510</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>39378</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>511</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>455</v>
+        <v>513</v>
       </c>
       <c r="J59" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
       <c r="K59" t="s">
-        <v>457</v>
+        <v>515</v>
       </c>
       <c r="L59" t="s">
-        <v>458</v>
+        <v>516</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>459</v>
+        <v>517</v>
       </c>
       <c r="O59" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P59" t="n">
         <v>1</v>
@@ -6267,50 +6766,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>458</v>
+        <v>516</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>39378</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>518</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>460</v>
+        <v>519</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>461</v>
+        <v>520</v>
       </c>
       <c r="J60" t="s">
-        <v>462</v>
+        <v>521</v>
       </c>
       <c r="K60" t="s">
-        <v>463</v>
+        <v>522</v>
       </c>
       <c r="L60" t="s">
-        <v>464</v>
+        <v>523</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>465</v>
+        <v>524</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6334,50 +6837,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>464</v>
+        <v>523</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>39378</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>525</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>466</v>
+        <v>526</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>467</v>
+        <v>527</v>
       </c>
       <c r="J61" t="s">
-        <v>468</v>
+        <v>528</v>
       </c>
       <c r="K61" t="s">
-        <v>469</v>
+        <v>529</v>
       </c>
       <c r="L61" t="s">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>471</v>
+        <v>531</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -6401,50 +6908,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>470</v>
+        <v>530</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>39378</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>532</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>472</v>
+        <v>533</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>473</v>
+        <v>534</v>
       </c>
       <c r="J62" t="s">
-        <v>474</v>
+        <v>535</v>
       </c>
       <c r="K62" t="s">
-        <v>475</v>
+        <v>536</v>
       </c>
       <c r="L62" t="s">
-        <v>476</v>
+        <v>537</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>477</v>
+        <v>538</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6468,50 +6979,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>478</v>
+        <v>539</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>39378</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>540</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>479</v>
+        <v>541</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>480</v>
+        <v>542</v>
       </c>
       <c r="J63" t="s">
-        <v>481</v>
+        <v>543</v>
       </c>
       <c r="K63" t="s">
-        <v>482</v>
+        <v>544</v>
       </c>
       <c r="L63" t="s">
-        <v>483</v>
+        <v>545</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>484</v>
+        <v>546</v>
       </c>
       <c r="O63" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P63" t="n">
         <v>3</v>
@@ -6535,50 +7050,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>483</v>
+        <v>545</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>39378</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>547</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>485</v>
+        <v>548</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>486</v>
+        <v>549</v>
       </c>
       <c r="J64" t="s">
-        <v>487</v>
+        <v>550</v>
       </c>
       <c r="K64" t="s">
-        <v>488</v>
+        <v>551</v>
       </c>
       <c r="L64" t="s">
-        <v>489</v>
+        <v>552</v>
       </c>
       <c r="M64" t="n">
         <v>2</v>
       </c>
       <c r="N64" t="s">
-        <v>490</v>
+        <v>553</v>
       </c>
       <c r="O64" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P64" t="n">
         <v>3</v>
@@ -6602,41 +7121,45 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>491</v>
+        <v>554</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>39378</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>555</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>492</v>
+        <v>556</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>493</v>
+        <v>557</v>
       </c>
       <c r="J65" t="s">
-        <v>494</v>
+        <v>558</v>
       </c>
       <c r="K65" t="s">
-        <v>495</v>
+        <v>559</v>
       </c>
       <c r="L65" t="s">
-        <v>496</v>
+        <v>560</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
@@ -6665,50 +7188,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>496</v>
+        <v>560</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>39378</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>561</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>497</v>
+        <v>562</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>498</v>
+        <v>563</v>
       </c>
       <c r="J66" t="s">
-        <v>499</v>
+        <v>564</v>
       </c>
       <c r="K66" t="s">
-        <v>500</v>
+        <v>565</v>
       </c>
       <c r="L66" t="s">
-        <v>501</v>
+        <v>566</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>502</v>
+        <v>567</v>
       </c>
       <c r="O66" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -6732,50 +7259,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>501</v>
+        <v>566</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>39378</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>568</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>503</v>
+        <v>569</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>504</v>
+        <v>570</v>
       </c>
       <c r="J67" t="s">
-        <v>505</v>
+        <v>571</v>
       </c>
       <c r="K67" t="s">
-        <v>506</v>
+        <v>572</v>
       </c>
       <c r="L67" t="s">
-        <v>507</v>
+        <v>573</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>502</v>
+        <v>567</v>
       </c>
       <c r="O67" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6799,50 +7330,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>507</v>
+        <v>573</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>39378</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>574</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>508</v>
+        <v>575</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>509</v>
+        <v>576</v>
       </c>
       <c r="J68" t="s">
-        <v>510</v>
+        <v>577</v>
       </c>
       <c r="K68" t="s">
-        <v>511</v>
+        <v>578</v>
       </c>
       <c r="L68" t="s">
-        <v>512</v>
+        <v>579</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>513</v>
+        <v>580</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -6856,50 +7391,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>512</v>
+        <v>579</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>39378</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>581</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>514</v>
+        <v>582</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>515</v>
+        <v>583</v>
       </c>
       <c r="J69" t="s">
-        <v>516</v>
+        <v>584</v>
       </c>
       <c r="K69" t="s">
-        <v>517</v>
+        <v>585</v>
       </c>
       <c r="L69" t="s">
-        <v>518</v>
+        <v>586</v>
       </c>
       <c r="M69" t="n">
         <v>2</v>
       </c>
       <c r="N69" t="s">
-        <v>513</v>
+        <v>580</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>2</v>
@@ -6923,50 +7462,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>519</v>
+        <v>587</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>39378</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>588</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>520</v>
+        <v>589</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>521</v>
+        <v>590</v>
       </c>
       <c r="J70" t="s">
-        <v>522</v>
+        <v>591</v>
       </c>
       <c r="K70" t="s">
-        <v>523</v>
+        <v>592</v>
       </c>
       <c r="L70" t="s">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>525</v>
+        <v>594</v>
       </c>
       <c r="O70" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
@@ -6982,50 +7525,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>524</v>
+        <v>593</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>39378</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>595</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>526</v>
+        <v>596</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>527</v>
+        <v>597</v>
       </c>
       <c r="J71" t="s">
-        <v>528</v>
+        <v>598</v>
       </c>
       <c r="K71" t="s">
-        <v>529</v>
+        <v>599</v>
       </c>
       <c r="L71" t="s">
-        <v>530</v>
+        <v>600</v>
       </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
       <c r="N71" t="s">
-        <v>525</v>
+        <v>594</v>
       </c>
       <c r="O71" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P71" t="n">
         <v>2</v>
@@ -7045,50 +7592,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>530</v>
+        <v>600</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>39378</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>601</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>531</v>
+        <v>602</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>532</v>
+        <v>603</v>
       </c>
       <c r="J72" t="s">
-        <v>533</v>
+        <v>604</v>
       </c>
       <c r="K72" t="s">
-        <v>534</v>
+        <v>605</v>
       </c>
       <c r="L72" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>536</v>
+        <v>607</v>
       </c>
       <c r="O72" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -7106,56 +7657,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>537</v>
+        <v>608</v>
       </c>
       <c r="X72" t="s">
-        <v>538</v>
+        <v>609</v>
       </c>
       <c r="Y72" t="s">
-        <v>539</v>
+        <v>610</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>39378</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>611</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>540</v>
+        <v>612</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>541</v>
+        <v>613</v>
       </c>
       <c r="J73" t="s">
-        <v>542</v>
+        <v>614</v>
       </c>
       <c r="K73" t="s">
-        <v>543</v>
+        <v>615</v>
       </c>
       <c r="L73" t="s">
-        <v>544</v>
+        <v>616</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>536</v>
+        <v>607</v>
       </c>
       <c r="O73" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7173,56 +7728,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>537</v>
+        <v>608</v>
       </c>
       <c r="X73" t="s">
-        <v>538</v>
+        <v>609</v>
       </c>
       <c r="Y73" t="s">
-        <v>545</v>
+        <v>617</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>39378</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>618</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>546</v>
+        <v>619</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>547</v>
+        <v>620</v>
       </c>
       <c r="J74" t="s">
-        <v>548</v>
+        <v>621</v>
       </c>
       <c r="K74" t="s">
-        <v>549</v>
+        <v>622</v>
       </c>
       <c r="L74" t="s">
-        <v>550</v>
+        <v>623</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>551</v>
+        <v>624</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>1</v>
@@ -7246,50 +7805,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>552</v>
+        <v>625</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>39378</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>626</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>553</v>
+        <v>627</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>554</v>
+        <v>628</v>
       </c>
       <c r="J75" t="s">
-        <v>555</v>
+        <v>629</v>
       </c>
       <c r="K75" t="s">
-        <v>556</v>
+        <v>630</v>
       </c>
       <c r="L75" t="s">
-        <v>557</v>
+        <v>631</v>
       </c>
       <c r="M75" t="n">
         <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>558</v>
+        <v>632</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>3</v>
@@ -7313,50 +7876,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>557</v>
+        <v>631</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>39378</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>633</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>559</v>
+        <v>634</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>560</v>
+        <v>635</v>
       </c>
       <c r="J76" t="s">
-        <v>561</v>
+        <v>636</v>
       </c>
       <c r="K76" t="s">
-        <v>562</v>
+        <v>637</v>
       </c>
       <c r="L76" t="s">
-        <v>563</v>
+        <v>638</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>558</v>
+        <v>632</v>
       </c>
       <c r="O76" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7380,50 +7947,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>563</v>
+        <v>638</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>39378</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>639</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>564</v>
+        <v>640</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>565</v>
+        <v>641</v>
       </c>
       <c r="J77" t="s">
-        <v>566</v>
+        <v>642</v>
       </c>
       <c r="K77" t="s">
-        <v>567</v>
+        <v>643</v>
       </c>
       <c r="L77" t="s">
-        <v>568</v>
+        <v>644</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>569</v>
+        <v>645</v>
       </c>
       <c r="O77" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7447,41 +8018,45 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>568</v>
+        <v>644</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>39378</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>646</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>570</v>
+        <v>647</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>571</v>
+        <v>648</v>
       </c>
       <c r="J78" t="s">
-        <v>572</v>
+        <v>649</v>
       </c>
       <c r="K78" t="s">
-        <v>573</v>
+        <v>650</v>
       </c>
       <c r="L78" t="s">
-        <v>574</v>
+        <v>651</v>
       </c>
       <c r="M78" t="n">
         <v>2</v>
@@ -7510,50 +8085,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>575</v>
+        <v>652</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>39378</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>653</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>576</v>
+        <v>654</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>577</v>
+        <v>655</v>
       </c>
       <c r="J79" t="s">
-        <v>578</v>
+        <v>656</v>
       </c>
       <c r="K79" t="s">
-        <v>579</v>
+        <v>657</v>
       </c>
       <c r="L79" t="s">
-        <v>580</v>
+        <v>658</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>569</v>
+        <v>645</v>
       </c>
       <c r="O79" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7577,50 +8156,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>580</v>
+        <v>658</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>39378</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>659</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>581</v>
+        <v>660</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>582</v>
+        <v>661</v>
       </c>
       <c r="J80" t="s">
-        <v>583</v>
+        <v>662</v>
       </c>
       <c r="K80" t="s">
-        <v>584</v>
+        <v>663</v>
       </c>
       <c r="L80" t="s">
-        <v>585</v>
+        <v>664</v>
       </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
       <c r="N80" t="s">
-        <v>586</v>
+        <v>665</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>1</v>
@@ -7644,50 +8227,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>587</v>
+        <v>666</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>39378</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>667</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>588</v>
+        <v>668</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>589</v>
+        <v>669</v>
       </c>
       <c r="J81" t="s">
-        <v>590</v>
+        <v>670</v>
       </c>
       <c r="K81" t="s">
-        <v>591</v>
+        <v>671</v>
       </c>
       <c r="L81" t="s">
-        <v>592</v>
+        <v>672</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>593</v>
+        <v>673</v>
       </c>
       <c r="O81" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -7711,50 +8298,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>592</v>
+        <v>672</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>39378</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>674</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>594</v>
+        <v>675</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>595</v>
+        <v>676</v>
       </c>
       <c r="J82" t="s">
-        <v>596</v>
+        <v>677</v>
       </c>
       <c r="K82" t="s">
-        <v>597</v>
+        <v>678</v>
       </c>
       <c r="L82" t="s">
-        <v>598</v>
+        <v>679</v>
       </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
       <c r="N82" t="s">
-        <v>593</v>
+        <v>673</v>
       </c>
       <c r="O82" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P82" t="n">
         <v>2</v>
@@ -7778,50 +8369,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>599</v>
+        <v>680</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>39378</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>681</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>600</v>
+        <v>682</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>601</v>
+        <v>683</v>
       </c>
       <c r="J83" t="s">
-        <v>602</v>
+        <v>684</v>
       </c>
       <c r="K83" t="s">
-        <v>603</v>
+        <v>685</v>
       </c>
       <c r="L83" t="s">
-        <v>604</v>
+        <v>686</v>
       </c>
       <c r="M83" t="n">
         <v>2</v>
       </c>
       <c r="N83" t="s">
-        <v>605</v>
+        <v>687</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>2</v>
@@ -7845,50 +8440,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>606</v>
+        <v>688</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>39378</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>689</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>607</v>
+        <v>690</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>608</v>
+        <v>691</v>
       </c>
       <c r="J84" t="s">
-        <v>609</v>
+        <v>692</v>
       </c>
       <c r="K84" t="s">
-        <v>610</v>
+        <v>693</v>
       </c>
       <c r="L84" t="s">
-        <v>611</v>
+        <v>694</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
       </c>
       <c r="N84" t="s">
-        <v>605</v>
+        <v>687</v>
       </c>
       <c r="O84" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P84" t="n">
         <v>3</v>
@@ -7912,50 +8511,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>611</v>
+        <v>694</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>39378</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>695</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>612</v>
+        <v>696</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>613</v>
+        <v>697</v>
       </c>
       <c r="J85" t="s">
-        <v>614</v>
+        <v>698</v>
       </c>
       <c r="K85" t="s">
-        <v>615</v>
+        <v>699</v>
       </c>
       <c r="L85" t="s">
-        <v>616</v>
+        <v>700</v>
       </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
       <c r="N85" t="s">
-        <v>617</v>
+        <v>701</v>
       </c>
       <c r="O85" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P85" t="n">
         <v>1</v>
@@ -7979,41 +8582,45 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>618</v>
+        <v>702</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>39378</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>703</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>619</v>
+        <v>704</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>620</v>
+        <v>705</v>
       </c>
       <c r="J86" t="s">
-        <v>621</v>
+        <v>706</v>
       </c>
       <c r="K86" t="s">
-        <v>622</v>
+        <v>707</v>
       </c>
       <c r="L86" t="s">
-        <v>623</v>
+        <v>708</v>
       </c>
       <c r="M86" t="n">
         <v>3</v>
@@ -8040,41 +8647,45 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>624</v>
+        <v>709</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>39378</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>710</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>625</v>
+        <v>711</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>626</v>
+        <v>712</v>
       </c>
       <c r="J87" t="s">
-        <v>627</v>
+        <v>713</v>
       </c>
       <c r="K87" t="s">
-        <v>628</v>
+        <v>714</v>
       </c>
       <c r="L87" t="s">
-        <v>629</v>
+        <v>715</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
@@ -8101,50 +8712,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>629</v>
+        <v>715</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>39378</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>716</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>630</v>
+        <v>717</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>631</v>
+        <v>718</v>
       </c>
       <c r="J88" t="s">
-        <v>632</v>
+        <v>719</v>
       </c>
       <c r="K88" t="s">
-        <v>633</v>
+        <v>720</v>
       </c>
       <c r="L88" t="s">
-        <v>634</v>
+        <v>721</v>
       </c>
       <c r="M88" t="n">
         <v>2</v>
       </c>
       <c r="N88" t="s">
-        <v>635</v>
+        <v>722</v>
       </c>
       <c r="O88" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P88" t="n">
         <v>3</v>
@@ -8166,41 +8781,45 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>636</v>
+        <v>723</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>39378</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>118</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>637</v>
+        <v>724</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>638</v>
+        <v>725</v>
       </c>
       <c r="J89" t="s">
-        <v>639</v>
+        <v>726</v>
       </c>
       <c r="K89" t="s">
-        <v>640</v>
+        <v>727</v>
       </c>
       <c r="L89" t="s">
-        <v>641</v>
+        <v>728</v>
       </c>
       <c r="M89" t="n">
         <v>1</v>
@@ -8227,41 +8846,45 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>642</v>
+        <v>729</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>39378</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>118</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>643</v>
+        <v>730</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>644</v>
+        <v>731</v>
       </c>
       <c r="J90" t="s">
-        <v>645</v>
+        <v>732</v>
       </c>
       <c r="K90" t="s">
-        <v>646</v>
+        <v>733</v>
       </c>
       <c r="L90" t="s">
-        <v>647</v>
+        <v>734</v>
       </c>
       <c r="M90" t="n">
         <v>2</v>
@@ -8280,41 +8903,45 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>648</v>
+        <v>735</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>39378</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>736</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>649</v>
+        <v>737</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>650</v>
+        <v>738</v>
       </c>
       <c r="J91" t="s">
-        <v>651</v>
+        <v>739</v>
       </c>
       <c r="K91" t="s">
-        <v>652</v>
+        <v>740</v>
       </c>
       <c r="L91" t="s">
-        <v>653</v>
+        <v>741</v>
       </c>
       <c r="M91" t="n">
         <v>2</v>
@@ -8333,41 +8960,45 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>653</v>
+        <v>741</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>39378</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>118</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>654</v>
+        <v>742</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>655</v>
+        <v>743</v>
       </c>
       <c r="J92" t="s">
-        <v>656</v>
+        <v>744</v>
       </c>
       <c r="K92" t="s">
-        <v>657</v>
+        <v>745</v>
       </c>
       <c r="L92" t="s">
-        <v>658</v>
+        <v>746</v>
       </c>
       <c r="M92" t="n">
         <v>2</v>
@@ -8386,41 +9017,45 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>658</v>
+        <v>746</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>39378</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>118</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>659</v>
+        <v>747</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>660</v>
+        <v>748</v>
       </c>
       <c r="J93" t="s">
-        <v>661</v>
+        <v>749</v>
       </c>
       <c r="K93" t="s">
-        <v>662</v>
+        <v>750</v>
       </c>
       <c r="L93" t="s">
-        <v>663</v>
+        <v>751</v>
       </c>
       <c r="M93" t="n">
         <v>1</v>
@@ -8447,41 +9082,45 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>664</v>
+        <v>752</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>39378</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>753</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>665</v>
+        <v>754</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>666</v>
+        <v>755</v>
       </c>
       <c r="J94" t="s">
-        <v>667</v>
+        <v>756</v>
       </c>
       <c r="K94" t="s">
-        <v>668</v>
+        <v>757</v>
       </c>
       <c r="L94" t="s">
-        <v>669</v>
+        <v>758</v>
       </c>
       <c r="M94" t="n">
         <v>2</v>
@@ -8500,7 +9139,7 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>669</v>
+        <v>758</v>
       </c>
     </row>
   </sheetData>
